--- a/Master_Data_Updated_Nov_Dec2.xlsx
+++ b/Master_Data_Updated_Nov_Dec2.xlsx
@@ -9,8 +9,8 @@
   <sheets>
     <sheet name="Part Master" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Sales Order" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Machine Constraints" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Stage WIP" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Stage WIP" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Machine Constraints" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="Mould Box Capacity" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
@@ -20,9 +20,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -62,12 +61,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -685,7 +685,6 @@
           <t>KVCAD30MC001</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
         <v>240</v>
       </c>
@@ -730,9 +729,6 @@
           <t>KVCALFPSP001</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
       <c r="X2" t="n">
         <v>2</v>
       </c>
@@ -824,8 +820,6 @@
           <t>KVCAD30MC001</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
         <v>240</v>
       </c>
@@ -1129,7 +1123,6 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
         <v>60</v>
       </c>
@@ -1279,7 +1272,6 @@
           <t>KVCAD30MC001</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
         <v>240</v>
       </c>
@@ -1324,9 +1316,6 @@
           <t>KVCALFPSP001</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
       <c r="X6" t="n">
         <v>2</v>
       </c>
@@ -1423,7 +1412,6 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
         <v>40</v>
       </c>
@@ -1573,7 +1561,6 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
         <v>40</v>
       </c>
@@ -1723,7 +1710,6 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
         <v>40</v>
       </c>
@@ -1868,8 +1854,6 @@
           <t>MC1CKT-001</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
         <v>10</v>
       </c>
@@ -1904,11 +1888,6 @@
           <t>SP1CKT-001</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
       <c r="X10" t="n">
         <v>2</v>
       </c>
@@ -2355,10 +2334,6 @@
           <t>KVCALPPSP002</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr"/>
-      <c r="U13" t="inlineStr"/>
-      <c r="V13" t="inlineStr"/>
-      <c r="W13" t="inlineStr"/>
       <c r="X13" t="n">
         <v>2</v>
       </c>
@@ -2377,7 +2352,6 @@
       <c r="AC13" t="n">
         <v>0</v>
       </c>
-      <c r="AD13" t="inlineStr"/>
       <c r="AE13" t="n">
         <v>0</v>
       </c>
@@ -2446,8 +2420,6 @@
           <t>MC1-DGC-004</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
       <c r="I14" t="n">
         <v>90</v>
       </c>
@@ -2487,10 +2459,6 @@
           <t>KVCALPPSP002</t>
         </is>
       </c>
-      <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
       <c r="X14" t="n">
         <v>2</v>
       </c>
@@ -2509,7 +2477,6 @@
       <c r="AC14" t="n">
         <v>0</v>
       </c>
-      <c r="AD14" t="inlineStr"/>
       <c r="AE14" t="n">
         <v>0</v>
       </c>
@@ -2578,8 +2545,6 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
       <c r="I15" t="n">
         <v>130</v>
       </c>
@@ -2619,7 +2584,6 @@
           <t>KVCALPPSP002</t>
         </is>
       </c>
-      <c r="T15" t="inlineStr"/>
       <c r="U15" t="n">
         <v>7</v>
       </c>
@@ -2872,8 +2836,6 @@
       <c r="F17" t="n">
         <v>0</v>
       </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
       <c r="I17" t="n">
         <v>0</v>
       </c>
@@ -2913,10 +2875,6 @@
           <t>KVCALPPSP002</t>
         </is>
       </c>
-      <c r="T17" t="inlineStr"/>
-      <c r="U17" t="inlineStr"/>
-      <c r="V17" t="inlineStr"/>
-      <c r="W17" t="inlineStr"/>
       <c r="X17" t="n">
         <v>2</v>
       </c>
@@ -3160,8 +3118,6 @@
           <t>MC1-DGC-009</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
       <c r="I19" t="n">
         <v>25</v>
       </c>
@@ -3201,10 +3157,6 @@
           <t>KVCALPPSP002</t>
         </is>
       </c>
-      <c r="T19" t="inlineStr"/>
-      <c r="U19" t="inlineStr"/>
-      <c r="V19" t="inlineStr"/>
-      <c r="W19" t="inlineStr"/>
       <c r="X19" t="n">
         <v>2</v>
       </c>
@@ -3223,7 +3175,6 @@
       <c r="AC19" t="n">
         <v>0</v>
       </c>
-      <c r="AD19" t="inlineStr"/>
       <c r="AE19" t="n">
         <v>0</v>
       </c>
@@ -3757,7 +3708,6 @@
           <t>KVCAD40MC001</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr"/>
       <c r="I23" t="n">
         <v>150</v>
       </c>
@@ -3802,9 +3752,6 @@
           <t>KVCALFPSP001</t>
         </is>
       </c>
-      <c r="U23" t="inlineStr"/>
-      <c r="V23" t="inlineStr"/>
-      <c r="W23" t="inlineStr"/>
       <c r="X23" t="n">
         <v>2</v>
       </c>
@@ -3901,7 +3848,6 @@
           <t>KVCAD40MC001</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr"/>
       <c r="I24" t="n">
         <v>50</v>
       </c>
@@ -3946,9 +3892,6 @@
           <t>KVCALFPSP001</t>
         </is>
       </c>
-      <c r="U24" t="inlineStr"/>
-      <c r="V24" t="inlineStr"/>
-      <c r="W24" t="inlineStr"/>
       <c r="X24" t="n">
         <v>2</v>
       </c>
@@ -3967,7 +3910,6 @@
       <c r="AC24" t="n">
         <v>1</v>
       </c>
-      <c r="AD24" t="inlineStr"/>
       <c r="AE24" t="n">
         <v>0</v>
       </c>
@@ -4041,7 +3983,6 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr"/>
       <c r="I25" t="n">
         <v>90</v>
       </c>
@@ -4086,9 +4027,6 @@
           <t>KVCALFPSP001</t>
         </is>
       </c>
-      <c r="U25" t="inlineStr"/>
-      <c r="V25" t="inlineStr"/>
-      <c r="W25" t="inlineStr"/>
       <c r="X25" t="n">
         <v>2</v>
       </c>
@@ -4107,7 +4045,6 @@
       <c r="AC25" t="n">
         <v>1</v>
       </c>
-      <c r="AD25" t="inlineStr"/>
       <c r="AE25" t="n">
         <v>0</v>
       </c>
@@ -4181,7 +4118,6 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr"/>
       <c r="I26" t="n">
         <v>150</v>
       </c>
@@ -4226,9 +4162,6 @@
           <t>KVCALFPSP001</t>
         </is>
       </c>
-      <c r="U26" t="inlineStr"/>
-      <c r="V26" t="inlineStr"/>
-      <c r="W26" t="inlineStr"/>
       <c r="X26" t="n">
         <v>2</v>
       </c>
@@ -4325,7 +4258,6 @@
           <t>BVCAD30MC001</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr"/>
       <c r="I27" t="n">
         <v>150</v>
       </c>
@@ -4370,9 +4302,6 @@
           <t>BVCALFPSP001</t>
         </is>
       </c>
-      <c r="U27" t="inlineStr"/>
-      <c r="V27" t="inlineStr"/>
-      <c r="W27" t="inlineStr"/>
       <c r="X27" t="n">
         <v>2</v>
       </c>
@@ -4391,7 +4320,6 @@
       <c r="AC27" t="n">
         <v>1</v>
       </c>
-      <c r="AD27" t="inlineStr"/>
       <c r="AE27" t="n">
         <v>0</v>
       </c>
@@ -4465,7 +4393,6 @@
           <t>KVCAD30MC001</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr"/>
       <c r="I28" t="n">
         <v>50</v>
       </c>
@@ -4505,10 +4432,6 @@
           <t>KVCALPPSP002</t>
         </is>
       </c>
-      <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr"/>
-      <c r="V28" t="inlineStr"/>
-      <c r="W28" t="inlineStr"/>
       <c r="X28" t="n">
         <v>2</v>
       </c>
@@ -4913,7 +4836,6 @@
           <t>BVCABM1MC001</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr"/>
       <c r="I31" t="n">
         <v>90</v>
       </c>
@@ -4958,9 +4880,6 @@
           <t>KVCALFPSP001</t>
         </is>
       </c>
-      <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr"/>
-      <c r="W31" t="inlineStr"/>
       <c r="X31" t="n">
         <v>2</v>
       </c>
@@ -5106,9 +5025,6 @@
           <t>KVCALFPSP001</t>
         </is>
       </c>
-      <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr"/>
-      <c r="W32" t="inlineStr"/>
       <c r="X32" t="n">
         <v>2</v>
       </c>
@@ -5254,9 +5170,6 @@
           <t>KVCALFPSP001</t>
         </is>
       </c>
-      <c r="U33" t="inlineStr"/>
-      <c r="V33" t="inlineStr"/>
-      <c r="W33" t="inlineStr"/>
       <c r="X33" t="n">
         <v>2</v>
       </c>
@@ -5402,9 +5315,6 @@
           <t>KVCALFPSP001</t>
         </is>
       </c>
-      <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr"/>
-      <c r="W34" t="inlineStr"/>
       <c r="X34" t="n">
         <v>2</v>
       </c>
@@ -5550,9 +5460,6 @@
           <t>KVCALFPSP001</t>
         </is>
       </c>
-      <c r="U35" t="inlineStr"/>
-      <c r="V35" t="inlineStr"/>
-      <c r="W35" t="inlineStr"/>
       <c r="X35" t="n">
         <v>2</v>
       </c>
@@ -5649,7 +5556,6 @@
           <t>KVCABM2MC001</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr"/>
       <c r="I36" t="n">
         <v>45</v>
       </c>
@@ -5694,9 +5600,6 @@
           <t>KVCALFPSP001</t>
         </is>
       </c>
-      <c r="U36" t="inlineStr"/>
-      <c r="V36" t="inlineStr"/>
-      <c r="W36" t="inlineStr"/>
       <c r="X36" t="n">
         <v>2</v>
       </c>
@@ -5793,7 +5696,6 @@
           <t>KVCAD40MC001</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr"/>
       <c r="I37" t="n">
         <v>45</v>
       </c>
@@ -5838,9 +5740,6 @@
           <t>KVCALFPSP001</t>
         </is>
       </c>
-      <c r="U37" t="inlineStr"/>
-      <c r="V37" t="inlineStr"/>
-      <c r="W37" t="inlineStr"/>
       <c r="X37" t="n">
         <v>2</v>
       </c>
@@ -5937,7 +5836,6 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr"/>
       <c r="I38" t="n">
         <v>45</v>
       </c>
@@ -5982,9 +5880,6 @@
           <t>KVCALFPSP001</t>
         </is>
       </c>
-      <c r="U38" t="inlineStr"/>
-      <c r="V38" t="inlineStr"/>
-      <c r="W38" t="inlineStr"/>
       <c r="X38" t="n">
         <v>2</v>
       </c>
@@ -6081,7 +5976,6 @@
           <t>KVCAD40MC001</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr"/>
       <c r="I39" t="n">
         <v>90</v>
       </c>
@@ -6380,8 +6274,6 @@
           <t>BVCAD30MC001</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr"/>
       <c r="I41" t="n">
         <v>40</v>
       </c>
@@ -6421,7 +6313,6 @@
           <t>BVCALPPSP002</t>
         </is>
       </c>
-      <c r="T41" t="inlineStr"/>
       <c r="U41" t="n">
         <v>7</v>
       </c>
@@ -6522,8 +6413,6 @@
           <t>BVCAD30MC001</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr"/>
       <c r="I42" t="n">
         <v>40</v>
       </c>
@@ -6563,7 +6452,6 @@
           <t>BVCALPPSP002</t>
         </is>
       </c>
-      <c r="T42" t="inlineStr"/>
       <c r="U42" t="n">
         <v>7</v>
       </c>
@@ -6669,7 +6557,6 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr"/>
       <c r="I43" t="n">
         <v>30</v>
       </c>
@@ -6819,7 +6706,6 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr"/>
       <c r="I44" t="n">
         <v>30</v>
       </c>
@@ -6969,7 +6855,6 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr"/>
       <c r="I45" t="n">
         <v>20</v>
       </c>
@@ -7119,7 +7004,6 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr"/>
       <c r="I46" t="n">
         <v>30</v>
       </c>
@@ -7269,7 +7153,6 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr"/>
       <c r="I47" t="n">
         <v>25</v>
       </c>
@@ -7419,7 +7302,6 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr"/>
       <c r="I48" t="n">
         <v>25</v>
       </c>
@@ -7569,7 +7451,6 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr"/>
       <c r="I49" t="n">
         <v>25</v>
       </c>
@@ -7609,10 +7490,6 @@
           <t>KVCALPPSP002</t>
         </is>
       </c>
-      <c r="T49" t="inlineStr"/>
-      <c r="U49" t="inlineStr"/>
-      <c r="V49" t="inlineStr"/>
-      <c r="W49" t="inlineStr"/>
       <c r="X49" t="n">
         <v>2</v>
       </c>
@@ -7709,7 +7586,6 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr"/>
       <c r="I50" t="n">
         <v>30</v>
       </c>
@@ -7749,10 +7625,6 @@
           <t>KVCALPPSP002</t>
         </is>
       </c>
-      <c r="T50" t="inlineStr"/>
-      <c r="U50" t="inlineStr"/>
-      <c r="V50" t="inlineStr"/>
-      <c r="W50" t="inlineStr"/>
       <c r="X50" t="n">
         <v>2</v>
       </c>
@@ -7771,7 +7643,6 @@
       <c r="AC50" t="n">
         <v>1</v>
       </c>
-      <c r="AD50" t="inlineStr"/>
       <c r="AE50" t="n">
         <v>0</v>
       </c>
@@ -7845,7 +7716,6 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr"/>
       <c r="I51" t="n">
         <v>30</v>
       </c>
@@ -7885,10 +7755,6 @@
           <t>KVCALPPSP002</t>
         </is>
       </c>
-      <c r="T51" t="inlineStr"/>
-      <c r="U51" t="inlineStr"/>
-      <c r="V51" t="inlineStr"/>
-      <c r="W51" t="inlineStr"/>
       <c r="X51" t="n">
         <v>2</v>
       </c>
@@ -7907,7 +7773,6 @@
       <c r="AC51" t="n">
         <v>1</v>
       </c>
-      <c r="AD51" t="inlineStr"/>
       <c r="AE51" t="n">
         <v>0</v>
       </c>
@@ -7981,7 +7846,6 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr"/>
       <c r="I52" t="n">
         <v>20</v>
       </c>
@@ -8131,7 +7995,6 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr"/>
       <c r="I53" t="n">
         <v>35</v>
       </c>
@@ -8281,7 +8144,6 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr"/>
       <c r="I54" t="n">
         <v>35</v>
       </c>
@@ -8426,8 +8288,6 @@
           <t>KVCALHTMC001</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr"/>
-      <c r="H55" t="inlineStr"/>
       <c r="I55" t="n">
         <v>25</v>
       </c>
@@ -8577,7 +8437,6 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr"/>
       <c r="I56" t="n">
         <v>40</v>
       </c>
@@ -8727,7 +8586,6 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr"/>
       <c r="I57" t="n">
         <v>30</v>
       </c>
@@ -8872,8 +8730,6 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr"/>
-      <c r="H58" t="inlineStr"/>
       <c r="I58" t="n">
         <v>90</v>
       </c>
@@ -9018,8 +8874,6 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr"/>
-      <c r="H59" t="inlineStr"/>
       <c r="I59" t="n">
         <v>40</v>
       </c>
@@ -9164,8 +9018,6 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr"/>
-      <c r="H60" t="inlineStr"/>
       <c r="I60" t="n">
         <v>150</v>
       </c>
@@ -9310,8 +9162,6 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr"/>
-      <c r="H61" t="inlineStr"/>
       <c r="I61" t="n">
         <v>40</v>
       </c>
@@ -9461,7 +9311,6 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr"/>
       <c r="I62" t="n">
         <v>30</v>
       </c>
@@ -10069,7 +9918,6 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr"/>
       <c r="I66" t="n">
         <v>40</v>
       </c>
@@ -10219,7 +10067,6 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr"/>
       <c r="I67" t="n">
         <v>40</v>
       </c>
@@ -10369,7 +10216,6 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr"/>
       <c r="I68" t="n">
         <v>40</v>
       </c>
@@ -10519,7 +10365,6 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr"/>
       <c r="I69" t="n">
         <v>40</v>
       </c>
@@ -10669,7 +10514,6 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr"/>
       <c r="I70" t="n">
         <v>40</v>
       </c>
@@ -10814,8 +10658,6 @@
           <t>MC1-MGB-001</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr"/>
-      <c r="H71" t="inlineStr"/>
       <c r="I71" t="n">
         <v>30</v>
       </c>
@@ -10855,10 +10697,6 @@
           <t>KVCALPPSP002</t>
         </is>
       </c>
-      <c r="T71" t="inlineStr"/>
-      <c r="U71" t="inlineStr"/>
-      <c r="V71" t="inlineStr"/>
-      <c r="W71" t="inlineStr"/>
       <c r="X71" t="n">
         <v>2</v>
       </c>
@@ -10955,7 +10793,6 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr"/>
       <c r="I72" t="n">
         <v>60</v>
       </c>
@@ -11404,8 +11241,6 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr"/>
-      <c r="H75" t="inlineStr"/>
       <c r="I75" t="n">
         <v>40</v>
       </c>
@@ -11555,7 +11390,6 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr"/>
       <c r="I76" t="n">
         <v>60</v>
       </c>
@@ -11595,10 +11429,6 @@
           <t>KVCALPPSP002</t>
         </is>
       </c>
-      <c r="T76" t="inlineStr"/>
-      <c r="U76" t="inlineStr"/>
-      <c r="V76" t="inlineStr"/>
-      <c r="W76" t="inlineStr"/>
       <c r="X76" t="n">
         <v>2</v>
       </c>
@@ -11688,8 +11518,6 @@
       <c r="F77" t="n">
         <v>0</v>
       </c>
-      <c r="G77" t="inlineStr"/>
-      <c r="H77" t="inlineStr"/>
       <c r="I77" t="n">
         <v>0</v>
       </c>
@@ -11729,10 +11557,6 @@
           <t>KVCALPPSP002</t>
         </is>
       </c>
-      <c r="T77" t="inlineStr"/>
-      <c r="U77" t="inlineStr"/>
-      <c r="V77" t="inlineStr"/>
-      <c r="W77" t="inlineStr"/>
       <c r="X77" t="n">
         <v>2</v>
       </c>
@@ -11751,7 +11575,6 @@
       <c r="AC77" t="n">
         <v>1</v>
       </c>
-      <c r="AD77" t="inlineStr"/>
       <c r="AE77" t="n">
         <v>0</v>
       </c>
@@ -11825,7 +11648,6 @@
           <t>KVCAD10MC001</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr"/>
       <c r="I78" t="n">
         <v>40</v>
       </c>
@@ -11865,10 +11687,6 @@
           <t>KVCALPPSP002</t>
         </is>
       </c>
-      <c r="T78" t="inlineStr"/>
-      <c r="U78" t="inlineStr"/>
-      <c r="V78" t="inlineStr"/>
-      <c r="W78" t="inlineStr"/>
       <c r="X78" t="n">
         <v>2</v>
       </c>
@@ -11965,7 +11783,6 @@
           <t>KVCAD10MC001</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr"/>
       <c r="I79" t="n">
         <v>40</v>
       </c>
@@ -12005,10 +11822,6 @@
           <t>KVCALPPSP002</t>
         </is>
       </c>
-      <c r="T79" t="inlineStr"/>
-      <c r="U79" t="inlineStr"/>
-      <c r="V79" t="inlineStr"/>
-      <c r="W79" t="inlineStr"/>
       <c r="X79" t="n">
         <v>2</v>
       </c>
@@ -12259,7 +12072,6 @@
           <t>KVCAD40MC001</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr"/>
       <c r="I81" t="n">
         <v>90</v>
       </c>
@@ -12304,9 +12116,6 @@
           <t>KVCALFPSP001</t>
         </is>
       </c>
-      <c r="U81" t="inlineStr"/>
-      <c r="V81" t="inlineStr"/>
-      <c r="W81" t="inlineStr"/>
       <c r="X81" t="n">
         <v>2</v>
       </c>
@@ -12403,7 +12212,6 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr"/>
       <c r="I82" t="n">
         <v>20</v>
       </c>
@@ -13004,8 +12812,6 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr"/>
-      <c r="H86" t="inlineStr"/>
       <c r="I86" t="n">
         <v>40</v>
       </c>
@@ -13150,8 +12956,6 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr"/>
-      <c r="H87" t="inlineStr"/>
       <c r="I87" t="n">
         <v>20</v>
       </c>
@@ -13301,7 +13105,6 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr"/>
       <c r="I88" t="n">
         <v>60</v>
       </c>
@@ -13451,7 +13254,6 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr"/>
       <c r="I89" t="n">
         <v>60</v>
       </c>
@@ -13496,9 +13298,6 @@
           <t>KVCALFPSP001</t>
         </is>
       </c>
-      <c r="U89" t="inlineStr"/>
-      <c r="V89" t="inlineStr"/>
-      <c r="W89" t="inlineStr"/>
       <c r="X89" t="n">
         <v>2</v>
       </c>
@@ -13595,7 +13394,6 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr"/>
       <c r="I90" t="n">
         <v>60</v>
       </c>
@@ -13745,7 +13543,6 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr"/>
       <c r="I91" t="n">
         <v>60</v>
       </c>
@@ -13895,7 +13692,6 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr"/>
       <c r="I92" t="n">
         <v>40</v>
       </c>
@@ -14040,8 +13836,6 @@
           <t>MC1-TAS-GN-015</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr"/>
-      <c r="H93" t="inlineStr"/>
       <c r="I93" t="n">
         <v>30</v>
       </c>
@@ -14086,9 +13880,6 @@
           <t>KVCALFPSP001</t>
         </is>
       </c>
-      <c r="U93" t="inlineStr"/>
-      <c r="V93" t="inlineStr"/>
-      <c r="W93" t="inlineStr"/>
       <c r="X93" t="n">
         <v>2</v>
       </c>
@@ -14107,7 +13898,6 @@
       <c r="AC93" t="n">
         <v>1</v>
       </c>
-      <c r="AD93" t="inlineStr"/>
       <c r="AE93" t="n">
         <v>0</v>
       </c>
@@ -14330,8 +14120,6 @@
           <t>MC1-TAS-GN-017</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr"/>
-      <c r="H95" t="inlineStr"/>
       <c r="I95" t="n">
         <v>30</v>
       </c>
@@ -14376,9 +14164,6 @@
           <t>KVCALFPSP001</t>
         </is>
       </c>
-      <c r="U95" t="inlineStr"/>
-      <c r="V95" t="inlineStr"/>
-      <c r="W95" t="inlineStr"/>
       <c r="X95" t="n">
         <v>2</v>
       </c>
@@ -14397,7 +14182,6 @@
       <c r="AC95" t="n">
         <v>1</v>
       </c>
-      <c r="AD95" t="inlineStr"/>
       <c r="AE95" t="n">
         <v>0</v>
       </c>
@@ -14464,8 +14248,6 @@
       <c r="F96" t="n">
         <v>0</v>
       </c>
-      <c r="G96" t="inlineStr"/>
-      <c r="H96" t="inlineStr"/>
       <c r="I96" t="n">
         <v>0</v>
       </c>
@@ -14510,9 +14292,6 @@
           <t>KVCALFPSP001</t>
         </is>
       </c>
-      <c r="U96" t="inlineStr"/>
-      <c r="V96" t="inlineStr"/>
-      <c r="W96" t="inlineStr"/>
       <c r="X96" t="n">
         <v>2</v>
       </c>
@@ -14602,8 +14381,6 @@
       <c r="F97" t="n">
         <v>0</v>
       </c>
-      <c r="G97" t="inlineStr"/>
-      <c r="H97" t="inlineStr"/>
       <c r="I97" t="n">
         <v>0</v>
       </c>
@@ -14648,9 +14425,6 @@
           <t>KVCALFPSP001</t>
         </is>
       </c>
-      <c r="U97" t="inlineStr"/>
-      <c r="V97" t="inlineStr"/>
-      <c r="W97" t="inlineStr"/>
       <c r="X97" t="n">
         <v>2</v>
       </c>
@@ -14669,7 +14443,6 @@
       <c r="AC97" t="n">
         <v>1</v>
       </c>
-      <c r="AD97" t="inlineStr"/>
       <c r="AE97" t="n">
         <v>0</v>
       </c>
@@ -14738,8 +14511,6 @@
           <t>MC1-TAS-GN-020</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr"/>
-      <c r="H98" t="inlineStr"/>
       <c r="I98" t="n">
         <v>30</v>
       </c>
@@ -14784,9 +14555,6 @@
           <t>KVCALFPSP001</t>
         </is>
       </c>
-      <c r="U98" t="inlineStr"/>
-      <c r="V98" t="inlineStr"/>
-      <c r="W98" t="inlineStr"/>
       <c r="X98" t="n">
         <v>2</v>
       </c>
@@ -15030,8 +14798,6 @@
           <t>MC1-TAS-GN-022</t>
         </is>
       </c>
-      <c r="G100" t="inlineStr"/>
-      <c r="H100" t="inlineStr"/>
       <c r="I100" t="n">
         <v>40</v>
       </c>
@@ -15076,9 +14842,6 @@
           <t>KVCALFPSP001</t>
         </is>
       </c>
-      <c r="U100" t="inlineStr"/>
-      <c r="V100" t="inlineStr"/>
-      <c r="W100" t="inlineStr"/>
       <c r="X100" t="n">
         <v>2</v>
       </c>
@@ -15170,8 +14933,6 @@
           <t>MC1-TAS-GN-028</t>
         </is>
       </c>
-      <c r="G101" t="inlineStr"/>
-      <c r="H101" t="inlineStr"/>
       <c r="I101" t="n">
         <v>150</v>
       </c>
@@ -15216,9 +14977,6 @@
           <t>KVCALFPSP001</t>
         </is>
       </c>
-      <c r="U101" t="inlineStr"/>
-      <c r="V101" t="inlineStr"/>
-      <c r="W101" t="inlineStr"/>
       <c r="X101" t="n">
         <v>2</v>
       </c>
@@ -15237,7 +14995,6 @@
       <c r="AC101" t="n">
         <v>1</v>
       </c>
-      <c r="AD101" t="inlineStr"/>
       <c r="AE101" t="n">
         <v>0</v>
       </c>
@@ -15463,7 +15220,6 @@
           <t>KVCACNCMC001</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr"/>
       <c r="I103" t="n">
         <v>180</v>
       </c>
@@ -15503,10 +15259,6 @@
           <t>KVCALPPSP002</t>
         </is>
       </c>
-      <c r="T103" t="inlineStr"/>
-      <c r="U103" t="inlineStr"/>
-      <c r="V103" t="inlineStr"/>
-      <c r="W103" t="inlineStr"/>
       <c r="X103" t="n">
         <v>2</v>
       </c>
@@ -15598,8 +15350,6 @@
           <t>MC1-UBC-012</t>
         </is>
       </c>
-      <c r="G104" t="inlineStr"/>
-      <c r="H104" t="inlineStr"/>
       <c r="I104" t="n">
         <v>30</v>
       </c>
@@ -15639,10 +15389,6 @@
           <t>KVCALPPSP002</t>
         </is>
       </c>
-      <c r="T104" t="inlineStr"/>
-      <c r="U104" t="inlineStr"/>
-      <c r="V104" t="inlineStr"/>
-      <c r="W104" t="inlineStr"/>
       <c r="X104" t="n">
         <v>2</v>
       </c>
@@ -15661,7 +15407,6 @@
       <c r="AC104" t="n">
         <v>0</v>
       </c>
-      <c r="AD104" t="inlineStr"/>
       <c r="AE104" t="n">
         <v>0</v>
       </c>
@@ -15730,8 +15475,6 @@
           <t>MC1-UBC-013</t>
         </is>
       </c>
-      <c r="G105" t="inlineStr"/>
-      <c r="H105" t="inlineStr"/>
       <c r="I105" t="n">
         <v>30</v>
       </c>
@@ -15771,10 +15514,6 @@
           <t>KVCALPPSP002</t>
         </is>
       </c>
-      <c r="T105" t="inlineStr"/>
-      <c r="U105" t="inlineStr"/>
-      <c r="V105" t="inlineStr"/>
-      <c r="W105" t="inlineStr"/>
       <c r="X105" t="n">
         <v>2</v>
       </c>
@@ -15793,7 +15532,6 @@
       <c r="AC105" t="n">
         <v>0</v>
       </c>
-      <c r="AD105" t="inlineStr"/>
       <c r="AE105" t="n">
         <v>0</v>
       </c>
@@ -16016,8 +15754,6 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
-      <c r="G107" t="inlineStr"/>
-      <c r="H107" t="inlineStr"/>
       <c r="I107" t="n">
         <v>20</v>
       </c>
@@ -16162,8 +15898,6 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
-      <c r="G108" t="inlineStr"/>
-      <c r="H108" t="inlineStr"/>
       <c r="I108" t="n">
         <v>20</v>
       </c>
@@ -16465,7 +16199,6 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr"/>
       <c r="I110" t="n">
         <v>80</v>
       </c>
@@ -16615,7 +16348,6 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr"/>
       <c r="I111" t="n">
         <v>60</v>
       </c>
@@ -16655,10 +16387,6 @@
           <t>KVCALPPSP002</t>
         </is>
       </c>
-      <c r="T111" t="inlineStr"/>
-      <c r="U111" t="inlineStr"/>
-      <c r="V111" t="inlineStr"/>
-      <c r="W111" t="inlineStr"/>
       <c r="X111" t="n">
         <v>2</v>
       </c>
@@ -16677,7 +16405,6 @@
       <c r="AC111" t="n">
         <v>1</v>
       </c>
-      <c r="AD111" t="inlineStr"/>
       <c r="AE111" t="n">
         <v>0</v>
       </c>
@@ -16751,7 +16478,6 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr"/>
       <c r="I112" t="n">
         <v>60</v>
       </c>
@@ -16791,10 +16517,6 @@
           <t>KVCALPPSP002</t>
         </is>
       </c>
-      <c r="T112" t="inlineStr"/>
-      <c r="U112" t="inlineStr"/>
-      <c r="V112" t="inlineStr"/>
-      <c r="W112" t="inlineStr"/>
       <c r="X112" t="n">
         <v>2</v>
       </c>
@@ -16891,7 +16613,6 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr"/>
       <c r="I113" t="n">
         <v>180</v>
       </c>
@@ -16931,10 +16652,6 @@
           <t>KVCALPPSP002</t>
         </is>
       </c>
-      <c r="T113" t="inlineStr"/>
-      <c r="U113" t="inlineStr"/>
-      <c r="V113" t="inlineStr"/>
-      <c r="W113" t="inlineStr"/>
       <c r="X113" t="n">
         <v>2</v>
       </c>
@@ -17031,7 +16748,6 @@
           <t>KVCAD30MC001</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr"/>
       <c r="I114" t="n">
         <v>90</v>
       </c>
@@ -17071,10 +16787,6 @@
           <t>KVCALPPSP002</t>
         </is>
       </c>
-      <c r="T114" t="inlineStr"/>
-      <c r="U114" t="inlineStr"/>
-      <c r="V114" t="inlineStr"/>
-      <c r="W114" t="inlineStr"/>
       <c r="X114" t="n">
         <v>2</v>
       </c>
@@ -17171,7 +16883,6 @@
           <t>BVCAD40MC001</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr"/>
       <c r="I115" t="n">
         <v>90</v>
       </c>
@@ -17321,7 +17032,6 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr"/>
       <c r="I116" t="n">
         <v>90</v>
       </c>
@@ -17361,10 +17071,6 @@
           <t>KVCALPPSP002</t>
         </is>
       </c>
-      <c r="T116" t="inlineStr"/>
-      <c r="U116" t="inlineStr"/>
-      <c r="V116" t="inlineStr"/>
-      <c r="W116" t="inlineStr"/>
       <c r="X116" t="n">
         <v>2</v>
       </c>
@@ -17461,7 +17167,6 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr"/>
       <c r="I117" t="n">
         <v>90</v>
       </c>
@@ -17501,10 +17206,6 @@
           <t>KVCALPPSP002</t>
         </is>
       </c>
-      <c r="T117" t="inlineStr"/>
-      <c r="U117" t="inlineStr"/>
-      <c r="V117" t="inlineStr"/>
-      <c r="W117" t="inlineStr"/>
       <c r="X117" t="n">
         <v>2</v>
       </c>
@@ -17601,7 +17302,6 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr"/>
       <c r="I118" t="n">
         <v>90</v>
       </c>
@@ -17641,10 +17341,6 @@
           <t>KVCALPPSP002</t>
         </is>
       </c>
-      <c r="T118" t="inlineStr"/>
-      <c r="U118" t="inlineStr"/>
-      <c r="V118" t="inlineStr"/>
-      <c r="W118" t="inlineStr"/>
       <c r="X118" t="n">
         <v>2</v>
       </c>
@@ -17741,7 +17437,6 @@
           <t>KVCAD30MC001</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr"/>
       <c r="I119" t="n">
         <v>90</v>
       </c>
@@ -17781,10 +17476,6 @@
           <t>KVCALPPSP002</t>
         </is>
       </c>
-      <c r="T119" t="inlineStr"/>
-      <c r="U119" t="inlineStr"/>
-      <c r="V119" t="inlineStr"/>
-      <c r="W119" t="inlineStr"/>
       <c r="X119" t="n">
         <v>2</v>
       </c>
@@ -17881,7 +17572,6 @@
           <t>KVCAD30MC001</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr"/>
       <c r="I120" t="n">
         <v>90</v>
       </c>
@@ -17921,10 +17611,6 @@
           <t>KVCALPPSP002</t>
         </is>
       </c>
-      <c r="T120" t="inlineStr"/>
-      <c r="U120" t="inlineStr"/>
-      <c r="V120" t="inlineStr"/>
-      <c r="W120" t="inlineStr"/>
       <c r="X120" t="n">
         <v>2</v>
       </c>
@@ -18021,7 +17707,6 @@
           <t>KVCAD30MC001</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr"/>
       <c r="I121" t="n">
         <v>90</v>
       </c>
@@ -18061,10 +17746,6 @@
           <t>KVCALPPSP002</t>
         </is>
       </c>
-      <c r="T121" t="inlineStr"/>
-      <c r="U121" t="inlineStr"/>
-      <c r="V121" t="inlineStr"/>
-      <c r="W121" t="inlineStr"/>
       <c r="X121" t="n">
         <v>2</v>
       </c>
@@ -18161,7 +17842,6 @@
           <t>KVCAD30MC001</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr"/>
       <c r="I122" t="n">
         <v>90</v>
       </c>
@@ -18201,10 +17881,6 @@
           <t>KVCALPPSP002</t>
         </is>
       </c>
-      <c r="T122" t="inlineStr"/>
-      <c r="U122" t="inlineStr"/>
-      <c r="V122" t="inlineStr"/>
-      <c r="W122" t="inlineStr"/>
       <c r="X122" t="n">
         <v>2</v>
       </c>
@@ -18301,7 +17977,6 @@
           <t>KVCAD30MC001</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr"/>
       <c r="I123" t="n">
         <v>90</v>
       </c>
@@ -18341,10 +18016,6 @@
           <t>KVCALPPSP002</t>
         </is>
       </c>
-      <c r="T123" t="inlineStr"/>
-      <c r="U123" t="inlineStr"/>
-      <c r="V123" t="inlineStr"/>
-      <c r="W123" t="inlineStr"/>
       <c r="X123" t="n">
         <v>2</v>
       </c>
@@ -18441,7 +18112,6 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr"/>
       <c r="I124" t="n">
         <v>90</v>
       </c>
@@ -18481,10 +18151,6 @@
           <t>BVCALPPSP002</t>
         </is>
       </c>
-      <c r="T124" t="inlineStr"/>
-      <c r="U124" t="inlineStr"/>
-      <c r="V124" t="inlineStr"/>
-      <c r="W124" t="inlineStr"/>
       <c r="X124" t="n">
         <v>2</v>
       </c>
@@ -18574,8 +18240,6 @@
       <c r="F125" t="n">
         <v>0</v>
       </c>
-      <c r="G125" t="inlineStr"/>
-      <c r="H125" t="inlineStr"/>
       <c r="I125" t="n">
         <v>0</v>
       </c>
@@ -18615,10 +18279,6 @@
           <t>KVCALPPSP002</t>
         </is>
       </c>
-      <c r="T125" t="inlineStr"/>
-      <c r="U125" t="inlineStr"/>
-      <c r="V125" t="inlineStr"/>
-      <c r="W125" t="inlineStr"/>
       <c r="X125" t="n">
         <v>2</v>
       </c>
@@ -18708,8 +18368,6 @@
       <c r="F126" t="n">
         <v>0</v>
       </c>
-      <c r="G126" t="inlineStr"/>
-      <c r="H126" t="inlineStr"/>
       <c r="I126" t="n">
         <v>0</v>
       </c>
@@ -18749,10 +18407,6 @@
           <t>KVCALPPSP002</t>
         </is>
       </c>
-      <c r="T126" t="inlineStr"/>
-      <c r="U126" t="inlineStr"/>
-      <c r="V126" t="inlineStr"/>
-      <c r="W126" t="inlineStr"/>
       <c r="X126" t="n">
         <v>2</v>
       </c>
@@ -19153,7 +18807,6 @@
           <t>KVCAD30MC001</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr"/>
       <c r="I129" t="n">
         <v>90</v>
       </c>
@@ -19193,10 +18846,6 @@
           <t>KVCALPPSP002</t>
         </is>
       </c>
-      <c r="T129" t="inlineStr"/>
-      <c r="U129" t="inlineStr"/>
-      <c r="V129" t="inlineStr"/>
-      <c r="W129" t="inlineStr"/>
       <c r="X129" t="n">
         <v>2</v>
       </c>
@@ -19215,7 +18864,6 @@
       <c r="AC129" t="n">
         <v>1</v>
       </c>
-      <c r="AD129" t="inlineStr"/>
       <c r="AE129" t="n">
         <v>0</v>
       </c>
@@ -19289,7 +18937,6 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr"/>
       <c r="I130" t="n">
         <v>90</v>
       </c>
@@ -19334,9 +18981,6 @@
           <t>KVCALFPSP001</t>
         </is>
       </c>
-      <c r="U130" t="inlineStr"/>
-      <c r="V130" t="inlineStr"/>
-      <c r="W130" t="inlineStr"/>
       <c r="X130" t="n">
         <v>2</v>
       </c>
@@ -19433,7 +19077,6 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr"/>
       <c r="I131" t="n">
         <v>90</v>
       </c>
@@ -19583,7 +19226,6 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr"/>
       <c r="I132" t="n">
         <v>90</v>
       </c>
@@ -19733,7 +19375,6 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr"/>
       <c r="I133" t="n">
         <v>90</v>
       </c>
@@ -19883,7 +19524,6 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr"/>
       <c r="I134" t="n">
         <v>90</v>
       </c>
@@ -20033,7 +19673,6 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr"/>
       <c r="I135" t="n">
         <v>90</v>
       </c>
@@ -20078,9 +19717,6 @@
           <t>KVCALFPSP001</t>
         </is>
       </c>
-      <c r="U135" t="inlineStr"/>
-      <c r="V135" t="inlineStr"/>
-      <c r="W135" t="inlineStr"/>
       <c r="X135" t="n">
         <v>2</v>
       </c>
@@ -20177,7 +19813,6 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr"/>
       <c r="I136" t="n">
         <v>90</v>
       </c>
@@ -20222,9 +19857,6 @@
           <t>KVCALFPSP001</t>
         </is>
       </c>
-      <c r="U136" t="inlineStr"/>
-      <c r="V136" t="inlineStr"/>
-      <c r="W136" t="inlineStr"/>
       <c r="X136" t="n">
         <v>2</v>
       </c>
@@ -20321,7 +19953,6 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr"/>
       <c r="I137" t="n">
         <v>90</v>
       </c>
@@ -20366,9 +19997,6 @@
           <t>KVCALFPSP001</t>
         </is>
       </c>
-      <c r="U137" t="inlineStr"/>
-      <c r="V137" t="inlineStr"/>
-      <c r="W137" t="inlineStr"/>
       <c r="X137" t="n">
         <v>2</v>
       </c>
@@ -20387,7 +20015,6 @@
       <c r="AC137" t="n">
         <v>1</v>
       </c>
-      <c r="AD137" t="inlineStr"/>
       <c r="AE137" t="n">
         <v>0</v>
       </c>
@@ -20461,7 +20088,6 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr"/>
       <c r="I138" t="n">
         <v>90</v>
       </c>
@@ -20611,7 +20237,6 @@
           <t>MC2DNA-014</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr"/>
       <c r="I139" t="n">
         <v>150</v>
       </c>
@@ -20656,9 +20281,6 @@
           <t>KVCALFPSP001</t>
         </is>
       </c>
-      <c r="U139" t="inlineStr"/>
-      <c r="V139" t="inlineStr"/>
-      <c r="W139" t="inlineStr"/>
       <c r="X139" t="n">
         <v>2</v>
       </c>
@@ -20755,7 +20377,6 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr"/>
       <c r="I140" t="n">
         <v>90</v>
       </c>
@@ -20905,7 +20526,6 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr"/>
       <c r="I141" t="n">
         <v>20</v>
       </c>
@@ -21055,7 +20675,6 @@
           <t>MC2MCB-009</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr"/>
       <c r="I142" t="n">
         <v>100</v>
       </c>
@@ -21205,7 +20824,6 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr"/>
       <c r="I143" t="n">
         <v>60</v>
       </c>
@@ -21509,7 +21127,6 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr"/>
       <c r="I145" t="n">
         <v>45</v>
       </c>
@@ -21654,8 +21271,6 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
-      <c r="G146" t="inlineStr"/>
-      <c r="H146" t="inlineStr"/>
       <c r="I146" t="n">
         <v>45</v>
       </c>
@@ -21800,8 +21415,6 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
-      <c r="G147" t="inlineStr"/>
-      <c r="H147" t="inlineStr"/>
       <c r="I147" t="n">
         <v>55</v>
       </c>
@@ -21946,8 +21559,6 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
-      <c r="G148" t="inlineStr"/>
-      <c r="H148" t="inlineStr"/>
       <c r="I148" t="n">
         <v>55</v>
       </c>
@@ -22097,7 +21708,6 @@
           <t>MC2MCB-HYG-024</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr"/>
       <c r="I149" t="n">
         <v>60</v>
       </c>
@@ -22247,7 +21857,6 @@
           <t>MC2MCB-HYG-025</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr"/>
       <c r="I150" t="n">
         <v>60</v>
       </c>
@@ -22392,8 +22001,6 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
-      <c r="G151" t="inlineStr"/>
-      <c r="H151" t="inlineStr"/>
       <c r="I151" t="n">
         <v>40</v>
       </c>
@@ -22543,7 +22150,6 @@
           <t>MC2MCB-JLG-018</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr"/>
       <c r="I152" t="n">
         <v>65</v>
       </c>
@@ -22693,7 +22299,6 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr"/>
       <c r="I153" t="n">
         <v>40</v>
       </c>
@@ -22843,7 +22448,6 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr"/>
       <c r="I154" t="n">
         <v>65</v>
       </c>
@@ -22993,7 +22597,6 @@
           <t>MC2MCB-JLG-021</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr"/>
       <c r="I155" t="n">
         <v>40</v>
       </c>
@@ -23033,10 +22636,6 @@
           <t>SP2MCB-JLG-021</t>
         </is>
       </c>
-      <c r="T155" t="inlineStr"/>
-      <c r="U155" t="inlineStr"/>
-      <c r="V155" t="inlineStr"/>
-      <c r="W155" t="inlineStr"/>
       <c r="X155" t="n">
         <v>2</v>
       </c>
@@ -23055,7 +22654,6 @@
       <c r="AC155" t="n">
         <v>0</v>
       </c>
-      <c r="AD155" t="inlineStr"/>
       <c r="AE155" t="n">
         <v>0</v>
       </c>
@@ -23129,7 +22727,6 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr"/>
       <c r="I156" t="n">
         <v>40</v>
       </c>
@@ -23272,7 +22869,6 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
-      <c r="G157" t="inlineStr"/>
       <c r="H157" t="inlineStr">
         <is>
           <t>MC3-ASA-001</t>
@@ -23422,7 +23018,6 @@
           <t>MC3AW-015-V</t>
         </is>
       </c>
-      <c r="G158" t="inlineStr"/>
       <c r="H158" t="inlineStr">
         <is>
           <t>MC3AW-015-V</t>
@@ -23472,9 +23067,6 @@
           <t>SP3AW-015-V</t>
         </is>
       </c>
-      <c r="U158" t="inlineStr"/>
-      <c r="V158" t="inlineStr"/>
-      <c r="W158" t="inlineStr"/>
       <c r="X158" t="n">
         <v>2</v>
       </c>
@@ -23971,7 +23563,6 @@
           <t>Kulgachia - Small Line</t>
         </is>
       </c>
-      <c r="AH161" t="inlineStr"/>
       <c r="AI161" t="n">
         <v>10</v>
       </c>
@@ -24121,7 +23712,6 @@
           <t>Kulgachia - Small Line</t>
         </is>
       </c>
-      <c r="AH162" t="inlineStr"/>
       <c r="AI162" t="n">
         <v>12</v>
       </c>
@@ -24228,9 +23818,6 @@
           <t>SP3MGB-009-2T-NEO</t>
         </is>
       </c>
-      <c r="U163" t="inlineStr"/>
-      <c r="V163" t="inlineStr"/>
-      <c r="W163" t="inlineStr"/>
       <c r="X163" t="n">
         <v>2</v>
       </c>
@@ -24265,7 +23852,6 @@
           <t>Kulgachia - Small Line</t>
         </is>
       </c>
-      <c r="AH163" t="inlineStr"/>
       <c r="AI163" t="n">
         <v>12</v>
       </c>
@@ -24323,7 +23909,6 @@
           <t>KVCAD30MC001</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr"/>
       <c r="I164" t="n">
         <v>90</v>
       </c>
@@ -24363,10 +23948,6 @@
           <t>KVCALPPSP002</t>
         </is>
       </c>
-      <c r="T164" t="inlineStr"/>
-      <c r="U164" t="inlineStr"/>
-      <c r="V164" t="inlineStr"/>
-      <c r="W164" t="inlineStr"/>
       <c r="X164" t="n">
         <v>2</v>
       </c>
@@ -24463,7 +24044,6 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr"/>
       <c r="I165" t="n">
         <v>40</v>
       </c>
@@ -24613,7 +24193,6 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr"/>
       <c r="I166" t="n">
         <v>40</v>
       </c>
@@ -25374,8 +24953,6 @@
           <t>MC-LKK-024</t>
         </is>
       </c>
-      <c r="G171" t="inlineStr"/>
-      <c r="H171" t="inlineStr"/>
       <c r="I171" t="n">
         <v>170</v>
       </c>
@@ -25415,10 +24992,6 @@
           <t>KVCALPPSP002</t>
         </is>
       </c>
-      <c r="T171" t="inlineStr"/>
-      <c r="U171" t="inlineStr"/>
-      <c r="V171" t="inlineStr"/>
-      <c r="W171" t="inlineStr"/>
       <c r="X171" t="n">
         <v>2</v>
       </c>
@@ -25437,7 +25010,6 @@
       <c r="AC171" t="n">
         <v>1</v>
       </c>
-      <c r="AD171" t="inlineStr"/>
       <c r="AE171" t="n">
         <v>0</v>
       </c>
@@ -25506,8 +25078,6 @@
           <t>MC-LKK-025</t>
         </is>
       </c>
-      <c r="G172" t="inlineStr"/>
-      <c r="H172" t="inlineStr"/>
       <c r="I172" t="n">
         <v>170</v>
       </c>
@@ -25547,10 +25117,6 @@
           <t>KVCALPPSP002</t>
         </is>
       </c>
-      <c r="T172" t="inlineStr"/>
-      <c r="U172" t="inlineStr"/>
-      <c r="V172" t="inlineStr"/>
-      <c r="W172" t="inlineStr"/>
       <c r="X172" t="n">
         <v>2</v>
       </c>
@@ -25569,7 +25135,6 @@
       <c r="AC172" t="n">
         <v>1</v>
       </c>
-      <c r="AD172" t="inlineStr"/>
       <c r="AE172" t="n">
         <v>0</v>
       </c>
@@ -25638,8 +25203,6 @@
           <t>MC-LKK-026</t>
         </is>
       </c>
-      <c r="G173" t="inlineStr"/>
-      <c r="H173" t="inlineStr"/>
       <c r="I173" t="n">
         <v>170</v>
       </c>
@@ -25679,10 +25242,6 @@
           <t>KVCALPPSP002</t>
         </is>
       </c>
-      <c r="T173" t="inlineStr"/>
-      <c r="U173" t="inlineStr"/>
-      <c r="V173" t="inlineStr"/>
-      <c r="W173" t="inlineStr"/>
       <c r="X173" t="n">
         <v>2</v>
       </c>
@@ -25774,8 +25333,6 @@
           <t>MC-LKK-027</t>
         </is>
       </c>
-      <c r="G174" t="inlineStr"/>
-      <c r="H174" t="inlineStr"/>
       <c r="I174" t="n">
         <v>170</v>
       </c>
@@ -25815,10 +25372,6 @@
           <t>KVCALPPSP002</t>
         </is>
       </c>
-      <c r="T174" t="inlineStr"/>
-      <c r="U174" t="inlineStr"/>
-      <c r="V174" t="inlineStr"/>
-      <c r="W174" t="inlineStr"/>
       <c r="X174" t="n">
         <v>2</v>
       </c>
@@ -25910,8 +25463,6 @@
           <t>MC-LKK-028</t>
         </is>
       </c>
-      <c r="G175" t="inlineStr"/>
-      <c r="H175" t="inlineStr"/>
       <c r="I175" t="n">
         <v>170</v>
       </c>
@@ -25951,10 +25502,6 @@
           <t>KVCALPPSP002</t>
         </is>
       </c>
-      <c r="T175" t="inlineStr"/>
-      <c r="U175" t="inlineStr"/>
-      <c r="V175" t="inlineStr"/>
-      <c r="W175" t="inlineStr"/>
       <c r="X175" t="n">
         <v>2</v>
       </c>
@@ -26046,8 +25593,6 @@
           <t>MC-LKK-029</t>
         </is>
       </c>
-      <c r="G176" t="inlineStr"/>
-      <c r="H176" t="inlineStr"/>
       <c r="I176" t="n">
         <v>170</v>
       </c>
@@ -26087,10 +25632,6 @@
           <t>KVCALPPSP002</t>
         </is>
       </c>
-      <c r="T176" t="inlineStr"/>
-      <c r="U176" t="inlineStr"/>
-      <c r="V176" t="inlineStr"/>
-      <c r="W176" t="inlineStr"/>
       <c r="X176" t="n">
         <v>2</v>
       </c>
@@ -26495,7 +26036,6 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr"/>
       <c r="I179" t="n">
         <v>40</v>
       </c>
@@ -26645,7 +26185,6 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr"/>
       <c r="I180" t="n">
         <v>40</v>
       </c>
@@ -26795,7 +26334,6 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr"/>
       <c r="I181" t="n">
         <v>40</v>
       </c>
@@ -26945,7 +26483,6 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr"/>
       <c r="I182" t="n">
         <v>40</v>
       </c>
@@ -27095,7 +26632,6 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr"/>
       <c r="I183" t="n">
         <v>40</v>
       </c>
@@ -27245,7 +26781,6 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr"/>
       <c r="I184" t="n">
         <v>40</v>
       </c>
@@ -27285,10 +26820,6 @@
           <t>KVCALPPSP002</t>
         </is>
       </c>
-      <c r="T184" t="inlineStr"/>
-      <c r="U184" t="inlineStr"/>
-      <c r="V184" t="inlineStr"/>
-      <c r="W184" t="inlineStr"/>
       <c r="X184" t="n">
         <v>2</v>
       </c>
@@ -27307,7 +26838,6 @@
       <c r="AC184" t="n">
         <v>1</v>
       </c>
-      <c r="AD184" t="inlineStr"/>
       <c r="AE184" t="n">
         <v>0</v>
       </c>
@@ -27381,7 +26911,6 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr"/>
       <c r="I185" t="n">
         <v>80</v>
       </c>
@@ -27421,10 +26950,6 @@
           <t>KVCALPPSP002</t>
         </is>
       </c>
-      <c r="T185" t="inlineStr"/>
-      <c r="U185" t="inlineStr"/>
-      <c r="V185" t="inlineStr"/>
-      <c r="W185" t="inlineStr"/>
       <c r="X185" t="n">
         <v>2</v>
       </c>
@@ -27521,7 +27046,6 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr"/>
       <c r="I186" t="n">
         <v>80</v>
       </c>
@@ -27561,10 +27085,6 @@
           <t>KVCALPPSP002</t>
         </is>
       </c>
-      <c r="T186" t="inlineStr"/>
-      <c r="U186" t="inlineStr"/>
-      <c r="V186" t="inlineStr"/>
-      <c r="W186" t="inlineStr"/>
       <c r="X186" t="n">
         <v>2</v>
       </c>
@@ -27583,7 +27103,6 @@
       <c r="AC186" t="n">
         <v>1</v>
       </c>
-      <c r="AD186" t="inlineStr"/>
       <c r="AE186" t="n">
         <v>0</v>
       </c>
@@ -27657,7 +27176,6 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr"/>
       <c r="I187" t="n">
         <v>80</v>
       </c>
@@ -27697,10 +27215,6 @@
           <t>KVCALPPSP002</t>
         </is>
       </c>
-      <c r="T187" t="inlineStr"/>
-      <c r="U187" t="inlineStr"/>
-      <c r="V187" t="inlineStr"/>
-      <c r="W187" t="inlineStr"/>
       <c r="X187" t="n">
         <v>2</v>
       </c>
@@ -27797,7 +27311,6 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr"/>
       <c r="I188" t="n">
         <v>40</v>
       </c>
@@ -27947,7 +27460,6 @@
           <t>KVCAD30MC001</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr"/>
       <c r="I189" t="n">
         <v>40</v>
       </c>
@@ -27987,10 +27499,6 @@
           <t>KVCALPPSP002</t>
         </is>
       </c>
-      <c r="T189" t="inlineStr"/>
-      <c r="U189" t="inlineStr"/>
-      <c r="V189" t="inlineStr"/>
-      <c r="W189" t="inlineStr"/>
       <c r="X189" t="n">
         <v>2</v>
       </c>
@@ -28087,7 +27595,6 @@
           <t>KVCAD30MC001</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr"/>
       <c r="I190" t="n">
         <v>40</v>
       </c>
@@ -28127,10 +27634,6 @@
           <t>KVCALPPSP002</t>
         </is>
       </c>
-      <c r="T190" t="inlineStr"/>
-      <c r="U190" t="inlineStr"/>
-      <c r="V190" t="inlineStr"/>
-      <c r="W190" t="inlineStr"/>
       <c r="X190" t="n">
         <v>2</v>
       </c>
@@ -28227,7 +27730,6 @@
           <t>KVCAD30MC001</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr"/>
       <c r="I191" t="n">
         <v>40</v>
       </c>
@@ -28267,10 +27769,6 @@
           <t>KVCALPPSP002</t>
         </is>
       </c>
-      <c r="T191" t="inlineStr"/>
-      <c r="U191" t="inlineStr"/>
-      <c r="V191" t="inlineStr"/>
-      <c r="W191" t="inlineStr"/>
       <c r="X191" t="n">
         <v>2</v>
       </c>
@@ -28367,7 +27865,6 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr"/>
       <c r="I192" t="n">
         <v>40</v>
       </c>
@@ -28412,9 +27909,6 @@
           <t>KVCALFPSP001</t>
         </is>
       </c>
-      <c r="U192" t="inlineStr"/>
-      <c r="V192" t="inlineStr"/>
-      <c r="W192" t="inlineStr"/>
       <c r="X192" t="n">
         <v>2</v>
       </c>
@@ -28511,7 +28005,6 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr"/>
       <c r="I193" t="n">
         <v>40</v>
       </c>
@@ -28556,9 +28049,6 @@
           <t>KVCALFPSP001</t>
         </is>
       </c>
-      <c r="U193" t="inlineStr"/>
-      <c r="V193" t="inlineStr"/>
-      <c r="W193" t="inlineStr"/>
       <c r="X193" t="n">
         <v>2</v>
       </c>
@@ -28655,7 +28145,6 @@
           <t>BVCAD50MC001</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr"/>
       <c r="I194" t="n">
         <v>40</v>
       </c>
@@ -28695,10 +28184,6 @@
           <t>BVCALPPSP002</t>
         </is>
       </c>
-      <c r="T194" t="inlineStr"/>
-      <c r="U194" t="inlineStr"/>
-      <c r="V194" t="inlineStr"/>
-      <c r="W194" t="inlineStr"/>
       <c r="X194" t="n">
         <v>2</v>
       </c>
@@ -28795,7 +28280,6 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr"/>
       <c r="I195" t="n">
         <v>40</v>
       </c>
@@ -28835,10 +28319,6 @@
           <t>KVCALPPSP002</t>
         </is>
       </c>
-      <c r="T195" t="inlineStr"/>
-      <c r="U195" t="inlineStr"/>
-      <c r="V195" t="inlineStr"/>
-      <c r="W195" t="inlineStr"/>
       <c r="X195" t="n">
         <v>2</v>
       </c>
@@ -28930,8 +28410,6 @@
           <t>MC-UBC-053</t>
         </is>
       </c>
-      <c r="G196" t="inlineStr"/>
-      <c r="H196" t="inlineStr"/>
       <c r="I196" t="n">
         <v>50</v>
       </c>
@@ -28976,9 +28454,6 @@
           <t>KVCALFPSP001</t>
         </is>
       </c>
-      <c r="U196" t="inlineStr"/>
-      <c r="V196" t="inlineStr"/>
-      <c r="W196" t="inlineStr"/>
       <c r="X196" t="n">
         <v>2</v>
       </c>
@@ -29075,7 +28550,6 @@
           <t>KVCAD30MC001</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr"/>
       <c r="I197" t="n">
         <v>90</v>
       </c>
@@ -29115,10 +28589,6 @@
           <t>BVCALPPSP002</t>
         </is>
       </c>
-      <c r="T197" t="inlineStr"/>
-      <c r="U197" t="inlineStr"/>
-      <c r="V197" t="inlineStr"/>
-      <c r="W197" t="inlineStr"/>
       <c r="X197" t="n">
         <v>2</v>
       </c>
@@ -29215,7 +28685,6 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr"/>
       <c r="I198" t="n">
         <v>90</v>
       </c>
@@ -29260,9 +28729,6 @@
           <t>KVCALFPSP001</t>
         </is>
       </c>
-      <c r="U198" t="inlineStr"/>
-      <c r="V198" t="inlineStr"/>
-      <c r="W198" t="inlineStr"/>
       <c r="X198" t="n">
         <v>2</v>
       </c>
@@ -29281,7 +28747,6 @@
       <c r="AC198" t="n">
         <v>1</v>
       </c>
-      <c r="AD198" t="inlineStr"/>
       <c r="AE198" t="n">
         <v>0</v>
       </c>
@@ -29355,7 +28820,6 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr"/>
       <c r="I199" t="n">
         <v>90</v>
       </c>
@@ -29400,9 +28864,6 @@
           <t>KVCALFPSP001</t>
         </is>
       </c>
-      <c r="U199" t="inlineStr"/>
-      <c r="V199" t="inlineStr"/>
-      <c r="W199" t="inlineStr"/>
       <c r="X199" t="n">
         <v>2</v>
       </c>
@@ -29421,7 +28882,6 @@
       <c r="AC199" t="n">
         <v>1</v>
       </c>
-      <c r="AD199" t="inlineStr"/>
       <c r="AE199" t="n">
         <v>0</v>
       </c>
@@ -29495,7 +28955,6 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr"/>
       <c r="I200" t="n">
         <v>40</v>
       </c>
@@ -29540,9 +28999,6 @@
           <t>KVCALFPSP001</t>
         </is>
       </c>
-      <c r="U200" t="inlineStr"/>
-      <c r="V200" t="inlineStr"/>
-      <c r="W200" t="inlineStr"/>
       <c r="X200" t="n">
         <v>2</v>
       </c>
@@ -29561,7 +29017,6 @@
       <c r="AC200" t="n">
         <v>1</v>
       </c>
-      <c r="AD200" t="inlineStr"/>
       <c r="AE200" t="n">
         <v>0</v>
       </c>
@@ -29635,7 +29090,6 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr"/>
       <c r="I201" t="n">
         <v>40</v>
       </c>
@@ -29680,9 +29134,6 @@
           <t>KVCALFPSP001</t>
         </is>
       </c>
-      <c r="U201" t="inlineStr"/>
-      <c r="V201" t="inlineStr"/>
-      <c r="W201" t="inlineStr"/>
       <c r="X201" t="n">
         <v>2</v>
       </c>
@@ -29701,7 +29152,6 @@
       <c r="AC201" t="n">
         <v>1</v>
       </c>
-      <c r="AD201" t="inlineStr"/>
       <c r="AE201" t="n">
         <v>0</v>
       </c>
@@ -29775,7 +29225,6 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr"/>
       <c r="I202" t="n">
         <v>40</v>
       </c>
@@ -29820,9 +29269,6 @@
           <t>KVCALFPSP001</t>
         </is>
       </c>
-      <c r="U202" t="inlineStr"/>
-      <c r="V202" t="inlineStr"/>
-      <c r="W202" t="inlineStr"/>
       <c r="X202" t="n">
         <v>2</v>
       </c>
@@ -29841,7 +29287,6 @@
       <c r="AC202" t="n">
         <v>1</v>
       </c>
-      <c r="AD202" t="inlineStr"/>
       <c r="AE202" t="n">
         <v>0</v>
       </c>
@@ -29913,7 +29358,6 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr"/>
       <c r="I203" t="n">
         <v>40</v>
       </c>
@@ -29958,9 +29402,6 @@
           <t>KVCALFPSP001</t>
         </is>
       </c>
-      <c r="U203" t="inlineStr"/>
-      <c r="V203" t="inlineStr"/>
-      <c r="W203" t="inlineStr"/>
       <c r="X203" t="n">
         <v>2</v>
       </c>
@@ -29979,7 +29420,6 @@
       <c r="AC203" t="n">
         <v>1</v>
       </c>
-      <c r="AD203" t="inlineStr"/>
       <c r="AE203" t="n">
         <v>0</v>
       </c>
@@ -30046,8 +29486,6 @@
           <t>MC1-KBS-014</t>
         </is>
       </c>
-      <c r="G204" t="inlineStr"/>
-      <c r="H204" t="inlineStr"/>
       <c r="I204" t="n">
         <v>20</v>
       </c>
@@ -30082,11 +29520,6 @@
           <t>SP1-KBS-014</t>
         </is>
       </c>
-      <c r="S204" t="inlineStr"/>
-      <c r="T204" t="inlineStr"/>
-      <c r="U204" t="inlineStr"/>
-      <c r="V204" t="inlineStr"/>
-      <c r="W204" t="inlineStr"/>
       <c r="X204" t="n">
         <v>2</v>
       </c>
@@ -30105,7 +29538,6 @@
       <c r="AC204" t="n">
         <v>0</v>
       </c>
-      <c r="AD204" t="inlineStr"/>
       <c r="AE204" t="n">
         <v>0</v>
       </c>
@@ -30223,10 +29655,10 @@
           <t>2526100367-10</t>
         </is>
       </c>
-      <c r="D2" s="2" t="n">
+      <c r="D2" s="3" t="n">
         <v>45868</v>
       </c>
-      <c r="E2" s="2" t="n">
+      <c r="E2" s="3" t="n">
         <v>45962</v>
       </c>
       <c r="F2" t="inlineStr">
@@ -30256,10 +29688,10 @@
           <t>2526100558-10</t>
         </is>
       </c>
-      <c r="D3" s="2" t="n">
+      <c r="D3" s="3" t="n">
         <v>45943</v>
       </c>
-      <c r="E3" s="2" t="n">
+      <c r="E3" s="3" t="n">
         <v>45971</v>
       </c>
       <c r="F3" t="inlineStr">
@@ -30289,10 +29721,10 @@
           <t>2526100559-20</t>
         </is>
       </c>
-      <c r="D4" s="2" t="n">
+      <c r="D4" s="3" t="n">
         <v>45943</v>
       </c>
-      <c r="E4" s="2" t="n">
+      <c r="E4" s="3" t="n">
         <v>45971</v>
       </c>
       <c r="F4" t="inlineStr">
@@ -30322,10 +29754,10 @@
           <t>2526100560-20</t>
         </is>
       </c>
-      <c r="D5" s="2" t="n">
+      <c r="D5" s="3" t="n">
         <v>45943</v>
       </c>
-      <c r="E5" s="2" t="n">
+      <c r="E5" s="3" t="n">
         <v>45976</v>
       </c>
       <c r="F5" t="inlineStr">
@@ -30355,10 +29787,10 @@
           <t>2526100561-10</t>
         </is>
       </c>
-      <c r="D6" s="2" t="n">
+      <c r="D6" s="3" t="n">
         <v>45943</v>
       </c>
-      <c r="E6" s="2" t="n">
+      <c r="E6" s="3" t="n">
         <v>45971</v>
       </c>
       <c r="F6" t="inlineStr">
@@ -30388,10 +29820,10 @@
           <t>2526100562-10</t>
         </is>
       </c>
-      <c r="D7" s="2" t="n">
+      <c r="D7" s="3" t="n">
         <v>45943</v>
       </c>
-      <c r="E7" s="2" t="n">
+      <c r="E7" s="3" t="n">
         <v>45979</v>
       </c>
       <c r="F7" t="inlineStr">
@@ -30421,10 +29853,10 @@
           <t>2526100563-10</t>
         </is>
       </c>
-      <c r="D8" s="2" t="n">
+      <c r="D8" s="3" t="n">
         <v>45943</v>
       </c>
-      <c r="E8" s="2" t="n">
+      <c r="E8" s="3" t="n">
         <v>45987</v>
       </c>
       <c r="F8" t="inlineStr">
@@ -30454,10 +29886,10 @@
           <t>2526100564-20</t>
         </is>
       </c>
-      <c r="D9" s="2" t="n">
+      <c r="D9" s="3" t="n">
         <v>45943</v>
       </c>
-      <c r="E9" s="2" t="n">
+      <c r="E9" s="3" t="n">
         <v>45976</v>
       </c>
       <c r="F9" t="inlineStr">
@@ -30487,10 +29919,10 @@
           <t>2526100565-20</t>
         </is>
       </c>
-      <c r="D10" s="2" t="n">
+      <c r="D10" s="3" t="n">
         <v>45943</v>
       </c>
-      <c r="E10" s="2" t="n">
+      <c r="E10" s="3" t="n">
         <v>45981</v>
       </c>
       <c r="F10" t="inlineStr">
@@ -30520,10 +29952,10 @@
           <t>2526100566-20</t>
         </is>
       </c>
-      <c r="D11" s="2" t="n">
+      <c r="D11" s="3" t="n">
         <v>45943</v>
       </c>
-      <c r="E11" s="2" t="n">
+      <c r="E11" s="3" t="n">
         <v>45986</v>
       </c>
       <c r="F11" t="inlineStr">
@@ -30553,10 +29985,10 @@
           <t>2526100567-20</t>
         </is>
       </c>
-      <c r="D12" s="2" t="n">
+      <c r="D12" s="3" t="n">
         <v>45943</v>
       </c>
-      <c r="E12" s="2" t="n">
+      <c r="E12" s="3" t="n">
         <v>45992</v>
       </c>
       <c r="F12" t="inlineStr">
@@ -30586,10 +30018,10 @@
           <t>2526100568-20</t>
         </is>
       </c>
-      <c r="D13" s="2" t="n">
+      <c r="D13" s="3" t="n">
         <v>45943</v>
       </c>
-      <c r="E13" s="2" t="n">
+      <c r="E13" s="3" t="n">
         <v>45997</v>
       </c>
       <c r="F13" t="inlineStr">
@@ -30619,10 +30051,10 @@
           <t>2526100569-20</t>
         </is>
       </c>
-      <c r="D14" s="2" t="n">
+      <c r="D14" s="3" t="n">
         <v>45943</v>
       </c>
-      <c r="E14" s="2" t="n">
+      <c r="E14" s="3" t="n">
         <v>45979</v>
       </c>
       <c r="F14" t="inlineStr">
@@ -30652,10 +30084,10 @@
           <t>2526200576-10</t>
         </is>
       </c>
-      <c r="D15" s="2" t="n">
+      <c r="D15" s="3" t="n">
         <v>45751</v>
       </c>
-      <c r="E15" s="2" t="n">
+      <c r="E15" s="3" t="n">
         <v>45830</v>
       </c>
       <c r="F15" t="inlineStr">
@@ -30685,10 +30117,10 @@
           <t>2526200576-20</t>
         </is>
       </c>
-      <c r="D16" s="2" t="n">
+      <c r="D16" s="3" t="n">
         <v>45751</v>
       </c>
-      <c r="E16" s="2" t="n">
+      <c r="E16" s="3" t="n">
         <v>45830</v>
       </c>
       <c r="F16" t="inlineStr">
@@ -30718,10 +30150,10 @@
           <t>2526200576-30</t>
         </is>
       </c>
-      <c r="D17" s="2" t="n">
+      <c r="D17" s="3" t="n">
         <v>45751</v>
       </c>
-      <c r="E17" s="2" t="n">
+      <c r="E17" s="3" t="n">
         <v>45830</v>
       </c>
       <c r="F17" t="inlineStr">
@@ -30751,10 +30183,10 @@
           <t>2526201015-10</t>
         </is>
       </c>
-      <c r="D18" s="2" t="n">
+      <c r="D18" s="3" t="n">
         <v>45784</v>
       </c>
-      <c r="E18" s="2" t="n">
+      <c r="E18" s="3" t="n">
         <v>45976</v>
       </c>
       <c r="F18" t="inlineStr">
@@ -30784,10 +30216,10 @@
           <t>2526201015-20</t>
         </is>
       </c>
-      <c r="D19" s="2" t="n">
+      <c r="D19" s="3" t="n">
         <v>45784</v>
       </c>
-      <c r="E19" s="2" t="n">
+      <c r="E19" s="3" t="n">
         <v>45976</v>
       </c>
       <c r="F19" t="inlineStr">
@@ -30817,10 +30249,10 @@
           <t>2526201160-10</t>
         </is>
       </c>
-      <c r="D20" s="2" t="n">
+      <c r="D20" s="3" t="n">
         <v>45791</v>
       </c>
-      <c r="E20" s="2" t="n">
+      <c r="E20" s="3" t="n">
         <v>45991</v>
       </c>
       <c r="F20" t="inlineStr">
@@ -30850,10 +30282,10 @@
           <t>2526201341-40</t>
         </is>
       </c>
-      <c r="D21" s="2" t="n">
+      <c r="D21" s="3" t="n">
         <v>45804</v>
       </c>
-      <c r="E21" s="2" t="n">
+      <c r="E21" s="3" t="n">
         <v>45991</v>
       </c>
       <c r="F21" t="inlineStr">
@@ -30883,10 +30315,10 @@
           <t>2526201341-50</t>
         </is>
       </c>
-      <c r="D22" s="2" t="n">
+      <c r="D22" s="3" t="n">
         <v>45804</v>
       </c>
-      <c r="E22" s="2" t="n">
+      <c r="E22" s="3" t="n">
         <v>45991</v>
       </c>
       <c r="F22" t="inlineStr">
@@ -30916,10 +30348,10 @@
           <t>2526201561-10</t>
         </is>
       </c>
-      <c r="D23" s="2" t="n">
+      <c r="D23" s="3" t="n">
         <v>45818</v>
       </c>
-      <c r="E23" s="2" t="n">
+      <c r="E23" s="3" t="n">
         <v>45991</v>
       </c>
       <c r="F23" t="inlineStr">
@@ -30949,10 +30381,10 @@
           <t>2526201561-20</t>
         </is>
       </c>
-      <c r="D24" s="2" t="n">
+      <c r="D24" s="3" t="n">
         <v>45818</v>
       </c>
-      <c r="E24" s="2" t="n">
+      <c r="E24" s="3" t="n">
         <v>45991</v>
       </c>
       <c r="F24" t="inlineStr">
@@ -30982,10 +30414,10 @@
           <t>2526201561-30</t>
         </is>
       </c>
-      <c r="D25" s="2" t="n">
+      <c r="D25" s="3" t="n">
         <v>45818</v>
       </c>
-      <c r="E25" s="2" t="n">
+      <c r="E25" s="3" t="n">
         <v>45991</v>
       </c>
       <c r="F25" t="inlineStr">
@@ -31015,10 +30447,10 @@
           <t>2526201611-30</t>
         </is>
       </c>
-      <c r="D26" s="2" t="n">
+      <c r="D26" s="3" t="n">
         <v>45822</v>
       </c>
-      <c r="E26" s="2" t="n">
+      <c r="E26" s="3" t="n">
         <v>45976</v>
       </c>
       <c r="F26" t="inlineStr">
@@ -31048,10 +30480,10 @@
           <t>2526201681-10</t>
         </is>
       </c>
-      <c r="D27" s="2" t="n">
+      <c r="D27" s="3" t="n">
         <v>45826</v>
       </c>
-      <c r="E27" s="2" t="n">
+      <c r="E27" s="3" t="n">
         <v>45879</v>
       </c>
       <c r="F27" t="inlineStr">
@@ -31081,10 +30513,10 @@
           <t>2526201804-20</t>
         </is>
       </c>
-      <c r="D28" s="2" t="n">
+      <c r="D28" s="3" t="n">
         <v>45832</v>
       </c>
-      <c r="E28" s="2" t="n">
+      <c r="E28" s="3" t="n">
         <v>45976</v>
       </c>
       <c r="F28" t="inlineStr">
@@ -31114,10 +30546,10 @@
           <t>2526202458-10</t>
         </is>
       </c>
-      <c r="D29" s="2" t="n">
+      <c r="D29" s="3" t="n">
         <v>45876</v>
       </c>
-      <c r="E29" s="2" t="n">
+      <c r="E29" s="3" t="n">
         <v>45968</v>
       </c>
       <c r="F29" t="inlineStr">
@@ -31147,10 +30579,10 @@
           <t>2526202458-20</t>
         </is>
       </c>
-      <c r="D30" s="2" t="n">
+      <c r="D30" s="3" t="n">
         <v>45876</v>
       </c>
-      <c r="E30" s="2" t="n">
+      <c r="E30" s="3" t="n">
         <v>45968</v>
       </c>
       <c r="F30" t="inlineStr">
@@ -31180,10 +30612,10 @@
           <t>2526202458-30</t>
         </is>
       </c>
-      <c r="D31" s="2" t="n">
+      <c r="D31" s="3" t="n">
         <v>45876</v>
       </c>
-      <c r="E31" s="2" t="n">
+      <c r="E31" s="3" t="n">
         <v>45968</v>
       </c>
       <c r="F31" t="inlineStr">
@@ -31213,10 +30645,10 @@
           <t>2526202458-40</t>
         </is>
       </c>
-      <c r="D32" s="2" t="n">
+      <c r="D32" s="3" t="n">
         <v>45876</v>
       </c>
-      <c r="E32" s="2" t="n">
+      <c r="E32" s="3" t="n">
         <v>45968</v>
       </c>
       <c r="F32" t="inlineStr">
@@ -31246,10 +30678,10 @@
           <t>2526202458-50</t>
         </is>
       </c>
-      <c r="D33" s="2" t="n">
+      <c r="D33" s="3" t="n">
         <v>45876</v>
       </c>
-      <c r="E33" s="2" t="n">
+      <c r="E33" s="3" t="n">
         <v>45968</v>
       </c>
       <c r="F33" t="inlineStr">
@@ -31279,10 +30711,10 @@
           <t>2526202458-60</t>
         </is>
       </c>
-      <c r="D34" s="2" t="n">
+      <c r="D34" s="3" t="n">
         <v>45876</v>
       </c>
-      <c r="E34" s="2" t="n">
+      <c r="E34" s="3" t="n">
         <v>45968</v>
       </c>
       <c r="F34" t="inlineStr">
@@ -31312,10 +30744,10 @@
           <t>2526202459-10</t>
         </is>
       </c>
-      <c r="D35" s="2" t="n">
+      <c r="D35" s="3" t="n">
         <v>45876</v>
       </c>
-      <c r="E35" s="2" t="n">
+      <c r="E35" s="3" t="n">
         <v>45973</v>
       </c>
       <c r="F35" t="inlineStr">
@@ -31345,10 +30777,10 @@
           <t>2526202459-20</t>
         </is>
       </c>
-      <c r="D36" s="2" t="n">
+      <c r="D36" s="3" t="n">
         <v>45876</v>
       </c>
-      <c r="E36" s="2" t="n">
+      <c r="E36" s="3" t="n">
         <v>45973</v>
       </c>
       <c r="F36" t="inlineStr">
@@ -31378,10 +30810,10 @@
           <t>2526202459-30</t>
         </is>
       </c>
-      <c r="D37" s="2" t="n">
+      <c r="D37" s="3" t="n">
         <v>45876</v>
       </c>
-      <c r="E37" s="2" t="n">
+      <c r="E37" s="3" t="n">
         <v>45973</v>
       </c>
       <c r="F37" t="inlineStr">
@@ -31411,10 +30843,10 @@
           <t>2526202474-10</t>
         </is>
       </c>
-      <c r="D38" s="2" t="n">
+      <c r="D38" s="3" t="n">
         <v>45877</v>
       </c>
-      <c r="E38" s="2" t="n">
+      <c r="E38" s="3" t="n">
         <v>45972</v>
       </c>
       <c r="F38" t="inlineStr">
@@ -31444,10 +30876,10 @@
           <t>2526202705-30</t>
         </is>
       </c>
-      <c r="D39" s="2" t="n">
+      <c r="D39" s="3" t="n">
         <v>45891</v>
       </c>
-      <c r="E39" s="2" t="n">
+      <c r="E39" s="3" t="n">
         <v>45965</v>
       </c>
       <c r="F39" t="inlineStr">
@@ -31477,10 +30909,10 @@
           <t>2526202706-30</t>
         </is>
       </c>
-      <c r="D40" s="2" t="n">
+      <c r="D40" s="3" t="n">
         <v>45891</v>
       </c>
-      <c r="E40" s="2" t="n">
+      <c r="E40" s="3" t="n">
         <v>45965</v>
       </c>
       <c r="F40" t="inlineStr">
@@ -31510,10 +30942,10 @@
           <t>2526202707-40</t>
         </is>
       </c>
-      <c r="D41" s="2" t="n">
+      <c r="D41" s="3" t="n">
         <v>45891</v>
       </c>
-      <c r="E41" s="2" t="n">
+      <c r="E41" s="3" t="n">
         <v>45979</v>
       </c>
       <c r="F41" t="inlineStr">
@@ -31543,10 +30975,10 @@
           <t>2526202708-40</t>
         </is>
       </c>
-      <c r="D42" s="2" t="n">
+      <c r="D42" s="3" t="n">
         <v>45891</v>
       </c>
-      <c r="E42" s="2" t="n">
+      <c r="E42" s="3" t="n">
         <v>45979</v>
       </c>
       <c r="F42" t="inlineStr">
@@ -31576,10 +31008,10 @@
           <t>2526202709-50</t>
         </is>
       </c>
-      <c r="D43" s="2" t="n">
+      <c r="D43" s="3" t="n">
         <v>45891</v>
       </c>
-      <c r="E43" s="2" t="n">
+      <c r="E43" s="3" t="n">
         <v>45965</v>
       </c>
       <c r="F43" t="inlineStr">
@@ -31609,10 +31041,10 @@
           <t>2526202713-40</t>
         </is>
       </c>
-      <c r="D44" s="2" t="n">
+      <c r="D44" s="3" t="n">
         <v>45894</v>
       </c>
-      <c r="E44" s="2" t="n">
+      <c r="E44" s="3" t="n">
         <v>45976</v>
       </c>
       <c r="F44" t="inlineStr">
@@ -31642,10 +31074,10 @@
           <t>2526202788-10</t>
         </is>
       </c>
-      <c r="D45" s="2" t="n">
+      <c r="D45" s="3" t="n">
         <v>45899</v>
       </c>
-      <c r="E45" s="2" t="n">
+      <c r="E45" s="3" t="n">
         <v>45979</v>
       </c>
       <c r="F45" t="inlineStr">
@@ -31675,10 +31107,10 @@
           <t>2526202810-10</t>
         </is>
       </c>
-      <c r="D46" s="2" t="n">
+      <c r="D46" s="3" t="n">
         <v>45904</v>
       </c>
-      <c r="E46" s="2" t="n">
+      <c r="E46" s="3" t="n">
         <v>45956</v>
       </c>
       <c r="F46" t="inlineStr">
@@ -31708,10 +31140,10 @@
           <t>2526202810-20</t>
         </is>
       </c>
-      <c r="D47" s="2" t="n">
+      <c r="D47" s="3" t="n">
         <v>45904</v>
       </c>
-      <c r="E47" s="2" t="n">
+      <c r="E47" s="3" t="n">
         <v>45956</v>
       </c>
       <c r="F47" t="inlineStr">
@@ -31741,10 +31173,10 @@
           <t>2526202818-10</t>
         </is>
       </c>
-      <c r="D48" s="2" t="n">
+      <c r="D48" s="3" t="n">
         <v>45904</v>
       </c>
-      <c r="E48" s="2" t="n">
+      <c r="E48" s="3" t="n">
         <v>45986</v>
       </c>
       <c r="F48" t="inlineStr">
@@ -31774,10 +31206,10 @@
           <t>2526202819-20</t>
         </is>
       </c>
-      <c r="D49" s="2" t="n">
+      <c r="D49" s="3" t="n">
         <v>45904</v>
       </c>
-      <c r="E49" s="2" t="n">
+      <c r="E49" s="3" t="n">
         <v>45993</v>
       </c>
       <c r="F49" t="inlineStr">
@@ -31807,10 +31239,10 @@
           <t>2526202820-20</t>
         </is>
       </c>
-      <c r="D50" s="2" t="n">
+      <c r="D50" s="3" t="n">
         <v>45904</v>
       </c>
-      <c r="E50" s="2" t="n">
+      <c r="E50" s="3" t="n">
         <v>45993</v>
       </c>
       <c r="F50" t="inlineStr">
@@ -31840,10 +31272,10 @@
           <t>2526202929-10</t>
         </is>
       </c>
-      <c r="D51" s="2" t="n">
+      <c r="D51" s="3" t="n">
         <v>45915</v>
       </c>
-      <c r="E51" s="2" t="n">
+      <c r="E51" s="3" t="n">
         <v>45976</v>
       </c>
       <c r="F51" t="inlineStr">
@@ -31873,10 +31305,10 @@
           <t>2526202939-10</t>
         </is>
       </c>
-      <c r="D52" s="2" t="n">
+      <c r="D52" s="3" t="n">
         <v>45915</v>
       </c>
-      <c r="E52" s="2" t="n">
+      <c r="E52" s="3" t="n">
         <v>45966</v>
       </c>
       <c r="F52" t="inlineStr">
@@ -31906,10 +31338,10 @@
           <t>2526202941-70</t>
         </is>
       </c>
-      <c r="D53" s="2" t="n">
+      <c r="D53" s="3" t="n">
         <v>45916</v>
       </c>
-      <c r="E53" s="2" t="n">
+      <c r="E53" s="3" t="n">
         <v>45977</v>
       </c>
       <c r="F53" t="inlineStr">
@@ -31939,10 +31371,10 @@
           <t>2526202943-80</t>
         </is>
       </c>
-      <c r="D54" s="2" t="n">
+      <c r="D54" s="3" t="n">
         <v>45916</v>
       </c>
-      <c r="E54" s="2" t="n">
+      <c r="E54" s="3" t="n">
         <v>45977</v>
       </c>
       <c r="F54" t="inlineStr">
@@ -31972,10 +31404,10 @@
           <t>2526202943-90</t>
         </is>
       </c>
-      <c r="D55" s="2" t="n">
+      <c r="D55" s="3" t="n">
         <v>45916</v>
       </c>
-      <c r="E55" s="2" t="n">
+      <c r="E55" s="3" t="n">
         <v>45984</v>
       </c>
       <c r="F55" t="inlineStr">
@@ -32005,10 +31437,10 @@
           <t>2526202947-70</t>
         </is>
       </c>
-      <c r="D56" s="2" t="n">
+      <c r="D56" s="3" t="n">
         <v>45916</v>
       </c>
-      <c r="E56" s="2" t="n">
+      <c r="E56" s="3" t="n">
         <v>45977</v>
       </c>
       <c r="F56" t="inlineStr">
@@ -32038,10 +31470,10 @@
           <t>2526202947-90</t>
         </is>
       </c>
-      <c r="D57" s="2" t="n">
+      <c r="D57" s="3" t="n">
         <v>45916</v>
       </c>
-      <c r="E57" s="2" t="n">
+      <c r="E57" s="3" t="n">
         <v>45977</v>
       </c>
       <c r="F57" t="inlineStr">
@@ -32071,10 +31503,10 @@
           <t>2526202947-100</t>
         </is>
       </c>
-      <c r="D58" s="2" t="n">
+      <c r="D58" s="3" t="n">
         <v>45916</v>
       </c>
-      <c r="E58" s="2" t="n">
+      <c r="E58" s="3" t="n">
         <v>45977</v>
       </c>
       <c r="F58" t="inlineStr">
@@ -32104,10 +31536,10 @@
           <t>2526202952-10</t>
         </is>
       </c>
-      <c r="D59" s="2" t="n">
+      <c r="D59" s="3" t="n">
         <v>45916</v>
       </c>
-      <c r="E59" s="2" t="n">
+      <c r="E59" s="3" t="n">
         <v>45983</v>
       </c>
       <c r="F59" t="inlineStr">
@@ -32137,10 +31569,10 @@
           <t>2526202952-20</t>
         </is>
       </c>
-      <c r="D60" s="2" t="n">
+      <c r="D60" s="3" t="n">
         <v>45916</v>
       </c>
-      <c r="E60" s="2" t="n">
+      <c r="E60" s="3" t="n">
         <v>45983</v>
       </c>
       <c r="F60" t="inlineStr">
@@ -32170,10 +31602,10 @@
           <t>2526202953-10</t>
         </is>
       </c>
-      <c r="D61" s="2" t="n">
+      <c r="D61" s="3" t="n">
         <v>45916</v>
       </c>
-      <c r="E61" s="2" t="n">
+      <c r="E61" s="3" t="n">
         <v>45983</v>
       </c>
       <c r="F61" t="inlineStr">
@@ -32203,10 +31635,10 @@
           <t>2526202953-20</t>
         </is>
       </c>
-      <c r="D62" s="2" t="n">
+      <c r="D62" s="3" t="n">
         <v>45916</v>
       </c>
-      <c r="E62" s="2" t="n">
+      <c r="E62" s="3" t="n">
         <v>45983</v>
       </c>
       <c r="F62" t="inlineStr">
@@ -32236,10 +31668,10 @@
           <t>2526202954-10</t>
         </is>
       </c>
-      <c r="D63" s="2" t="n">
+      <c r="D63" s="3" t="n">
         <v>45916</v>
       </c>
-      <c r="E63" s="2" t="n">
+      <c r="E63" s="3" t="n">
         <v>46006</v>
       </c>
       <c r="F63" t="inlineStr">
@@ -32269,10 +31701,10 @@
           <t>2526202954-20</t>
         </is>
       </c>
-      <c r="D64" s="2" t="n">
+      <c r="D64" s="3" t="n">
         <v>45916</v>
       </c>
-      <c r="E64" s="2" t="n">
+      <c r="E64" s="3" t="n">
         <v>46006</v>
       </c>
       <c r="F64" t="inlineStr">
@@ -32302,10 +31734,10 @@
           <t>2526202955-10</t>
         </is>
       </c>
-      <c r="D65" s="2" t="n">
+      <c r="D65" s="3" t="n">
         <v>45916</v>
       </c>
-      <c r="E65" s="2" t="n">
+      <c r="E65" s="3" t="n">
         <v>46006</v>
       </c>
       <c r="F65" t="inlineStr">
@@ -32335,10 +31767,10 @@
           <t>2526202955-20</t>
         </is>
       </c>
-      <c r="D66" s="2" t="n">
+      <c r="D66" s="3" t="n">
         <v>45916</v>
       </c>
-      <c r="E66" s="2" t="n">
+      <c r="E66" s="3" t="n">
         <v>46006</v>
       </c>
       <c r="F66" t="inlineStr">
@@ -32368,10 +31800,10 @@
           <t>2526202956-10</t>
         </is>
       </c>
-      <c r="D67" s="2" t="n">
+      <c r="D67" s="3" t="n">
         <v>45916</v>
       </c>
-      <c r="E67" s="2" t="n">
+      <c r="E67" s="3" t="n">
         <v>46037</v>
       </c>
       <c r="F67" t="inlineStr">
@@ -32401,10 +31833,10 @@
           <t>2526202956-20</t>
         </is>
       </c>
-      <c r="D68" s="2" t="n">
+      <c r="D68" s="3" t="n">
         <v>45916</v>
       </c>
-      <c r="E68" s="2" t="n">
+      <c r="E68" s="3" t="n">
         <v>46037</v>
       </c>
       <c r="F68" t="inlineStr">
@@ -32434,10 +31866,10 @@
           <t>2526202957-10</t>
         </is>
       </c>
-      <c r="D69" s="2" t="n">
+      <c r="D69" s="3" t="n">
         <v>45916</v>
       </c>
-      <c r="E69" s="2" t="n">
+      <c r="E69" s="3" t="n">
         <v>46037</v>
       </c>
       <c r="F69" t="inlineStr">
@@ -32467,10 +31899,10 @@
           <t>2526202957-20</t>
         </is>
       </c>
-      <c r="D70" s="2" t="n">
+      <c r="D70" s="3" t="n">
         <v>45916</v>
       </c>
-      <c r="E70" s="2" t="n">
+      <c r="E70" s="3" t="n">
         <v>46037</v>
       </c>
       <c r="F70" t="inlineStr">
@@ -32500,10 +31932,10 @@
           <t>2526202958-10</t>
         </is>
       </c>
-      <c r="D71" s="2" t="n">
+      <c r="D71" s="3" t="n">
         <v>45916</v>
       </c>
-      <c r="E71" s="2" t="n">
+      <c r="E71" s="3" t="n">
         <v>46068</v>
       </c>
       <c r="F71" t="inlineStr">
@@ -32533,10 +31965,10 @@
           <t>2526202958-20</t>
         </is>
       </c>
-      <c r="D72" s="2" t="n">
+      <c r="D72" s="3" t="n">
         <v>45916</v>
       </c>
-      <c r="E72" s="2" t="n">
+      <c r="E72" s="3" t="n">
         <v>46068</v>
       </c>
       <c r="F72" t="inlineStr">
@@ -32566,10 +31998,10 @@
           <t>2526202959-10</t>
         </is>
       </c>
-      <c r="D73" s="2" t="n">
+      <c r="D73" s="3" t="n">
         <v>45916</v>
       </c>
-      <c r="E73" s="2" t="n">
+      <c r="E73" s="3" t="n">
         <v>46068</v>
       </c>
       <c r="F73" t="inlineStr">
@@ -32599,10 +32031,10 @@
           <t>2526202959-20</t>
         </is>
       </c>
-      <c r="D74" s="2" t="n">
+      <c r="D74" s="3" t="n">
         <v>45916</v>
       </c>
-      <c r="E74" s="2" t="n">
+      <c r="E74" s="3" t="n">
         <v>46068</v>
       </c>
       <c r="F74" t="inlineStr">
@@ -32632,10 +32064,10 @@
           <t>2526202960-10</t>
         </is>
       </c>
-      <c r="D75" s="2" t="n">
+      <c r="D75" s="3" t="n">
         <v>45916</v>
       </c>
-      <c r="E75" s="2" t="n">
+      <c r="E75" s="3" t="n">
         <v>46096</v>
       </c>
       <c r="F75" t="inlineStr">
@@ -32665,10 +32097,10 @@
           <t>2526202960-20</t>
         </is>
       </c>
-      <c r="D76" s="2" t="n">
+      <c r="D76" s="3" t="n">
         <v>45916</v>
       </c>
-      <c r="E76" s="2" t="n">
+      <c r="E76" s="3" t="n">
         <v>46096</v>
       </c>
       <c r="F76" t="inlineStr">
@@ -32698,10 +32130,10 @@
           <t>2526202961-10</t>
         </is>
       </c>
-      <c r="D77" s="2" t="n">
+      <c r="D77" s="3" t="n">
         <v>45916</v>
       </c>
-      <c r="E77" s="2" t="n">
+      <c r="E77" s="3" t="n">
         <v>46096</v>
       </c>
       <c r="F77" t="inlineStr">
@@ -32731,10 +32163,10 @@
           <t>2526202961-20</t>
         </is>
       </c>
-      <c r="D78" s="2" t="n">
+      <c r="D78" s="3" t="n">
         <v>45916</v>
       </c>
-      <c r="E78" s="2" t="n">
+      <c r="E78" s="3" t="n">
         <v>46096</v>
       </c>
       <c r="F78" t="inlineStr">
@@ -32764,10 +32196,10 @@
           <t>2526202964-10</t>
         </is>
       </c>
-      <c r="D79" s="2" t="n">
+      <c r="D79" s="3" t="n">
         <v>45916</v>
       </c>
-      <c r="E79" s="2" t="n">
+      <c r="E79" s="3" t="n">
         <v>45995</v>
       </c>
       <c r="F79" t="inlineStr">
@@ -32797,10 +32229,10 @@
           <t>2526202964-20</t>
         </is>
       </c>
-      <c r="D80" s="2" t="n">
+      <c r="D80" s="3" t="n">
         <v>45916</v>
       </c>
-      <c r="E80" s="2" t="n">
+      <c r="E80" s="3" t="n">
         <v>45995</v>
       </c>
       <c r="F80" t="inlineStr">
@@ -32830,10 +32262,10 @@
           <t>2526202964-30</t>
         </is>
       </c>
-      <c r="D81" s="2" t="n">
+      <c r="D81" s="3" t="n">
         <v>45916</v>
       </c>
-      <c r="E81" s="2" t="n">
+      <c r="E81" s="3" t="n">
         <v>45995</v>
       </c>
       <c r="F81" t="inlineStr">
@@ -32863,10 +32295,10 @@
           <t>2526202965-10</t>
         </is>
       </c>
-      <c r="D82" s="2" t="n">
+      <c r="D82" s="3" t="n">
         <v>45916</v>
       </c>
-      <c r="E82" s="2" t="n">
+      <c r="E82" s="3" t="n">
         <v>46002</v>
       </c>
       <c r="F82" t="inlineStr">
@@ -32896,10 +32328,10 @@
           <t>2526202965-20</t>
         </is>
       </c>
-      <c r="D83" s="2" t="n">
+      <c r="D83" s="3" t="n">
         <v>45916</v>
       </c>
-      <c r="E83" s="2" t="n">
+      <c r="E83" s="3" t="n">
         <v>46002</v>
       </c>
       <c r="F83" t="inlineStr">
@@ -32929,10 +32361,10 @@
           <t>2526202965-30</t>
         </is>
       </c>
-      <c r="D84" s="2" t="n">
+      <c r="D84" s="3" t="n">
         <v>45916</v>
       </c>
-      <c r="E84" s="2" t="n">
+      <c r="E84" s="3" t="n">
         <v>46002</v>
       </c>
       <c r="F84" t="inlineStr">
@@ -32962,10 +32394,10 @@
           <t>2526202970-40</t>
         </is>
       </c>
-      <c r="D85" s="2" t="n">
+      <c r="D85" s="3" t="n">
         <v>45917</v>
       </c>
-      <c r="E85" s="2" t="n">
+      <c r="E85" s="3" t="n">
         <v>45971</v>
       </c>
       <c r="F85" t="inlineStr">
@@ -32995,10 +32427,10 @@
           <t>2526202971-60</t>
         </is>
       </c>
-      <c r="D86" s="2" t="n">
+      <c r="D86" s="3" t="n">
         <v>45917</v>
       </c>
-      <c r="E86" s="2" t="n">
+      <c r="E86" s="3" t="n">
         <v>45976</v>
       </c>
       <c r="F86" t="inlineStr">
@@ -33028,10 +32460,10 @@
           <t>2526203022-10</t>
         </is>
       </c>
-      <c r="D87" s="2" t="n">
+      <c r="D87" s="3" t="n">
         <v>45922</v>
       </c>
-      <c r="E87" s="2" t="n">
+      <c r="E87" s="3" t="n">
         <v>45984</v>
       </c>
       <c r="F87" t="inlineStr">
@@ -33061,10 +32493,10 @@
           <t>2526203022-20</t>
         </is>
       </c>
-      <c r="D88" s="2" t="n">
+      <c r="D88" s="3" t="n">
         <v>45922</v>
       </c>
-      <c r="E88" s="2" t="n">
+      <c r="E88" s="3" t="n">
         <v>45984</v>
       </c>
       <c r="F88" t="inlineStr">
@@ -33094,10 +32526,10 @@
           <t>2526203022-30</t>
         </is>
       </c>
-      <c r="D89" s="2" t="n">
+      <c r="D89" s="3" t="n">
         <v>45922</v>
       </c>
-      <c r="E89" s="2" t="n">
+      <c r="E89" s="3" t="n">
         <v>45984</v>
       </c>
       <c r="F89" t="inlineStr">
@@ -33127,10 +32559,10 @@
           <t>2526203022-40</t>
         </is>
       </c>
-      <c r="D90" s="2" t="n">
+      <c r="D90" s="3" t="n">
         <v>45922</v>
       </c>
-      <c r="E90" s="2" t="n">
+      <c r="E90" s="3" t="n">
         <v>45984</v>
       </c>
       <c r="F90" t="inlineStr">
@@ -33160,10 +32592,10 @@
           <t>2526203022-50</t>
         </is>
       </c>
-      <c r="D91" s="2" t="n">
+      <c r="D91" s="3" t="n">
         <v>45922</v>
       </c>
-      <c r="E91" s="2" t="n">
+      <c r="E91" s="3" t="n">
         <v>45984</v>
       </c>
       <c r="F91" t="inlineStr">
@@ -33193,10 +32625,10 @@
           <t>2526203022-60</t>
         </is>
       </c>
-      <c r="D92" s="2" t="n">
+      <c r="D92" s="3" t="n">
         <v>45922</v>
       </c>
-      <c r="E92" s="2" t="n">
+      <c r="E92" s="3" t="n">
         <v>45984</v>
       </c>
       <c r="F92" t="inlineStr">
@@ -33226,10 +32658,10 @@
           <t>2526203023-10</t>
         </is>
       </c>
-      <c r="D93" s="2" t="n">
+      <c r="D93" s="3" t="n">
         <v>45922</v>
       </c>
-      <c r="E93" s="2" t="n">
+      <c r="E93" s="3" t="n">
         <v>45984</v>
       </c>
       <c r="F93" t="inlineStr">
@@ -33259,10 +32691,10 @@
           <t>2526203038-40</t>
         </is>
       </c>
-      <c r="D94" s="2" t="n">
+      <c r="D94" s="3" t="n">
         <v>45924</v>
       </c>
-      <c r="E94" s="2" t="n">
+      <c r="E94" s="3" t="n">
         <v>45980</v>
       </c>
       <c r="F94" t="inlineStr">
@@ -33292,10 +32724,10 @@
           <t>2526203039-50</t>
         </is>
       </c>
-      <c r="D95" s="2" t="n">
+      <c r="D95" s="3" t="n">
         <v>45924</v>
       </c>
-      <c r="E95" s="2" t="n">
+      <c r="E95" s="3" t="n">
         <v>45980</v>
       </c>
       <c r="F95" t="inlineStr">
@@ -33325,10 +32757,10 @@
           <t>2526203057-10</t>
         </is>
       </c>
-      <c r="D96" s="2" t="n">
+      <c r="D96" s="3" t="n">
         <v>45929</v>
       </c>
-      <c r="E96" s="2" t="n">
+      <c r="E96" s="3" t="n">
         <v>45976</v>
       </c>
       <c r="F96" t="inlineStr">
@@ -33358,10 +32790,10 @@
           <t>2526203076-10</t>
         </is>
       </c>
-      <c r="D97" s="2" t="n">
+      <c r="D97" s="3" t="n">
         <v>45934</v>
       </c>
-      <c r="E97" s="2" t="n">
+      <c r="E97" s="3" t="n">
         <v>45991</v>
       </c>
       <c r="F97" t="inlineStr">
@@ -33391,10 +32823,10 @@
           <t>2526203076-20</t>
         </is>
       </c>
-      <c r="D98" s="2" t="n">
+      <c r="D98" s="3" t="n">
         <v>45934</v>
       </c>
-      <c r="E98" s="2" t="n">
+      <c r="E98" s="3" t="n">
         <v>45991</v>
       </c>
       <c r="F98" t="inlineStr">
@@ -33424,10 +32856,10 @@
           <t>2526203076-30</t>
         </is>
       </c>
-      <c r="D99" s="2" t="n">
+      <c r="D99" s="3" t="n">
         <v>45934</v>
       </c>
-      <c r="E99" s="2" t="n">
+      <c r="E99" s="3" t="n">
         <v>45991</v>
       </c>
       <c r="F99" t="inlineStr">
@@ -33457,10 +32889,10 @@
           <t>2526203076-40</t>
         </is>
       </c>
-      <c r="D100" s="2" t="n">
+      <c r="D100" s="3" t="n">
         <v>45934</v>
       </c>
-      <c r="E100" s="2" t="n">
+      <c r="E100" s="3" t="n">
         <v>45991</v>
       </c>
       <c r="F100" t="inlineStr">
@@ -33490,10 +32922,10 @@
           <t>2526203078-10</t>
         </is>
       </c>
-      <c r="D101" s="2" t="n">
+      <c r="D101" s="3" t="n">
         <v>45934</v>
       </c>
-      <c r="E101" s="2" t="n">
+      <c r="E101" s="3" t="n">
         <v>45991</v>
       </c>
       <c r="F101" t="inlineStr">
@@ -33523,10 +32955,10 @@
           <t>2526203090-10</t>
         </is>
       </c>
-      <c r="D102" s="2" t="n">
+      <c r="D102" s="3" t="n">
         <v>45934</v>
       </c>
-      <c r="E102" s="2" t="n">
+      <c r="E102" s="3" t="n">
         <v>45964</v>
       </c>
       <c r="F102" t="inlineStr">
@@ -33556,10 +32988,10 @@
           <t>2526203091-10</t>
         </is>
       </c>
-      <c r="D103" s="2" t="n">
+      <c r="D103" s="3" t="n">
         <v>45934</v>
       </c>
-      <c r="E103" s="2" t="n">
+      <c r="E103" s="3" t="n">
         <v>45971</v>
       </c>
       <c r="F103" t="inlineStr">
@@ -33589,10 +33021,10 @@
           <t>2526203092-20</t>
         </is>
       </c>
-      <c r="D104" s="2" t="n">
+      <c r="D104" s="3" t="n">
         <v>45934</v>
       </c>
-      <c r="E104" s="2" t="n">
+      <c r="E104" s="3" t="n">
         <v>45967</v>
       </c>
       <c r="F104" t="inlineStr">
@@ -33622,10 +33054,10 @@
           <t>2526203093-20</t>
         </is>
       </c>
-      <c r="D105" s="2" t="n">
+      <c r="D105" s="3" t="n">
         <v>45934</v>
       </c>
-      <c r="E105" s="2" t="n">
+      <c r="E105" s="3" t="n">
         <v>45971</v>
       </c>
       <c r="F105" t="inlineStr">
@@ -33655,10 +33087,10 @@
           <t>2526203094-30</t>
         </is>
       </c>
-      <c r="D106" s="2" t="n">
+      <c r="D106" s="3" t="n">
         <v>45934</v>
       </c>
-      <c r="E106" s="2" t="n">
+      <c r="E106" s="3" t="n">
         <v>45967</v>
       </c>
       <c r="F106" t="inlineStr">
@@ -33688,10 +33120,10 @@
           <t>2526203095-10</t>
         </is>
       </c>
-      <c r="D107" s="2" t="n">
+      <c r="D107" s="3" t="n">
         <v>45934</v>
       </c>
-      <c r="E107" s="2" t="n">
+      <c r="E107" s="3" t="n">
         <v>46006</v>
       </c>
       <c r="F107" t="inlineStr">
@@ -33721,10 +33153,10 @@
           <t>2526203095-20</t>
         </is>
       </c>
-      <c r="D108" s="2" t="n">
+      <c r="D108" s="3" t="n">
         <v>45934</v>
       </c>
-      <c r="E108" s="2" t="n">
+      <c r="E108" s="3" t="n">
         <v>46006</v>
       </c>
       <c r="F108" t="inlineStr">
@@ -33754,10 +33186,10 @@
           <t>2526203095-30</t>
         </is>
       </c>
-      <c r="D109" s="2" t="n">
+      <c r="D109" s="3" t="n">
         <v>45934</v>
       </c>
-      <c r="E109" s="2" t="n">
+      <c r="E109" s="3" t="n">
         <v>46006</v>
       </c>
       <c r="F109" t="inlineStr">
@@ -33787,10 +33219,10 @@
           <t>2526203096-10</t>
         </is>
       </c>
-      <c r="D110" s="2" t="n">
+      <c r="D110" s="3" t="n">
         <v>45934</v>
       </c>
-      <c r="E110" s="2" t="n">
+      <c r="E110" s="3" t="n">
         <v>46011</v>
       </c>
       <c r="F110" t="inlineStr">
@@ -33820,10 +33252,10 @@
           <t>2526203096-20</t>
         </is>
       </c>
-      <c r="D111" s="2" t="n">
+      <c r="D111" s="3" t="n">
         <v>45934</v>
       </c>
-      <c r="E111" s="2" t="n">
+      <c r="E111" s="3" t="n">
         <v>46011</v>
       </c>
       <c r="F111" t="inlineStr">
@@ -33853,10 +33285,10 @@
           <t>2526203096-30</t>
         </is>
       </c>
-      <c r="D112" s="2" t="n">
+      <c r="D112" s="3" t="n">
         <v>45934</v>
       </c>
-      <c r="E112" s="2" t="n">
+      <c r="E112" s="3" t="n">
         <v>46011</v>
       </c>
       <c r="F112" t="inlineStr">
@@ -33886,10 +33318,10 @@
           <t>2526203097-10</t>
         </is>
       </c>
-      <c r="D113" s="2" t="n">
+      <c r="D113" s="3" t="n">
         <v>45934</v>
       </c>
-      <c r="E113" s="2" t="n">
+      <c r="E113" s="3" t="n">
         <v>46015</v>
       </c>
       <c r="F113" t="inlineStr">
@@ -33919,10 +33351,10 @@
           <t>2526203097-20</t>
         </is>
       </c>
-      <c r="D114" s="2" t="n">
+      <c r="D114" s="3" t="n">
         <v>45934</v>
       </c>
-      <c r="E114" s="2" t="n">
+      <c r="E114" s="3" t="n">
         <v>46015</v>
       </c>
       <c r="F114" t="inlineStr">
@@ -33952,10 +33384,10 @@
           <t>2526203097-30</t>
         </is>
       </c>
-      <c r="D115" s="2" t="n">
+      <c r="D115" s="3" t="n">
         <v>45934</v>
       </c>
-      <c r="E115" s="2" t="n">
+      <c r="E115" s="3" t="n">
         <v>46015</v>
       </c>
       <c r="F115" t="inlineStr">
@@ -33985,10 +33417,10 @@
           <t>2526203098-10</t>
         </is>
       </c>
-      <c r="D116" s="2" t="n">
+      <c r="D116" s="3" t="n">
         <v>45934</v>
       </c>
-      <c r="E116" s="2" t="n">
+      <c r="E116" s="3" t="n">
         <v>46020</v>
       </c>
       <c r="F116" t="inlineStr">
@@ -34018,10 +33450,10 @@
           <t>2526203098-20</t>
         </is>
       </c>
-      <c r="D117" s="2" t="n">
+      <c r="D117" s="3" t="n">
         <v>45934</v>
       </c>
-      <c r="E117" s="2" t="n">
+      <c r="E117" s="3" t="n">
         <v>46020</v>
       </c>
       <c r="F117" t="inlineStr">
@@ -34051,10 +33483,10 @@
           <t>2526203098-30</t>
         </is>
       </c>
-      <c r="D118" s="2" t="n">
+      <c r="D118" s="3" t="n">
         <v>45934</v>
       </c>
-      <c r="E118" s="2" t="n">
+      <c r="E118" s="3" t="n">
         <v>46020</v>
       </c>
       <c r="F118" t="inlineStr">
@@ -34084,10 +33516,10 @@
           <t>2526203099-10</t>
         </is>
       </c>
-      <c r="D119" s="2" t="n">
+      <c r="D119" s="3" t="n">
         <v>45934</v>
       </c>
-      <c r="E119" s="2" t="n">
+      <c r="E119" s="3" t="n">
         <v>46026</v>
       </c>
       <c r="F119" t="inlineStr">
@@ -34117,10 +33549,10 @@
           <t>2526203099-20</t>
         </is>
       </c>
-      <c r="D120" s="2" t="n">
+      <c r="D120" s="3" t="n">
         <v>45934</v>
       </c>
-      <c r="E120" s="2" t="n">
+      <c r="E120" s="3" t="n">
         <v>46026</v>
       </c>
       <c r="F120" t="inlineStr">
@@ -34150,10 +33582,10 @@
           <t>2526203099-30</t>
         </is>
       </c>
-      <c r="D121" s="2" t="n">
+      <c r="D121" s="3" t="n">
         <v>45934</v>
       </c>
-      <c r="E121" s="2" t="n">
+      <c r="E121" s="3" t="n">
         <v>46026</v>
       </c>
       <c r="F121" t="inlineStr">
@@ -34183,10 +33615,10 @@
           <t>2526203099-40</t>
         </is>
       </c>
-      <c r="D122" s="2" t="n">
+      <c r="D122" s="3" t="n">
         <v>45934</v>
       </c>
-      <c r="E122" s="2" t="n">
+      <c r="E122" s="3" t="n">
         <v>46026</v>
       </c>
       <c r="F122" t="inlineStr">
@@ -34216,10 +33648,10 @@
           <t>2526203099-50</t>
         </is>
       </c>
-      <c r="D123" s="2" t="n">
+      <c r="D123" s="3" t="n">
         <v>45934</v>
       </c>
-      <c r="E123" s="2" t="n">
+      <c r="E123" s="3" t="n">
         <v>46026</v>
       </c>
       <c r="F123" t="inlineStr">
@@ -34249,10 +33681,10 @@
           <t>2526203099-60</t>
         </is>
       </c>
-      <c r="D124" s="2" t="n">
+      <c r="D124" s="3" t="n">
         <v>45934</v>
       </c>
-      <c r="E124" s="2" t="n">
+      <c r="E124" s="3" t="n">
         <v>46026</v>
       </c>
       <c r="F124" t="inlineStr">
@@ -34282,10 +33714,10 @@
           <t>2526203103-10</t>
         </is>
       </c>
-      <c r="D125" s="2" t="n">
+      <c r="D125" s="3" t="n">
         <v>45937</v>
       </c>
-      <c r="E125" s="2" t="n">
+      <c r="E125" s="3" t="n">
         <v>46020</v>
       </c>
       <c r="F125" t="inlineStr">
@@ -34315,10 +33747,10 @@
           <t>2526203131-40</t>
         </is>
       </c>
-      <c r="D126" s="2" t="n">
+      <c r="D126" s="3" t="n">
         <v>45937</v>
       </c>
-      <c r="E126" s="2" t="n">
+      <c r="E126" s="3" t="n">
         <v>45994</v>
       </c>
       <c r="F126" t="inlineStr">
@@ -34348,10 +33780,10 @@
           <t>2526203138-70</t>
         </is>
       </c>
-      <c r="D127" s="2" t="n">
+      <c r="D127" s="3" t="n">
         <v>45937</v>
       </c>
-      <c r="E127" s="2" t="n">
+      <c r="E127" s="3" t="n">
         <v>45994</v>
       </c>
       <c r="F127" t="inlineStr">
@@ -34381,10 +33813,10 @@
           <t>2526203139-80</t>
         </is>
       </c>
-      <c r="D128" s="2" t="n">
+      <c r="D128" s="3" t="n">
         <v>45937</v>
       </c>
-      <c r="E128" s="2" t="n">
+      <c r="E128" s="3" t="n">
         <v>45987</v>
       </c>
       <c r="F128" t="inlineStr">
@@ -34414,10 +33846,10 @@
           <t>2526203140-90</t>
         </is>
       </c>
-      <c r="D129" s="2" t="n">
+      <c r="D129" s="3" t="n">
         <v>45937</v>
       </c>
-      <c r="E129" s="2" t="n">
+      <c r="E129" s="3" t="n">
         <v>45994</v>
       </c>
       <c r="F129" t="inlineStr">
@@ -34447,10 +33879,10 @@
           <t>2526203141-100</t>
         </is>
       </c>
-      <c r="D130" s="2" t="n">
+      <c r="D130" s="3" t="n">
         <v>45937</v>
       </c>
-      <c r="E130" s="2" t="n">
+      <c r="E130" s="3" t="n">
         <v>45987</v>
       </c>
       <c r="F130" t="inlineStr">
@@ -34480,10 +33912,10 @@
           <t>2526203142-110</t>
         </is>
       </c>
-      <c r="D131" s="2" t="n">
+      <c r="D131" s="3" t="n">
         <v>45937</v>
       </c>
-      <c r="E131" s="2" t="n">
+      <c r="E131" s="3" t="n">
         <v>45994</v>
       </c>
       <c r="F131" t="inlineStr">
@@ -34513,10 +33945,10 @@
           <t>2526203143-120</t>
         </is>
       </c>
-      <c r="D132" s="2" t="n">
+      <c r="D132" s="3" t="n">
         <v>45937</v>
       </c>
-      <c r="E132" s="2" t="n">
+      <c r="E132" s="3" t="n">
         <v>45987</v>
       </c>
       <c r="F132" t="inlineStr">
@@ -34546,10 +33978,10 @@
           <t>2526203148-10</t>
         </is>
       </c>
-      <c r="D133" s="2" t="n">
+      <c r="D133" s="3" t="n">
         <v>45938</v>
       </c>
-      <c r="E133" s="2" t="n">
+      <c r="E133" s="3" t="n">
         <v>46022</v>
       </c>
       <c r="F133" t="inlineStr">
@@ -34579,10 +34011,10 @@
           <t>2526203153-10</t>
         </is>
       </c>
-      <c r="D134" s="2" t="n">
+      <c r="D134" s="3" t="n">
         <v>45939</v>
       </c>
-      <c r="E134" s="2" t="n">
+      <c r="E134" s="3" t="n">
         <v>45993</v>
       </c>
       <c r="F134" t="inlineStr">
@@ -34612,10 +34044,10 @@
           <t>2526203154-10</t>
         </is>
       </c>
-      <c r="D135" s="2" t="n">
+      <c r="D135" s="3" t="n">
         <v>45939</v>
       </c>
-      <c r="E135" s="2" t="n">
+      <c r="E135" s="3" t="n">
         <v>45993</v>
       </c>
       <c r="F135" t="inlineStr">
@@ -34645,10 +34077,10 @@
           <t>2526203163-10</t>
         </is>
       </c>
-      <c r="D136" s="2" t="n">
+      <c r="D136" s="3" t="n">
         <v>45940</v>
       </c>
-      <c r="E136" s="2" t="n">
+      <c r="E136" s="3" t="n">
         <v>45994</v>
       </c>
       <c r="F136" t="inlineStr">
@@ -34678,10 +34110,10 @@
           <t>2526203164-20</t>
         </is>
       </c>
-      <c r="D137" s="2" t="n">
+      <c r="D137" s="3" t="n">
         <v>45940</v>
       </c>
-      <c r="E137" s="2" t="n">
+      <c r="E137" s="3" t="n">
         <v>45994</v>
       </c>
       <c r="F137" t="inlineStr">
@@ -34711,10 +34143,10 @@
           <t>2526203171-70</t>
         </is>
       </c>
-      <c r="D138" s="2" t="n">
+      <c r="D138" s="3" t="n">
         <v>45940</v>
       </c>
-      <c r="E138" s="2" t="n">
+      <c r="E138" s="3" t="n">
         <v>45996</v>
       </c>
       <c r="F138" t="inlineStr">
@@ -34744,10 +34176,10 @@
           <t>2526203172-70</t>
         </is>
       </c>
-      <c r="D139" s="2" t="n">
+      <c r="D139" s="3" t="n">
         <v>45940</v>
       </c>
-      <c r="E139" s="2" t="n">
+      <c r="E139" s="3" t="n">
         <v>45996</v>
       </c>
       <c r="F139" t="inlineStr">
@@ -34777,10 +34209,10 @@
           <t>2526203173-70</t>
         </is>
       </c>
-      <c r="D140" s="2" t="n">
+      <c r="D140" s="3" t="n">
         <v>45940</v>
       </c>
-      <c r="E140" s="2" t="n">
+      <c r="E140" s="3" t="n">
         <v>45996</v>
       </c>
       <c r="F140" t="inlineStr">
@@ -34810,10 +34242,10 @@
           <t>2526203174-70</t>
         </is>
       </c>
-      <c r="D141" s="2" t="n">
+      <c r="D141" s="3" t="n">
         <v>45940</v>
       </c>
-      <c r="E141" s="2" t="n">
+      <c r="E141" s="3" t="n">
         <v>45996</v>
       </c>
       <c r="F141" t="inlineStr">
@@ -34843,10 +34275,10 @@
           <t>2526203175-80</t>
         </is>
       </c>
-      <c r="D142" s="2" t="n">
+      <c r="D142" s="3" t="n">
         <v>45940</v>
       </c>
-      <c r="E142" s="2" t="n">
+      <c r="E142" s="3" t="n">
         <v>45994</v>
       </c>
       <c r="F142" t="inlineStr">
@@ -34876,10 +34308,10 @@
           <t>2526203176-80</t>
         </is>
       </c>
-      <c r="D143" s="2" t="n">
+      <c r="D143" s="3" t="n">
         <v>45940</v>
       </c>
-      <c r="E143" s="2" t="n">
+      <c r="E143" s="3" t="n">
         <v>45994</v>
       </c>
       <c r="F143" t="inlineStr">
@@ -34909,10 +34341,10 @@
           <t>2526203177-80</t>
         </is>
       </c>
-      <c r="D144" s="2" t="n">
+      <c r="D144" s="3" t="n">
         <v>45940</v>
       </c>
-      <c r="E144" s="2" t="n">
+      <c r="E144" s="3" t="n">
         <v>45994</v>
       </c>
       <c r="F144" t="inlineStr">
@@ -34942,10 +34374,10 @@
           <t>2526203236-10</t>
         </is>
       </c>
-      <c r="D145" s="2" t="n">
+      <c r="D145" s="3" t="n">
         <v>45946</v>
       </c>
-      <c r="E145" s="2" t="n">
+      <c r="E145" s="3" t="n">
         <v>46013</v>
       </c>
       <c r="F145" t="inlineStr">
@@ -34975,10 +34407,10 @@
           <t>2526203249-10</t>
         </is>
       </c>
-      <c r="D146" s="2" t="n">
+      <c r="D146" s="3" t="n">
         <v>45946</v>
       </c>
-      <c r="E146" s="2" t="n">
+      <c r="E146" s="3" t="n">
         <v>45993</v>
       </c>
       <c r="F146" t="inlineStr">
@@ -35008,10 +34440,10 @@
           <t>2526203250-20</t>
         </is>
       </c>
-      <c r="D147" s="2" t="n">
+      <c r="D147" s="3" t="n">
         <v>45946</v>
       </c>
-      <c r="E147" s="2" t="n">
+      <c r="E147" s="3" t="n">
         <v>45996</v>
       </c>
       <c r="F147" t="inlineStr">
@@ -35041,10 +34473,10 @@
           <t>2526203251-20</t>
         </is>
       </c>
-      <c r="D148" s="2" t="n">
+      <c r="D148" s="3" t="n">
         <v>45946</v>
       </c>
-      <c r="E148" s="2" t="n">
+      <c r="E148" s="3" t="n">
         <v>45996</v>
       </c>
       <c r="F148" t="inlineStr">
@@ -35074,10 +34506,10 @@
           <t>2526203252-10</t>
         </is>
       </c>
-      <c r="D149" s="2" t="n">
+      <c r="D149" s="3" t="n">
         <v>45946</v>
       </c>
-      <c r="E149" s="2" t="n">
+      <c r="E149" s="3" t="n">
         <v>46000</v>
       </c>
       <c r="F149" t="inlineStr">
@@ -35107,10 +34539,10 @@
           <t>2526203253-20</t>
         </is>
       </c>
-      <c r="D150" s="2" t="n">
+      <c r="D150" s="3" t="n">
         <v>45946</v>
       </c>
-      <c r="E150" s="2" t="n">
+      <c r="E150" s="3" t="n">
         <v>46000</v>
       </c>
       <c r="F150" t="inlineStr">
@@ -35140,10 +34572,10 @@
           <t>2526203255-10</t>
         </is>
       </c>
-      <c r="D151" s="2" t="n">
+      <c r="D151" s="3" t="n">
         <v>45947</v>
       </c>
-      <c r="E151" s="2" t="n">
+      <c r="E151" s="3" t="n">
         <v>46001</v>
       </c>
       <c r="F151" t="inlineStr">
@@ -35173,10 +34605,10 @@
           <t>2526203256-20</t>
         </is>
       </c>
-      <c r="D152" s="2" t="n">
+      <c r="D152" s="3" t="n">
         <v>45947</v>
       </c>
-      <c r="E152" s="2" t="n">
+      <c r="E152" s="3" t="n">
         <v>46001</v>
       </c>
       <c r="F152" t="inlineStr">
@@ -35206,10 +34638,10 @@
           <t>2526203258-40</t>
         </is>
       </c>
-      <c r="D153" s="2" t="n">
+      <c r="D153" s="3" t="n">
         <v>45947</v>
       </c>
-      <c r="E153" s="2" t="n">
+      <c r="E153" s="3" t="n">
         <v>46001</v>
       </c>
       <c r="F153" t="inlineStr">
@@ -35239,10 +34671,10 @@
           <t>2526203259-50</t>
         </is>
       </c>
-      <c r="D154" s="2" t="n">
+      <c r="D154" s="3" t="n">
         <v>45947</v>
       </c>
-      <c r="E154" s="2" t="n">
+      <c r="E154" s="3" t="n">
         <v>46022</v>
       </c>
       <c r="F154" t="inlineStr">
@@ -35272,10 +34704,10 @@
           <t>2526203260-60</t>
         </is>
       </c>
-      <c r="D155" s="2" t="n">
+      <c r="D155" s="3" t="n">
         <v>45947</v>
       </c>
-      <c r="E155" s="2" t="n">
+      <c r="E155" s="3" t="n">
         <v>46001</v>
       </c>
       <c r="F155" t="inlineStr">
@@ -35305,10 +34737,10 @@
           <t>2526203261-70</t>
         </is>
       </c>
-      <c r="D156" s="2" t="n">
+      <c r="D156" s="3" t="n">
         <v>45947</v>
       </c>
-      <c r="E156" s="2" t="n">
+      <c r="E156" s="3" t="n">
         <v>46001</v>
       </c>
       <c r="F156" t="inlineStr">
@@ -35338,10 +34770,10 @@
           <t>2526203262-80</t>
         </is>
       </c>
-      <c r="D157" s="2" t="n">
+      <c r="D157" s="3" t="n">
         <v>45947</v>
       </c>
-      <c r="E157" s="2" t="n">
+      <c r="E157" s="3" t="n">
         <v>46001</v>
       </c>
       <c r="F157" t="inlineStr">
@@ -35371,10 +34803,10 @@
           <t>2526203269-10</t>
         </is>
       </c>
-      <c r="D158" s="2" t="n">
+      <c r="D158" s="3" t="n">
         <v>45953</v>
       </c>
-      <c r="E158" s="2" t="n">
+      <c r="E158" s="3" t="n">
         <v>45979</v>
       </c>
       <c r="F158" t="inlineStr">
@@ -35404,10 +34836,10 @@
           <t>2526203270-10</t>
         </is>
       </c>
-      <c r="D159" s="2" t="n">
+      <c r="D159" s="3" t="n">
         <v>45953</v>
       </c>
-      <c r="E159" s="2" t="n">
+      <c r="E159" s="3" t="n">
         <v>45986</v>
       </c>
       <c r="F159" t="inlineStr">
@@ -35437,10 +34869,10 @@
           <t>2526203270-30</t>
         </is>
       </c>
-      <c r="D160" s="2" t="n">
+      <c r="D160" s="3" t="n">
         <v>45953</v>
       </c>
-      <c r="E160" s="2" t="n">
+      <c r="E160" s="3" t="n">
         <v>45986</v>
       </c>
       <c r="F160" t="inlineStr">
@@ -35470,10 +34902,10 @@
           <t>2526203271-10</t>
         </is>
       </c>
-      <c r="D161" s="2" t="n">
+      <c r="D161" s="3" t="n">
         <v>45953</v>
       </c>
-      <c r="E161" s="2" t="n">
+      <c r="E161" s="3" t="n">
         <v>45991</v>
       </c>
       <c r="F161" t="inlineStr">
@@ -35503,10 +34935,10 @@
           <t>2526203271-20</t>
         </is>
       </c>
-      <c r="D162" s="2" t="n">
+      <c r="D162" s="3" t="n">
         <v>45953</v>
       </c>
-      <c r="E162" s="2" t="n">
+      <c r="E162" s="3" t="n">
         <v>45991</v>
       </c>
       <c r="F162" t="inlineStr">
@@ -35536,10 +34968,10 @@
           <t>2526203274-10</t>
         </is>
       </c>
-      <c r="D163" s="2" t="n">
+      <c r="D163" s="3" t="n">
         <v>45953</v>
       </c>
-      <c r="E163" s="2" t="n">
+      <c r="E163" s="3" t="n">
         <v>46006</v>
       </c>
       <c r="F163" t="inlineStr">
@@ -35569,10 +35001,10 @@
           <t>2526203276-10</t>
         </is>
       </c>
-      <c r="D164" s="2" t="n">
+      <c r="D164" s="3" t="n">
         <v>45953</v>
       </c>
-      <c r="E164" s="2" t="n">
+      <c r="E164" s="3" t="n">
         <v>46012</v>
       </c>
       <c r="F164" t="inlineStr">
@@ -35602,10 +35034,10 @@
           <t>2526203276-30</t>
         </is>
       </c>
-      <c r="D165" s="2" t="n">
+      <c r="D165" s="3" t="n">
         <v>45953</v>
       </c>
-      <c r="E165" s="2" t="n">
+      <c r="E165" s="3" t="n">
         <v>46012</v>
       </c>
       <c r="F165" t="inlineStr">
@@ -35635,10 +35067,10 @@
           <t>2526203277-10</t>
         </is>
       </c>
-      <c r="D166" s="2" t="n">
+      <c r="D166" s="3" t="n">
         <v>45953</v>
       </c>
-      <c r="E166" s="2" t="n">
+      <c r="E166" s="3" t="n">
         <v>46017</v>
       </c>
       <c r="F166" t="inlineStr">
@@ -35668,10 +35100,10 @@
           <t>2526203279-40</t>
         </is>
       </c>
-      <c r="D167" s="2" t="n">
+      <c r="D167" s="3" t="n">
         <v>45953</v>
       </c>
-      <c r="E167" s="2" t="n">
+      <c r="E167" s="3" t="n">
         <v>45987</v>
       </c>
       <c r="F167" t="inlineStr">
@@ -35701,10 +35133,10 @@
           <t>2526203280-10</t>
         </is>
       </c>
-      <c r="D168" s="2" t="n">
+      <c r="D168" s="3" t="n">
         <v>45953</v>
       </c>
-      <c r="E168" s="2" t="n">
+      <c r="E168" s="3" t="n">
         <v>46022</v>
       </c>
       <c r="F168" t="inlineStr">
@@ -35734,10 +35166,10 @@
           <t>2526203284-60</t>
         </is>
       </c>
-      <c r="D169" s="2" t="n">
+      <c r="D169" s="3" t="n">
         <v>45953</v>
       </c>
-      <c r="E169" s="2" t="n">
+      <c r="E169" s="3" t="n">
         <v>45987</v>
       </c>
       <c r="F169" t="inlineStr">
@@ -35767,10 +35199,10 @@
           <t>2526203285-60</t>
         </is>
       </c>
-      <c r="D170" s="2" t="n">
+      <c r="D170" s="3" t="n">
         <v>45953</v>
       </c>
-      <c r="E170" s="2" t="n">
+      <c r="E170" s="3" t="n">
         <v>45987</v>
       </c>
       <c r="F170" t="inlineStr">
@@ -35800,10 +35232,10 @@
           <t>2526203286-60</t>
         </is>
       </c>
-      <c r="D171" s="2" t="n">
+      <c r="D171" s="3" t="n">
         <v>45953</v>
       </c>
-      <c r="E171" s="2" t="n">
+      <c r="E171" s="3" t="n">
         <v>45987</v>
       </c>
       <c r="F171" t="inlineStr">
@@ -35833,10 +35265,10 @@
           <t>2526203287-70</t>
         </is>
       </c>
-      <c r="D172" s="2" t="n">
+      <c r="D172" s="3" t="n">
         <v>45953</v>
       </c>
-      <c r="E172" s="2" t="n">
+      <c r="E172" s="3" t="n">
         <v>45993</v>
       </c>
       <c r="F172" t="inlineStr">
@@ -35866,10 +35298,10 @@
           <t>2526203310-10</t>
         </is>
       </c>
-      <c r="D173" s="2" t="n">
+      <c r="D173" s="3" t="n">
         <v>45955</v>
       </c>
-      <c r="E173" s="2" t="n">
+      <c r="E173" s="3" t="n">
         <v>46005</v>
       </c>
       <c r="F173" t="inlineStr">
@@ -35899,10 +35331,10 @@
           <t>2526203310-20</t>
         </is>
       </c>
-      <c r="D174" s="2" t="n">
+      <c r="D174" s="3" t="n">
         <v>45955</v>
       </c>
-      <c r="E174" s="2" t="n">
+      <c r="E174" s="3" t="n">
         <v>46005</v>
       </c>
       <c r="F174" t="inlineStr">
@@ -35932,10 +35364,10 @@
           <t>2526203310-30</t>
         </is>
       </c>
-      <c r="D175" s="2" t="n">
+      <c r="D175" s="3" t="n">
         <v>45955</v>
       </c>
-      <c r="E175" s="2" t="n">
+      <c r="E175" s="3" t="n">
         <v>46005</v>
       </c>
       <c r="F175" t="inlineStr">
@@ -35965,10 +35397,10 @@
           <t>2526203310-40</t>
         </is>
       </c>
-      <c r="D176" s="2" t="n">
+      <c r="D176" s="3" t="n">
         <v>45955</v>
       </c>
-      <c r="E176" s="2" t="n">
+      <c r="E176" s="3" t="n">
         <v>46005</v>
       </c>
       <c r="F176" t="inlineStr">
@@ -35998,10 +35430,10 @@
           <t>2526203311-30</t>
         </is>
       </c>
-      <c r="D177" s="2" t="n">
+      <c r="D177" s="3" t="n">
         <v>45955</v>
       </c>
-      <c r="E177" s="2" t="n">
+      <c r="E177" s="3" t="n">
         <v>46005</v>
       </c>
       <c r="F177" t="inlineStr">
@@ -36031,10 +35463,10 @@
           <t>2526203312-20</t>
         </is>
       </c>
-      <c r="D178" s="2" t="n">
+      <c r="D178" s="3" t="n">
         <v>45955</v>
       </c>
-      <c r="E178" s="2" t="n">
+      <c r="E178" s="3" t="n">
         <v>46005</v>
       </c>
       <c r="F178" t="inlineStr">
@@ -36064,10 +35496,10 @@
           <t>2526203312-30</t>
         </is>
       </c>
-      <c r="D179" s="2" t="n">
+      <c r="D179" s="3" t="n">
         <v>45955</v>
       </c>
-      <c r="E179" s="2" t="n">
+      <c r="E179" s="3" t="n">
         <v>46005</v>
       </c>
       <c r="F179" t="inlineStr">
@@ -36097,10 +35529,10 @@
           <t>2526203312-40</t>
         </is>
       </c>
-      <c r="D180" s="2" t="n">
+      <c r="D180" s="3" t="n">
         <v>45955</v>
       </c>
-      <c r="E180" s="2" t="n">
+      <c r="E180" s="3" t="n">
         <v>46005</v>
       </c>
       <c r="F180" t="inlineStr">
@@ -36130,10 +35562,10 @@
           <t>2526203331-10</t>
         </is>
       </c>
-      <c r="D181" s="2" t="n">
+      <c r="D181" s="3" t="n">
         <v>45958</v>
       </c>
-      <c r="E181" s="2" t="n">
+      <c r="E181" s="3" t="n">
         <v>46012</v>
       </c>
       <c r="F181" t="inlineStr">
@@ -36163,10 +35595,10 @@
           <t>2526203331-20</t>
         </is>
       </c>
-      <c r="D182" s="2" t="n">
+      <c r="D182" s="3" t="n">
         <v>45958</v>
       </c>
-      <c r="E182" s="2" t="n">
+      <c r="E182" s="3" t="n">
         <v>46012</v>
       </c>
       <c r="F182" t="inlineStr">
@@ -36196,10 +35628,10 @@
           <t>2526203331-30</t>
         </is>
       </c>
-      <c r="D183" s="2" t="n">
+      <c r="D183" s="3" t="n">
         <v>45958</v>
       </c>
-      <c r="E183" s="2" t="n">
+      <c r="E183" s="3" t="n">
         <v>46012</v>
       </c>
       <c r="F183" t="inlineStr">
@@ -36229,10 +35661,10 @@
           <t>2526203331-40</t>
         </is>
       </c>
-      <c r="D184" s="2" t="n">
+      <c r="D184" s="3" t="n">
         <v>45958</v>
       </c>
-      <c r="E184" s="2" t="n">
+      <c r="E184" s="3" t="n">
         <v>46012</v>
       </c>
       <c r="F184" t="inlineStr">
@@ -36262,10 +35694,10 @@
           <t>2526203332-10</t>
         </is>
       </c>
-      <c r="D185" s="2" t="n">
+      <c r="D185" s="3" t="n">
         <v>45959</v>
       </c>
-      <c r="E185" s="2" t="n">
+      <c r="E185" s="3" t="n">
         <v>45990</v>
       </c>
       <c r="F185" t="inlineStr">
@@ -36295,10 +35727,10 @@
           <t>2526203332-20</t>
         </is>
       </c>
-      <c r="D186" s="2" t="n">
+      <c r="D186" s="3" t="n">
         <v>45959</v>
       </c>
-      <c r="E186" s="2" t="n">
+      <c r="E186" s="3" t="n">
         <v>45990</v>
       </c>
       <c r="F186" t="inlineStr">
@@ -36328,10 +35760,10 @@
           <t>2526203370-20</t>
         </is>
       </c>
-      <c r="D187" s="2" t="n">
+      <c r="D187" s="3" t="n">
         <v>45960</v>
       </c>
-      <c r="E187" s="2" t="n">
+      <c r="E187" s="3" t="n">
         <v>46008</v>
       </c>
       <c r="F187" t="inlineStr">
@@ -36361,10 +35793,10 @@
           <t>2526203373-50</t>
         </is>
       </c>
-      <c r="D188" s="2" t="n">
+      <c r="D188" s="3" t="n">
         <v>45960</v>
       </c>
-      <c r="E188" s="2" t="n">
+      <c r="E188" s="3" t="n">
         <v>46008</v>
       </c>
       <c r="F188" t="inlineStr">
@@ -36394,10 +35826,10 @@
           <t>2526203374-60</t>
         </is>
       </c>
-      <c r="D189" s="2" t="n">
+      <c r="D189" s="3" t="n">
         <v>45960</v>
       </c>
-      <c r="E189" s="2" t="n">
+      <c r="E189" s="3" t="n">
         <v>46008</v>
       </c>
       <c r="F189" t="inlineStr">
@@ -36427,10 +35859,10 @@
           <t>2526203375-70</t>
         </is>
       </c>
-      <c r="D190" s="2" t="n">
+      <c r="D190" s="3" t="n">
         <v>45960</v>
       </c>
-      <c r="E190" s="2" t="n">
+      <c r="E190" s="3" t="n">
         <v>46008</v>
       </c>
       <c r="F190" t="inlineStr">
@@ -36460,10 +35892,10 @@
           <t>2526203376-70</t>
         </is>
       </c>
-      <c r="D191" s="2" t="n">
+      <c r="D191" s="3" t="n">
         <v>45960</v>
       </c>
-      <c r="E191" s="2" t="n">
+      <c r="E191" s="3" t="n">
         <v>46008</v>
       </c>
       <c r="F191" t="inlineStr">
@@ -36493,10 +35925,10 @@
           <t>2526203377-70</t>
         </is>
       </c>
-      <c r="D192" s="2" t="n">
+      <c r="D192" s="3" t="n">
         <v>45960</v>
       </c>
-      <c r="E192" s="2" t="n">
+      <c r="E192" s="3" t="n">
         <v>46008</v>
       </c>
       <c r="F192" t="inlineStr">
@@ -36526,10 +35958,10 @@
           <t>2526203378-70</t>
         </is>
       </c>
-      <c r="D193" s="2" t="n">
+      <c r="D193" s="3" t="n">
         <v>45960</v>
       </c>
-      <c r="E193" s="2" t="n">
+      <c r="E193" s="3" t="n">
         <v>46008</v>
       </c>
       <c r="F193" t="inlineStr">
@@ -36559,10 +35991,10 @@
           <t>2526203379-70</t>
         </is>
       </c>
-      <c r="D194" s="2" t="n">
+      <c r="D194" s="3" t="n">
         <v>45960</v>
       </c>
-      <c r="E194" s="2" t="n">
+      <c r="E194" s="3" t="n">
         <v>46008</v>
       </c>
       <c r="F194" t="inlineStr">
@@ -36592,10 +36024,10 @@
           <t>2526203380-70</t>
         </is>
       </c>
-      <c r="D195" s="2" t="n">
+      <c r="D195" s="3" t="n">
         <v>45960</v>
       </c>
-      <c r="E195" s="2" t="n">
+      <c r="E195" s="3" t="n">
         <v>46008</v>
       </c>
       <c r="F195" t="inlineStr">
@@ -36625,10 +36057,10 @@
           <t>2526203381-70</t>
         </is>
       </c>
-      <c r="D196" s="2" t="n">
+      <c r="D196" s="3" t="n">
         <v>45960</v>
       </c>
-      <c r="E196" s="2" t="n">
+      <c r="E196" s="3" t="n">
         <v>46008</v>
       </c>
       <c r="F196" t="inlineStr">
@@ -36658,10 +36090,10 @@
           <t>2526203382-70</t>
         </is>
       </c>
-      <c r="D197" s="2" t="n">
+      <c r="D197" s="3" t="n">
         <v>45960</v>
       </c>
-      <c r="E197" s="2" t="n">
+      <c r="E197" s="3" t="n">
         <v>46008</v>
       </c>
       <c r="F197" t="inlineStr">
@@ -36691,10 +36123,10 @@
           <t>2526203383-70</t>
         </is>
       </c>
-      <c r="D198" s="2" t="n">
+      <c r="D198" s="3" t="n">
         <v>45960</v>
       </c>
-      <c r="E198" s="2" t="n">
+      <c r="E198" s="3" t="n">
         <v>46008</v>
       </c>
       <c r="F198" t="inlineStr">
@@ -36724,10 +36156,10 @@
           <t>2526203384-70</t>
         </is>
       </c>
-      <c r="D199" s="2" t="n">
+      <c r="D199" s="3" t="n">
         <v>45960</v>
       </c>
-      <c r="E199" s="2" t="n">
+      <c r="E199" s="3" t="n">
         <v>46008</v>
       </c>
       <c r="F199" t="inlineStr">
@@ -36757,10 +36189,10 @@
           <t>2526203385-70</t>
         </is>
       </c>
-      <c r="D200" s="2" t="n">
+      <c r="D200" s="3" t="n">
         <v>45960</v>
       </c>
-      <c r="E200" s="2" t="n">
+      <c r="E200" s="3" t="n">
         <v>46008</v>
       </c>
       <c r="F200" t="inlineStr">
@@ -36790,10 +36222,10 @@
           <t>2526203386-80</t>
         </is>
       </c>
-      <c r="D201" s="2" t="n">
+      <c r="D201" s="3" t="n">
         <v>45960</v>
       </c>
-      <c r="E201" s="2" t="n">
+      <c r="E201" s="3" t="n">
         <v>45999</v>
       </c>
       <c r="F201" t="inlineStr">
@@ -36823,10 +36255,10 @@
           <t>2526203387-80</t>
         </is>
       </c>
-      <c r="D202" s="2" t="n">
+      <c r="D202" s="3" t="n">
         <v>45960</v>
       </c>
-      <c r="E202" s="2" t="n">
+      <c r="E202" s="3" t="n">
         <v>45999</v>
       </c>
       <c r="F202" t="inlineStr">
@@ -36856,10 +36288,10 @@
           <t>2526203388-90</t>
         </is>
       </c>
-      <c r="D203" s="2" t="n">
+      <c r="D203" s="3" t="n">
         <v>45960</v>
       </c>
-      <c r="E203" s="2" t="n">
+      <c r="E203" s="3" t="n">
         <v>45994</v>
       </c>
       <c r="F203" t="inlineStr">
@@ -36889,10 +36321,10 @@
           <t>2526203389-100</t>
         </is>
       </c>
-      <c r="D204" s="2" t="n">
+      <c r="D204" s="3" t="n">
         <v>45960</v>
       </c>
-      <c r="E204" s="2" t="n">
+      <c r="E204" s="3" t="n">
         <v>46008</v>
       </c>
       <c r="F204" t="inlineStr">
@@ -36922,10 +36354,10 @@
           <t>2526203390-110</t>
         </is>
       </c>
-      <c r="D205" s="2" t="n">
+      <c r="D205" s="3" t="n">
         <v>45960</v>
       </c>
-      <c r="E205" s="2" t="n">
+      <c r="E205" s="3" t="n">
         <v>46022</v>
       </c>
       <c r="F205" t="inlineStr">
@@ -36955,10 +36387,10 @@
           <t>2526203394-150</t>
         </is>
       </c>
-      <c r="D206" s="2" t="n">
+      <c r="D206" s="3" t="n">
         <v>45960</v>
       </c>
-      <c r="E206" s="2" t="n">
+      <c r="E206" s="3" t="n">
         <v>46008</v>
       </c>
       <c r="F206" t="inlineStr">
@@ -36988,10 +36420,10 @@
           <t>2526203396-10</t>
         </is>
       </c>
-      <c r="D207" s="2" t="n">
+      <c r="D207" s="3" t="n">
         <v>45960</v>
       </c>
-      <c r="E207" s="2" t="n">
+      <c r="E207" s="3" t="n">
         <v>45999</v>
       </c>
       <c r="F207" t="inlineStr">
@@ -37021,10 +36453,10 @@
           <t>2526203397-10</t>
         </is>
       </c>
-      <c r="D208" s="2" t="n">
+      <c r="D208" s="3" t="n">
         <v>45960</v>
       </c>
-      <c r="E208" s="2" t="n">
+      <c r="E208" s="3" t="n">
         <v>45999</v>
       </c>
       <c r="F208" t="inlineStr">
@@ -37054,10 +36486,10 @@
           <t>2526203398-10</t>
         </is>
       </c>
-      <c r="D209" s="2" t="n">
+      <c r="D209" s="3" t="n">
         <v>45960</v>
       </c>
-      <c r="E209" s="2" t="n">
+      <c r="E209" s="3" t="n">
         <v>46007</v>
       </c>
       <c r="F209" t="inlineStr">
@@ -37087,10 +36519,10 @@
           <t>2526203427-10</t>
         </is>
       </c>
-      <c r="D210" s="2" t="n">
+      <c r="D210" s="3" t="n">
         <v>45965</v>
       </c>
-      <c r="E210" s="2" t="n">
+      <c r="E210" s="3" t="n">
         <v>46019</v>
       </c>
       <c r="F210" t="inlineStr">
@@ -37120,10 +36552,10 @@
           <t>2526203427-20</t>
         </is>
       </c>
-      <c r="D211" s="2" t="n">
+      <c r="D211" s="3" t="n">
         <v>45965</v>
       </c>
-      <c r="E211" s="2" t="n">
+      <c r="E211" s="3" t="n">
         <v>46019</v>
       </c>
       <c r="F211" t="inlineStr">
@@ -37153,10 +36585,10 @@
           <t>2526203427-30</t>
         </is>
       </c>
-      <c r="D212" s="2" t="n">
+      <c r="D212" s="3" t="n">
         <v>45965</v>
       </c>
-      <c r="E212" s="2" t="n">
+      <c r="E212" s="3" t="n">
         <v>46019</v>
       </c>
       <c r="F212" t="inlineStr">
@@ -37186,10 +36618,10 @@
           <t>2526203427-40</t>
         </is>
       </c>
-      <c r="D213" s="2" t="n">
+      <c r="D213" s="3" t="n">
         <v>45965</v>
       </c>
-      <c r="E213" s="2" t="n">
+      <c r="E213" s="3" t="n">
         <v>46019</v>
       </c>
       <c r="F213" t="inlineStr">
@@ -37219,10 +36651,10 @@
           <t>2526203434-10</t>
         </is>
       </c>
-      <c r="D214" s="2" t="n">
+      <c r="D214" s="3" t="n">
         <v>45966</v>
       </c>
-      <c r="E214" s="2" t="n">
+      <c r="E214" s="3" t="n">
         <v>45966</v>
       </c>
       <c r="F214" t="inlineStr">
@@ -37252,10 +36684,10 @@
           <t>2526203454-40</t>
         </is>
       </c>
-      <c r="D215" s="2" t="n">
+      <c r="D215" s="3" t="n">
         <v>45969</v>
       </c>
-      <c r="E215" s="2" t="n">
+      <c r="E215" s="3" t="n">
         <v>46001</v>
       </c>
       <c r="F215" t="inlineStr">
@@ -37285,10 +36717,10 @@
           <t>2526203454-50</t>
         </is>
       </c>
-      <c r="D216" s="2" t="n">
+      <c r="D216" s="3" t="n">
         <v>45969</v>
       </c>
-      <c r="E216" s="2" t="n">
+      <c r="E216" s="3" t="n">
         <v>46001</v>
       </c>
       <c r="F216" t="inlineStr">
@@ -37318,10 +36750,10 @@
           <t>2526203454-60</t>
         </is>
       </c>
-      <c r="D217" s="2" t="n">
+      <c r="D217" s="3" t="n">
         <v>45969</v>
       </c>
-      <c r="E217" s="2" t="n">
+      <c r="E217" s="3" t="n">
         <v>46001</v>
       </c>
       <c r="F217" t="inlineStr">
@@ -37351,10 +36783,10 @@
           <t>2526203454-100</t>
         </is>
       </c>
-      <c r="D218" s="2" t="n">
+      <c r="D218" s="3" t="n">
         <v>45969</v>
       </c>
-      <c r="E218" s="2" t="n">
+      <c r="E218" s="3" t="n">
         <v>46001</v>
       </c>
       <c r="F218" t="inlineStr">
@@ -37384,10 +36816,10 @@
           <t>2526203455-10</t>
         </is>
       </c>
-      <c r="D219" s="2" t="n">
+      <c r="D219" s="3" t="n">
         <v>45969</v>
       </c>
-      <c r="E219" s="2" t="n">
+      <c r="E219" s="3" t="n">
         <v>46006</v>
       </c>
       <c r="F219" t="inlineStr">
@@ -37417,10 +36849,10 @@
           <t>2526203455-20</t>
         </is>
       </c>
-      <c r="D220" s="2" t="n">
+      <c r="D220" s="3" t="n">
         <v>45969</v>
       </c>
-      <c r="E220" s="2" t="n">
+      <c r="E220" s="3" t="n">
         <v>46006</v>
       </c>
       <c r="F220" t="inlineStr">
@@ -37450,10 +36882,10 @@
           <t>2526203455-30</t>
         </is>
       </c>
-      <c r="D221" s="2" t="n">
+      <c r="D221" s="3" t="n">
         <v>45969</v>
       </c>
-      <c r="E221" s="2" t="n">
+      <c r="E221" s="3" t="n">
         <v>46006</v>
       </c>
       <c r="F221" t="inlineStr">
@@ -37483,10 +36915,10 @@
           <t>2526203455-40</t>
         </is>
       </c>
-      <c r="D222" s="2" t="n">
+      <c r="D222" s="3" t="n">
         <v>45969</v>
       </c>
-      <c r="E222" s="2" t="n">
+      <c r="E222" s="3" t="n">
         <v>46006</v>
       </c>
       <c r="F222" t="inlineStr">
@@ -37516,10 +36948,10 @@
           <t>2526203456-30</t>
         </is>
       </c>
-      <c r="D223" s="2" t="n">
+      <c r="D223" s="3" t="n">
         <v>45969</v>
       </c>
-      <c r="E223" s="2" t="n">
+      <c r="E223" s="3" t="n">
         <v>46001</v>
       </c>
       <c r="F223" t="inlineStr">
@@ -37549,10 +36981,10 @@
           <t>2526203456-50</t>
         </is>
       </c>
-      <c r="D224" s="2" t="n">
+      <c r="D224" s="3" t="n">
         <v>45969</v>
       </c>
-      <c r="E224" s="2" t="n">
+      <c r="E224" s="3" t="n">
         <v>46001</v>
       </c>
       <c r="F224" t="inlineStr">
@@ -37582,10 +37014,10 @@
           <t>2526203457-30</t>
         </is>
       </c>
-      <c r="D225" s="2" t="n">
+      <c r="D225" s="3" t="n">
         <v>45969</v>
       </c>
-      <c r="E225" s="2" t="n">
+      <c r="E225" s="3" t="n">
         <v>46006</v>
       </c>
       <c r="F225" t="inlineStr">
@@ -37615,10 +37047,10 @@
           <t>2526203458-30</t>
         </is>
       </c>
-      <c r="D226" s="2" t="n">
+      <c r="D226" s="3" t="n">
         <v>45969</v>
       </c>
-      <c r="E226" s="2" t="n">
+      <c r="E226" s="3" t="n">
         <v>46011</v>
       </c>
       <c r="F226" t="inlineStr">
@@ -37648,10 +37080,10 @@
           <t>2526203459-10</t>
         </is>
       </c>
-      <c r="D227" s="2" t="n">
+      <c r="D227" s="3" t="n">
         <v>45969</v>
       </c>
-      <c r="E227" s="2" t="n">
+      <c r="E227" s="3" t="n">
         <v>46001</v>
       </c>
       <c r="F227" t="inlineStr">
@@ -37681,10 +37113,10 @@
           <t>2526203459-40</t>
         </is>
       </c>
-      <c r="D228" s="2" t="n">
+      <c r="D228" s="3" t="n">
         <v>45969</v>
       </c>
-      <c r="E228" s="2" t="n">
+      <c r="E228" s="3" t="n">
         <v>46001</v>
       </c>
       <c r="F228" t="inlineStr">
@@ -37714,10 +37146,10 @@
           <t>2526203459-50</t>
         </is>
       </c>
-      <c r="D229" s="2" t="n">
+      <c r="D229" s="3" t="n">
         <v>45969</v>
       </c>
-      <c r="E229" s="2" t="n">
+      <c r="E229" s="3" t="n">
         <v>46001</v>
       </c>
       <c r="F229" t="inlineStr">
@@ -37747,10 +37179,10 @@
           <t>2526203459-60</t>
         </is>
       </c>
-      <c r="D230" s="2" t="n">
+      <c r="D230" s="3" t="n">
         <v>45969</v>
       </c>
-      <c r="E230" s="2" t="n">
+      <c r="E230" s="3" t="n">
         <v>46001</v>
       </c>
       <c r="F230" t="inlineStr">
@@ -37780,10 +37212,10 @@
           <t>2526203460-10</t>
         </is>
       </c>
-      <c r="D231" s="2" t="n">
+      <c r="D231" s="3" t="n">
         <v>45969</v>
       </c>
-      <c r="E231" s="2" t="n">
+      <c r="E231" s="3" t="n">
         <v>46006</v>
       </c>
       <c r="F231" t="inlineStr">
@@ -37813,10 +37245,10 @@
           <t>2526203461-10</t>
         </is>
       </c>
-      <c r="D232" s="2" t="n">
+      <c r="D232" s="3" t="n">
         <v>45969</v>
       </c>
-      <c r="E232" s="2" t="n">
+      <c r="E232" s="3" t="n">
         <v>46011</v>
       </c>
       <c r="F232" t="inlineStr">
@@ -37846,10 +37278,10 @@
           <t>2526203461-20</t>
         </is>
       </c>
-      <c r="D233" s="2" t="n">
+      <c r="D233" s="3" t="n">
         <v>45969</v>
       </c>
-      <c r="E233" s="2" t="n">
+      <c r="E233" s="3" t="n">
         <v>46011</v>
       </c>
       <c r="F233" t="inlineStr">
@@ -37879,10 +37311,10 @@
           <t>2526203462-20</t>
         </is>
       </c>
-      <c r="D234" s="2" t="n">
+      <c r="D234" s="3" t="n">
         <v>45969</v>
       </c>
-      <c r="E234" s="2" t="n">
+      <c r="E234" s="3" t="n">
         <v>46011</v>
       </c>
       <c r="F234" t="inlineStr">
@@ -37912,10 +37344,10 @@
           <t>2526203462-30</t>
         </is>
       </c>
-      <c r="D235" s="2" t="n">
+      <c r="D235" s="3" t="n">
         <v>45969</v>
       </c>
-      <c r="E235" s="2" t="n">
+      <c r="E235" s="3" t="n">
         <v>46011</v>
       </c>
       <c r="F235" t="inlineStr">
@@ -37945,10 +37377,10 @@
           <t>2526203463-10</t>
         </is>
       </c>
-      <c r="D236" s="2" t="n">
+      <c r="D236" s="3" t="n">
         <v>45969</v>
       </c>
-      <c r="E236" s="2" t="n">
+      <c r="E236" s="3" t="n">
         <v>45990</v>
       </c>
       <c r="F236" t="inlineStr">
@@ -37978,10 +37410,10 @@
           <t>2526203463-20</t>
         </is>
       </c>
-      <c r="D237" s="2" t="n">
+      <c r="D237" s="3" t="n">
         <v>45969</v>
       </c>
-      <c r="E237" s="2" t="n">
+      <c r="E237" s="3" t="n">
         <v>45990</v>
       </c>
       <c r="F237" t="inlineStr">
@@ -38011,10 +37443,10 @@
           <t>2526203463-30</t>
         </is>
       </c>
-      <c r="D238" s="2" t="n">
+      <c r="D238" s="3" t="n">
         <v>45969</v>
       </c>
-      <c r="E238" s="2" t="n">
+      <c r="E238" s="3" t="n">
         <v>45990</v>
       </c>
       <c r="F238" t="inlineStr">
@@ -38044,10 +37476,10 @@
           <t>2526203463-40</t>
         </is>
       </c>
-      <c r="D239" s="2" t="n">
+      <c r="D239" s="3" t="n">
         <v>45969</v>
       </c>
-      <c r="E239" s="2" t="n">
+      <c r="E239" s="3" t="n">
         <v>45990</v>
       </c>
       <c r="F239" t="inlineStr">
@@ -38077,10 +37509,10 @@
           <t>2526203463-50</t>
         </is>
       </c>
-      <c r="D240" s="2" t="n">
+      <c r="D240" s="3" t="n">
         <v>45969</v>
       </c>
-      <c r="E240" s="2" t="n">
+      <c r="E240" s="3" t="n">
         <v>45990</v>
       </c>
       <c r="F240" t="inlineStr">
@@ -38110,10 +37542,10 @@
           <t>2526203464-10</t>
         </is>
       </c>
-      <c r="D241" s="2" t="n">
+      <c r="D241" s="3" t="n">
         <v>45969</v>
       </c>
-      <c r="E241" s="2" t="n">
+      <c r="E241" s="3" t="n">
         <v>45998</v>
       </c>
       <c r="F241" t="inlineStr">
@@ -38143,10 +37575,10 @@
           <t>2526203464-20</t>
         </is>
       </c>
-      <c r="D242" s="2" t="n">
+      <c r="D242" s="3" t="n">
         <v>45969</v>
       </c>
-      <c r="E242" s="2" t="n">
+      <c r="E242" s="3" t="n">
         <v>45998</v>
       </c>
       <c r="F242" t="inlineStr">
@@ -38176,10 +37608,10 @@
           <t>2526203464-30</t>
         </is>
       </c>
-      <c r="D243" s="2" t="n">
+      <c r="D243" s="3" t="n">
         <v>45969</v>
       </c>
-      <c r="E243" s="2" t="n">
+      <c r="E243" s="3" t="n">
         <v>45998</v>
       </c>
       <c r="F243" t="inlineStr">
@@ -38209,10 +37641,10 @@
           <t>2526203464-40</t>
         </is>
       </c>
-      <c r="D244" s="2" t="n">
+      <c r="D244" s="3" t="n">
         <v>45969</v>
       </c>
-      <c r="E244" s="2" t="n">
+      <c r="E244" s="3" t="n">
         <v>45998</v>
       </c>
       <c r="F244" t="inlineStr">
@@ -38242,10 +37674,10 @@
           <t>2526203464-50</t>
         </is>
       </c>
-      <c r="D245" s="2" t="n">
+      <c r="D245" s="3" t="n">
         <v>45969</v>
       </c>
-      <c r="E245" s="2" t="n">
+      <c r="E245" s="3" t="n">
         <v>45998</v>
       </c>
       <c r="F245" t="inlineStr">
@@ -38275,10 +37707,10 @@
           <t>2526203465-10</t>
         </is>
       </c>
-      <c r="D246" s="2" t="n">
+      <c r="D246" s="3" t="n">
         <v>45969</v>
       </c>
-      <c r="E246" s="2" t="n">
+      <c r="E246" s="3" t="n">
         <v>46004</v>
       </c>
       <c r="F246" t="inlineStr">
@@ -38308,10 +37740,10 @@
           <t>2526203482-10</t>
         </is>
       </c>
-      <c r="D247" s="2" t="n">
+      <c r="D247" s="3" t="n">
         <v>45972</v>
       </c>
-      <c r="E247" s="2" t="n">
+      <c r="E247" s="3" t="n">
         <v>46026</v>
       </c>
       <c r="F247" t="inlineStr">
@@ -38341,10 +37773,10 @@
           <t>2526203482-20</t>
         </is>
       </c>
-      <c r="D248" s="2" t="n">
+      <c r="D248" s="3" t="n">
         <v>45972</v>
       </c>
-      <c r="E248" s="2" t="n">
+      <c r="E248" s="3" t="n">
         <v>46026</v>
       </c>
       <c r="F248" t="inlineStr">
@@ -38374,10 +37806,10 @@
           <t>2526203482-30</t>
         </is>
       </c>
-      <c r="D249" s="2" t="n">
+      <c r="D249" s="3" t="n">
         <v>45972</v>
       </c>
-      <c r="E249" s="2" t="n">
+      <c r="E249" s="3" t="n">
         <v>46026</v>
       </c>
       <c r="F249" t="inlineStr">
@@ -38407,10 +37839,10 @@
           <t>2526203482-40</t>
         </is>
       </c>
-      <c r="D250" s="2" t="n">
+      <c r="D250" s="3" t="n">
         <v>45972</v>
       </c>
-      <c r="E250" s="2" t="n">
+      <c r="E250" s="3" t="n">
         <v>46026</v>
       </c>
       <c r="F250" t="inlineStr">
@@ -38440,10 +37872,10 @@
           <t>2526203484-10</t>
         </is>
       </c>
-      <c r="D251" s="2" t="n">
+      <c r="D251" s="3" t="n">
         <v>45972</v>
       </c>
-      <c r="E251" s="2" t="n">
+      <c r="E251" s="3" t="n">
         <v>46026</v>
       </c>
       <c r="F251" t="inlineStr">
@@ -38473,10 +37905,10 @@
           <t>2526203547-10</t>
         </is>
       </c>
-      <c r="D252" s="2" t="n">
+      <c r="D252" s="3" t="n">
         <v>45981</v>
       </c>
-      <c r="E252" s="2" t="n">
+      <c r="E252" s="3" t="n">
         <v>46033</v>
       </c>
       <c r="F252" t="inlineStr">
@@ -38506,10 +37938,10 @@
           <t>2526203547-20</t>
         </is>
       </c>
-      <c r="D253" s="2" t="n">
+      <c r="D253" s="3" t="n">
         <v>45981</v>
       </c>
-      <c r="E253" s="2" t="n">
+      <c r="E253" s="3" t="n">
         <v>46033</v>
       </c>
       <c r="F253" t="inlineStr">
@@ -38539,10 +37971,10 @@
           <t>2526203547-30</t>
         </is>
       </c>
-      <c r="D254" s="2" t="n">
+      <c r="D254" s="3" t="n">
         <v>45981</v>
       </c>
-      <c r="E254" s="2" t="n">
+      <c r="E254" s="3" t="n">
         <v>46033</v>
       </c>
       <c r="F254" t="inlineStr">
@@ -38572,10 +38004,10 @@
           <t>2526203547-40</t>
         </is>
       </c>
-      <c r="D255" s="2" t="n">
+      <c r="D255" s="3" t="n">
         <v>45981</v>
       </c>
-      <c r="E255" s="2" t="n">
+      <c r="E255" s="3" t="n">
         <v>46033</v>
       </c>
       <c r="F255" t="inlineStr">
@@ -38605,10 +38037,10 @@
           <t>2526203549-40</t>
         </is>
       </c>
-      <c r="D256" s="2" t="n">
+      <c r="D256" s="3" t="n">
         <v>45982</v>
       </c>
-      <c r="E256" s="2" t="n">
+      <c r="E256" s="3" t="n">
         <v>46025</v>
       </c>
       <c r="F256" t="inlineStr">
@@ -38638,10 +38070,10 @@
           <t>2526203550-50</t>
         </is>
       </c>
-      <c r="D257" s="2" t="n">
+      <c r="D257" s="3" t="n">
         <v>45982</v>
       </c>
-      <c r="E257" s="2" t="n">
+      <c r="E257" s="3" t="n">
         <v>46032</v>
       </c>
       <c r="F257" t="inlineStr">
@@ -38671,10 +38103,10 @@
           <t>2526203551-60</t>
         </is>
       </c>
-      <c r="D258" s="2" t="n">
+      <c r="D258" s="3" t="n">
         <v>45982</v>
       </c>
-      <c r="E258" s="2" t="n">
+      <c r="E258" s="3" t="n">
         <v>46035</v>
       </c>
       <c r="F258" t="inlineStr">
@@ -38704,10 +38136,10 @@
           <t>2526203552-70</t>
         </is>
       </c>
-      <c r="D259" s="2" t="n">
+      <c r="D259" s="3" t="n">
         <v>45982</v>
       </c>
-      <c r="E259" s="2" t="n">
+      <c r="E259" s="3" t="n">
         <v>46042</v>
       </c>
       <c r="F259" t="inlineStr">
@@ -38737,10 +38169,10 @@
           <t>2526203553-80</t>
         </is>
       </c>
-      <c r="D260" s="2" t="n">
+      <c r="D260" s="3" t="n">
         <v>45982</v>
       </c>
-      <c r="E260" s="2" t="n">
+      <c r="E260" s="3" t="n">
         <v>46049</v>
       </c>
       <c r="F260" t="inlineStr">
@@ -38770,10 +38202,10 @@
           <t>2526203554-10</t>
         </is>
       </c>
-      <c r="D261" s="2" t="n">
+      <c r="D261" s="3" t="n">
         <v>45982</v>
       </c>
-      <c r="E261" s="2" t="n">
+      <c r="E261" s="3" t="n">
         <v>46029</v>
       </c>
       <c r="F261" t="inlineStr">
@@ -38803,10 +38235,10 @@
           <t>2526203554-20</t>
         </is>
       </c>
-      <c r="D262" s="2" t="n">
+      <c r="D262" s="3" t="n">
         <v>45982</v>
       </c>
-      <c r="E262" s="2" t="n">
+      <c r="E262" s="3" t="n">
         <v>46029</v>
       </c>
       <c r="F262" t="inlineStr">
@@ -38836,10 +38268,10 @@
           <t>2526203555-10</t>
         </is>
       </c>
-      <c r="D263" s="2" t="n">
+      <c r="D263" s="3" t="n">
         <v>45982</v>
       </c>
-      <c r="E263" s="2" t="n">
+      <c r="E263" s="3" t="n">
         <v>46038</v>
       </c>
       <c r="F263" t="inlineStr">
@@ -38869,10 +38301,10 @@
           <t>2526203555-20</t>
         </is>
       </c>
-      <c r="D264" s="2" t="n">
+      <c r="D264" s="3" t="n">
         <v>45982</v>
       </c>
-      <c r="E264" s="2" t="n">
+      <c r="E264" s="3" t="n">
         <v>46038</v>
       </c>
       <c r="F264" t="inlineStr">
@@ -38902,10 +38334,10 @@
           <t>2526203556-10</t>
         </is>
       </c>
-      <c r="D265" s="2" t="n">
+      <c r="D265" s="3" t="n">
         <v>45982</v>
       </c>
-      <c r="E265" s="2" t="n">
+      <c r="E265" s="3" t="n">
         <v>46045</v>
       </c>
       <c r="F265" t="inlineStr">
@@ -38935,10 +38367,10 @@
           <t>2526203556-20</t>
         </is>
       </c>
-      <c r="D266" s="2" t="n">
+      <c r="D266" s="3" t="n">
         <v>45982</v>
       </c>
-      <c r="E266" s="2" t="n">
+      <c r="E266" s="3" t="n">
         <v>46045</v>
       </c>
       <c r="F266" t="inlineStr">
@@ -38968,10 +38400,10 @@
           <t>2526203556-30</t>
         </is>
       </c>
-      <c r="D267" s="2" t="n">
+      <c r="D267" s="3" t="n">
         <v>45982</v>
       </c>
-      <c r="E267" s="2" t="n">
+      <c r="E267" s="3" t="n">
         <v>46045</v>
       </c>
       <c r="F267" t="inlineStr">
@@ -39001,10 +38433,10 @@
           <t>2526500083-10</t>
         </is>
       </c>
-      <c r="D268" s="2" t="n">
+      <c r="D268" s="3" t="n">
         <v>45893</v>
       </c>
-      <c r="E268" s="2" t="n">
+      <c r="E268" s="3" t="n">
         <v>45946</v>
       </c>
       <c r="F268" t="inlineStr">
@@ -39034,10 +38466,10 @@
           <t>2526500086-10</t>
         </is>
       </c>
-      <c r="D269" s="2" t="n">
+      <c r="D269" s="3" t="n">
         <v>45893</v>
       </c>
-      <c r="E269" s="2" t="n">
+      <c r="E269" s="3" t="n">
         <v>45945</v>
       </c>
       <c r="F269" t="inlineStr">
@@ -39067,10 +38499,10 @@
           <t>2526500087-20</t>
         </is>
       </c>
-      <c r="D270" s="2" t="n">
+      <c r="D270" s="3" t="n">
         <v>45893</v>
       </c>
-      <c r="E270" s="2" t="n">
+      <c r="E270" s="3" t="n">
         <v>45952</v>
       </c>
       <c r="F270" t="inlineStr">
@@ -39100,10 +38532,10 @@
           <t>2526500091-40</t>
         </is>
       </c>
-      <c r="D271" s="2" t="n">
+      <c r="D271" s="3" t="n">
         <v>45893</v>
       </c>
-      <c r="E271" s="2" t="n">
+      <c r="E271" s="3" t="n">
         <v>45964</v>
       </c>
       <c r="F271" t="inlineStr">
@@ -39133,10 +38565,10 @@
           <t>2526500092-20</t>
         </is>
       </c>
-      <c r="D272" s="2" t="n">
+      <c r="D272" s="3" t="n">
         <v>45903</v>
       </c>
-      <c r="E272" s="2" t="n">
+      <c r="E272" s="3" t="n">
         <v>45971</v>
       </c>
       <c r="F272" t="inlineStr">
@@ -39166,10 +38598,10 @@
           <t>2526500093-10</t>
         </is>
       </c>
-      <c r="D273" s="2" t="n">
+      <c r="D273" s="3" t="n">
         <v>45903</v>
       </c>
-      <c r="E273" s="2" t="n">
+      <c r="E273" s="3" t="n">
         <v>45983</v>
       </c>
       <c r="F273" t="inlineStr">
@@ -39199,10 +38631,10 @@
           <t>2526500094-10</t>
         </is>
       </c>
-      <c r="D274" s="2" t="n">
+      <c r="D274" s="3" t="n">
         <v>45903</v>
       </c>
-      <c r="E274" s="2" t="n">
+      <c r="E274" s="3" t="n">
         <v>45971</v>
       </c>
       <c r="F274" t="inlineStr">
@@ -39232,10 +38664,10 @@
           <t>2526500095-10</t>
         </is>
       </c>
-      <c r="D275" s="2" t="n">
+      <c r="D275" s="3" t="n">
         <v>45903</v>
       </c>
-      <c r="E275" s="2" t="n">
+      <c r="E275" s="3" t="n">
         <v>45978</v>
       </c>
       <c r="F275" t="inlineStr">
@@ -39265,10 +38697,10 @@
           <t>2526500096-10</t>
         </is>
       </c>
-      <c r="D276" s="2" t="n">
+      <c r="D276" s="3" t="n">
         <v>45903</v>
       </c>
-      <c r="E276" s="2" t="n">
+      <c r="E276" s="3" t="n">
         <v>45985</v>
       </c>
       <c r="F276" t="inlineStr">
@@ -39298,10 +38730,10 @@
           <t>2526500097-10</t>
         </is>
       </c>
-      <c r="D277" s="2" t="n">
+      <c r="D277" s="3" t="n">
         <v>45903</v>
       </c>
-      <c r="E277" s="2" t="n">
+      <c r="E277" s="3" t="n">
         <v>45985</v>
       </c>
       <c r="F277" t="inlineStr">
@@ -39331,10 +38763,10 @@
           <t>2526500098-10</t>
         </is>
       </c>
-      <c r="D278" s="2" t="n">
+      <c r="D278" s="3" t="n">
         <v>45903</v>
       </c>
-      <c r="E278" s="2" t="n">
+      <c r="E278" s="3" t="n">
         <v>45992</v>
       </c>
       <c r="F278" t="inlineStr">
@@ -39364,10 +38796,10 @@
           <t>2526500099-10</t>
         </is>
       </c>
-      <c r="D279" s="2" t="n">
+      <c r="D279" s="3" t="n">
         <v>45903</v>
       </c>
-      <c r="E279" s="2" t="n">
+      <c r="E279" s="3" t="n">
         <v>45999</v>
       </c>
       <c r="F279" t="inlineStr">
@@ -39397,10 +38829,10 @@
           <t>2526500104-10</t>
         </is>
       </c>
-      <c r="D280" s="2" t="n">
+      <c r="D280" s="3" t="n">
         <v>45937</v>
       </c>
-      <c r="E280" s="2" t="n">
+      <c r="E280" s="3" t="n">
         <v>45981</v>
       </c>
       <c r="F280" t="inlineStr">
@@ -39430,10 +38862,10 @@
           <t>2526500105-10</t>
         </is>
       </c>
-      <c r="D281" s="2" t="n">
+      <c r="D281" s="3" t="n">
         <v>45937</v>
       </c>
-      <c r="E281" s="2" t="n">
+      <c r="E281" s="3" t="n">
         <v>45981</v>
       </c>
       <c r="F281" t="inlineStr">
@@ -39463,10 +38895,10 @@
           <t>2526500106-10</t>
         </is>
       </c>
-      <c r="D282" s="2" t="n">
+      <c r="D282" s="3" t="n">
         <v>45940</v>
       </c>
-      <c r="E282" s="2" t="n">
+      <c r="E282" s="3" t="n">
         <v>45992</v>
       </c>
       <c r="F282" t="inlineStr">
@@ -39496,10 +38928,10 @@
           <t>2526500107-10</t>
         </is>
       </c>
-      <c r="D283" s="2" t="n">
+      <c r="D283" s="3" t="n">
         <v>45940</v>
       </c>
-      <c r="E283" s="2" t="n">
+      <c r="E283" s="3" t="n">
         <v>45955</v>
       </c>
       <c r="F283" t="inlineStr">
@@ -39529,10 +38961,10 @@
           <t>2526500109-10</t>
         </is>
       </c>
-      <c r="D284" s="2" t="n">
+      <c r="D284" s="3" t="n">
         <v>45945</v>
       </c>
-      <c r="E284" s="2" t="n">
+      <c r="E284" s="3" t="n">
         <v>45983</v>
       </c>
       <c r="F284" t="inlineStr">
@@ -39562,10 +38994,10 @@
           <t>2526500110-10</t>
         </is>
       </c>
-      <c r="D285" s="2" t="n">
+      <c r="D285" s="3" t="n">
         <v>45945</v>
       </c>
-      <c r="E285" s="2" t="n">
+      <c r="E285" s="3" t="n">
         <v>46003</v>
       </c>
       <c r="F285" t="inlineStr">
@@ -39595,10 +39027,10 @@
           <t>2526500111-20</t>
         </is>
       </c>
-      <c r="D286" s="2" t="n">
+      <c r="D286" s="3" t="n">
         <v>45945</v>
       </c>
-      <c r="E286" s="2" t="n">
+      <c r="E286" s="3" t="n">
         <v>46007</v>
       </c>
       <c r="F286" t="inlineStr">
@@ -39628,10 +39060,10 @@
           <t>2526500112-20</t>
         </is>
       </c>
-      <c r="D287" s="2" t="n">
+      <c r="D287" s="3" t="n">
         <v>45945</v>
       </c>
-      <c r="E287" s="2" t="n">
+      <c r="E287" s="3" t="n">
         <v>46009</v>
       </c>
       <c r="F287" t="inlineStr">
@@ -39661,10 +39093,10 @@
           <t>2526500113-20</t>
         </is>
       </c>
-      <c r="D288" s="2" t="n">
+      <c r="D288" s="3" t="n">
         <v>45945</v>
       </c>
-      <c r="E288" s="2" t="n">
+      <c r="E288" s="3" t="n">
         <v>46015</v>
       </c>
       <c r="F288" t="inlineStr">
@@ -39694,10 +39126,10 @@
           <t>2526500114-10</t>
         </is>
       </c>
-      <c r="D289" s="2" t="n">
+      <c r="D289" s="3" t="n">
         <v>45945</v>
       </c>
-      <c r="E289" s="2" t="n">
+      <c r="E289" s="3" t="n">
         <v>45986</v>
       </c>
       <c r="F289" t="inlineStr">
@@ -39727,10 +39159,10 @@
           <t>2526500115-20</t>
         </is>
       </c>
-      <c r="D290" s="2" t="n">
+      <c r="D290" s="3" t="n">
         <v>45945</v>
       </c>
-      <c r="E290" s="2" t="n">
+      <c r="E290" s="3" t="n">
         <v>45988</v>
       </c>
       <c r="F290" t="inlineStr">
@@ -39760,10 +39192,10 @@
           <t>2526500116-30</t>
         </is>
       </c>
-      <c r="D291" s="2" t="n">
+      <c r="D291" s="3" t="n">
         <v>45945</v>
       </c>
-      <c r="E291" s="2" t="n">
+      <c r="E291" s="3" t="n">
         <v>45988</v>
       </c>
       <c r="F291" t="inlineStr">
@@ -39793,10 +39225,10 @@
           <t>2526500117-10</t>
         </is>
       </c>
-      <c r="D292" s="2" t="n">
+      <c r="D292" s="3" t="n">
         <v>45945</v>
       </c>
-      <c r="E292" s="2" t="n">
+      <c r="E292" s="3" t="n">
         <v>46017</v>
       </c>
       <c r="F292" t="inlineStr">
@@ -39826,10 +39258,10 @@
           <t>2526500118-20</t>
         </is>
       </c>
-      <c r="D293" s="2" t="n">
+      <c r="D293" s="3" t="n">
         <v>45945</v>
       </c>
-      <c r="E293" s="2" t="n">
+      <c r="E293" s="3" t="n">
         <v>46017</v>
       </c>
       <c r="F293" t="inlineStr">
@@ -39859,10 +39291,10 @@
           <t>2526500119-30</t>
         </is>
       </c>
-      <c r="D294" s="2" t="n">
+      <c r="D294" s="3" t="n">
         <v>45945</v>
       </c>
-      <c r="E294" s="2" t="n">
+      <c r="E294" s="3" t="n">
         <v>46017</v>
       </c>
       <c r="F294" t="inlineStr">
@@ -39892,10 +39324,10 @@
           <t>2526500120-10</t>
         </is>
       </c>
-      <c r="D295" s="2" t="n">
+      <c r="D295" s="3" t="n">
         <v>45945</v>
       </c>
-      <c r="E295" s="2" t="n">
+      <c r="E295" s="3" t="n">
         <v>45991</v>
       </c>
       <c r="F295" t="inlineStr">
@@ -39925,10 +39357,10 @@
           <t>2526500121-10</t>
         </is>
       </c>
-      <c r="D296" s="2" t="n">
+      <c r="D296" s="3" t="n">
         <v>45945</v>
       </c>
-      <c r="E296" s="2" t="n">
+      <c r="E296" s="3" t="n">
         <v>46017</v>
       </c>
       <c r="F296" t="inlineStr">
@@ -39958,10 +39390,10 @@
           <t>2526500122-20</t>
         </is>
       </c>
-      <c r="D297" s="2" t="n">
+      <c r="D297" s="3" t="n">
         <v>45945</v>
       </c>
-      <c r="E297" s="2" t="n">
+      <c r="E297" s="3" t="n">
         <v>45994</v>
       </c>
       <c r="F297" t="inlineStr">
@@ -39991,10 +39423,10 @@
           <t>2526500123-20</t>
         </is>
       </c>
-      <c r="D298" s="2" t="n">
+      <c r="D298" s="3" t="n">
         <v>45945</v>
       </c>
-      <c r="E298" s="2" t="n">
+      <c r="E298" s="3" t="n">
         <v>46017</v>
       </c>
       <c r="F298" t="inlineStr">
@@ -40024,10 +39456,10 @@
           <t>2526500124-10</t>
         </is>
       </c>
-      <c r="D299" s="2" t="n">
+      <c r="D299" s="3" t="n">
         <v>45955</v>
       </c>
-      <c r="E299" s="2" t="n">
+      <c r="E299" s="3" t="n">
         <v>45987</v>
       </c>
       <c r="F299" t="inlineStr">
@@ -40057,10 +39489,10 @@
           <t>2526500125-20</t>
         </is>
       </c>
-      <c r="D300" s="2" t="n">
+      <c r="D300" s="3" t="n">
         <v>45955</v>
       </c>
-      <c r="E300" s="2" t="n">
+      <c r="E300" s="3" t="n">
         <v>45990</v>
       </c>
       <c r="F300" t="inlineStr">
@@ -40090,10 +39522,10 @@
           <t>2526500126-10</t>
         </is>
       </c>
-      <c r="D301" s="2" t="n">
+      <c r="D301" s="3" t="n">
         <v>45955</v>
       </c>
-      <c r="E301" s="2" t="n">
+      <c r="E301" s="3" t="n">
         <v>45991</v>
       </c>
       <c r="F301" t="inlineStr">
@@ -40123,10 +39555,10 @@
           <t>2526500127-10</t>
         </is>
       </c>
-      <c r="D302" s="2" t="n">
+      <c r="D302" s="3" t="n">
         <v>45955</v>
       </c>
-      <c r="E302" s="2" t="n">
+      <c r="E302" s="3" t="n">
         <v>45994</v>
       </c>
       <c r="F302" t="inlineStr">
@@ -40156,10 +39588,10 @@
           <t>2526500130-30</t>
         </is>
       </c>
-      <c r="D303" s="2" t="n">
+      <c r="D303" s="3" t="n">
         <v>45958</v>
       </c>
-      <c r="E303" s="2" t="n">
+      <c r="E303" s="3" t="n">
         <v>45994</v>
       </c>
       <c r="F303" t="inlineStr">
@@ -40189,10 +39621,10 @@
           <t>2526500131-30</t>
         </is>
       </c>
-      <c r="D304" s="2" t="n">
+      <c r="D304" s="3" t="n">
         <v>45958</v>
       </c>
-      <c r="E304" s="2" t="n">
+      <c r="E304" s="3" t="n">
         <v>46001</v>
       </c>
       <c r="F304" t="inlineStr">
@@ -40216,1027 +39648,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:N19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Code</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Plant Code</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Operation Code</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operation Name</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Production Unit</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Priority</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Resource Code</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Resource Name</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>No Of Resource</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Available Hours per Day</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Capacity/Hrs in Kg</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Set Up Time</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Lead Time</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>No of Shift</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>KVC01</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>3</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Vacuum All</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>KVCVCALML001</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Cupola Furnece</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
-        <v>3</v>
-      </c>
-      <c r="J2" t="n">
-        <v>15</v>
-      </c>
-      <c r="K2" t="n">
-        <v>12000</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1440</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>KVC02</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>3</v>
-      </c>
-      <c r="C3" t="n">
-        <v>80</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Core</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Vacuum All</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>KVCALHDCR001</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Hand Vacuum Core</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>10</v>
-      </c>
-      <c r="J3" t="n">
-        <v>10</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>120</v>
-      </c>
-      <c r="N3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>KVC03</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="n">
-        <v>10</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Casting</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>CI-3H</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>KVCVC3HCS001</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Small Vacuum</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>12</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>2880</v>
-      </c>
-      <c r="N4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>KVC04</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>10</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Casting</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>CI-3BH</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>KVCV3BHCS001</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Big Vacuum</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>12</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>2880</v>
-      </c>
-      <c r="N5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>KVC05</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>3</v>
-      </c>
-      <c r="C6" t="n">
-        <v>20</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Machining</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Vacuum All</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>KVCAD30MC001</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Drill Machine BD-30</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
-        <v>4</v>
-      </c>
-      <c r="J6" t="n">
-        <v>12</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>180</v>
-      </c>
-      <c r="N6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>KVC06</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>3</v>
-      </c>
-      <c r="C7" t="n">
-        <v>20</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Machining</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Vacuum All</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>KVCAD40MC001</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Drill Machine BD-40</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
-        <v>3</v>
-      </c>
-      <c r="J7" t="n">
-        <v>12</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>180</v>
-      </c>
-      <c r="N7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>KVC07</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>3</v>
-      </c>
-      <c r="C8" t="n">
-        <v>20</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Machining</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Vacuum All</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>KVCABM1MC001</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Boring Machine -01</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
-        <v>2</v>
-      </c>
-      <c r="J8" t="n">
-        <v>12</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>180</v>
-      </c>
-      <c r="N8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>KVC08</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" t="n">
-        <v>20</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Machining</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Vacuum All</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>KVCABM2MC001</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Boring Machine -02</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
-        <v>2</v>
-      </c>
-      <c r="J9" t="n">
-        <v>12</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>180</v>
-      </c>
-      <c r="N9" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>KVC09</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>3</v>
-      </c>
-      <c r="C10" t="n">
-        <v>20</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Machining</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Vacuum All</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>KVCACNCMC001</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>CNC Machine -01</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="n">
-        <v>12</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>180</v>
-      </c>
-      <c r="N10" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>KVC10</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>3</v>
-      </c>
-      <c r="C11" t="n">
-        <v>20</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Machining</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Vacuum All</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>KVCAD20MC001</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Drill Machine BD-20 KSRD</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>20</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>180</v>
-      </c>
-      <c r="N11" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>KVC11</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>3</v>
-      </c>
-      <c r="C12" t="n">
-        <v>20</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Machining</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Vacuum All</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>KVCAD10MC001</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Drill Machine BD-10 KPD</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" t="n">
-        <v>12</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>180</v>
-      </c>
-      <c r="N12" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>KVC12</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>3</v>
-      </c>
-      <c r="C13" t="n">
-        <v>30</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Grinding</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>CI-3H</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>KVCALHMGR001</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Hand Grinding</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
-        <v>35</v>
-      </c>
-      <c r="J13" t="n">
-        <v>8</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>180</v>
-      </c>
-      <c r="N13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>KVC16</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>3</v>
-      </c>
-      <c r="C14" t="n">
-        <v>20</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Machining</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Vacuum All</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>KVCALHTMC001</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Hand Tapping</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
-        <v>2</v>
-      </c>
-      <c r="J14" t="n">
-        <v>12</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>180</v>
-      </c>
-      <c r="N14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>KVC17</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>3</v>
-      </c>
-      <c r="C15" t="n">
-        <v>50</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Creating</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Vacuum All</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>KVCALHMFG001</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Hand Crating Vacuum</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
-        <v>10</v>
-      </c>
-      <c r="J15" t="n">
-        <v>8</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>KVC18</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>3</v>
-      </c>
-      <c r="C16" t="n">
-        <v>40</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Special Painting</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Vacuum All</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>KVCALPPSP001</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Paint Primer First coat Booth</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" t="n">
-        <v>20</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>360</v>
-      </c>
-      <c r="N16" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>KVC19</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>3</v>
-      </c>
-      <c r="C17" t="n">
-        <v>40</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Special Painting</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Vacuum All</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>KVCALPPSP002</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Paint Final Primer Coat Booth</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" t="n">
-        <v>20</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>KVC20</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>3</v>
-      </c>
-      <c r="C18" t="n">
-        <v>40</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Special Painting</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Vacuum All</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>KVCALFPSP001</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>Paint Top Coat Booth</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" t="n">
-        <v>20</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1440</v>
-      </c>
-      <c r="N18" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>KVC21</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>3</v>
-      </c>
-      <c r="C19" t="n">
-        <v>20</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Machining</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Vacuum All</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>KVCAD50MC001</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Drill Machine BD-50</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
-        <v>8</v>
-      </c>
-      <c r="J19" t="n">
-        <v>12</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>120</v>
-      </c>
-      <c r="N19" t="n">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -48549,6 +46960,1010 @@
       </c>
       <c r="I235" t="n">
         <v>500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Code</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Plant Code</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Operation Code</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Operation Name</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Production Unit</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Priority</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Resource Code</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Resource Name</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>No Of Resource</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Available Hours per Day</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Capacity/Hrs in Kg</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Set Up Time</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Lead Time</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>No of Shift</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>KVC01</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C2" t="n">
+        <v/>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Vacuum All</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>KVCVCALML001</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Cupola Furnace</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>3</v>
+      </c>
+      <c r="J2" t="n">
+        <v>15</v>
+      </c>
+      <c r="K2" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1440</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>KVC02</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" t="n">
+        <v>80</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Core</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Vacuum All</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>KVCALHDCR001</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Hand Vacuum Core</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>10</v>
+      </c>
+      <c r="J3" t="n">
+        <v>10</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>120</v>
+      </c>
+      <c r="N3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>KVC03</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Casting</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Vacuum All</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>KVCVC3HCS001</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Small Vacuum</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>16</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2880</v>
+      </c>
+      <c r="N4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>KVC04</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Casting</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Vacuum All</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>KVCV3BHCS001</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Big Vacuum</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>16</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2880</v>
+      </c>
+      <c r="N5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>KVC05</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" t="n">
+        <v>20</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Machining</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Vacuum All</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>KVCAD30MC001</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Drill Machine BD-30</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>4</v>
+      </c>
+      <c r="J6" t="n">
+        <v>12</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>180</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>KVC06</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>3</v>
+      </c>
+      <c r="C7" t="n">
+        <v>20</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Machining</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Vacuum All</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>KVCAD40MC001</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Drill Machine BD-40</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>3</v>
+      </c>
+      <c r="J7" t="n">
+        <v>12</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>180</v>
+      </c>
+      <c r="N7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>KVC07</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>3</v>
+      </c>
+      <c r="C8" t="n">
+        <v>20</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Machining</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Vacuum All</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>KVCABM1MC001</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Boring Machine -01</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>2</v>
+      </c>
+      <c r="J8" t="n">
+        <v>12</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>180</v>
+      </c>
+      <c r="N8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>KVC08</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" t="n">
+        <v>20</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Machining</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Vacuum All</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>KVCABM2MC001</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Boring Machine -02</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>2</v>
+      </c>
+      <c r="J9" t="n">
+        <v>12</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>180</v>
+      </c>
+      <c r="N9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>KVC09</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3</v>
+      </c>
+      <c r="C10" t="n">
+        <v>20</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Machining</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Vacuum All</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>KVCACNCMC001</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>CNC Machine -01</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>12</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>180</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>KVC10</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C11" t="n">
+        <v>20</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Machining</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Vacuum All</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>KVCAD20MC001</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Drill Machine BD-20 KSRD</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>20</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>180</v>
+      </c>
+      <c r="N11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>KVC11</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>3</v>
+      </c>
+      <c r="C12" t="n">
+        <v>20</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Machining</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Vacuum All</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>KVCAD10MC001</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Drill Machine BD-10 KPD</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>12</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>180</v>
+      </c>
+      <c r="N12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>KVC12</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>3</v>
+      </c>
+      <c r="C13" t="n">
+        <v>30</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Grinding</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Vacuum All</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>KVCALHMGR001</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Hand Grinding</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>35</v>
+      </c>
+      <c r="J13" t="n">
+        <v>8</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>180</v>
+      </c>
+      <c r="N13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>KVC16</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" t="n">
+        <v>20</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Machining</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Vacuum All</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>KVCALHTMC001</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Hand Tapping</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>2</v>
+      </c>
+      <c r="J14" t="n">
+        <v>12</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>180</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>KVC17</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>3</v>
+      </c>
+      <c r="C15" t="n">
+        <v>50</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Creating</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Vacuum All</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>KVCALHMFG001</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Hand Crating Vacuum</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>10</v>
+      </c>
+      <c r="J15" t="n">
+        <v>8</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>KVC18</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>3</v>
+      </c>
+      <c r="C16" t="n">
+        <v>40</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Special Painting</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Vacuum All</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>KVCALPPSP001</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Paint Primer First coat Booth</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>20</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>360</v>
+      </c>
+      <c r="N16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>KVC19</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>3</v>
+      </c>
+      <c r="C17" t="n">
+        <v>40</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Special Painting</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Vacuum All</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>KVCALPPSP002</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Paint Final Primer Coat Booth</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>20</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>KVC20</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>3</v>
+      </c>
+      <c r="C18" t="n">
+        <v>40</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Special Painting</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Vacuum All</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>KVCALFPSP001</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Paint Top Coat Booth</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>20</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1440</v>
+      </c>
+      <c r="N18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>KVC21</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>3</v>
+      </c>
+      <c r="C19" t="n">
+        <v>20</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Machining</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Vacuum All</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>KVCAD50MC001</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Drill Machine BD-50</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>8</v>
+      </c>
+      <c r="J19" t="n">
+        <v>12</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>120</v>
+      </c>
+      <c r="N19" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -48571,32 +47986,32 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>Box_Size</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>Resource_Code</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>Daily_Capacity</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>Working_Days_Per_Week</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>Weekly_Capacity</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>Unit</t>
         </is>
@@ -48672,7 +48087,7 @@
         <v>6</v>
       </c>
       <c r="E4" t="n">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>

--- a/Master_Data_Updated_Nov_Dec2.xlsx
+++ b/Master_Data_Updated_Nov_Dec2.xlsx
@@ -442,212 +442,212 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>CS Code</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>FG Code</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>Item Code</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>Casting Cycle time (min)</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>Casting Batch Qty</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>Machining resource code 1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>Machining resource code 2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>Machining resource code 3</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>Machining Cycle time 1 (min)</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>Machining Cycle time 2 (min)</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>Machining Cycle time 3 (min)</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>Machining batch Qty 1</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>Machining batch Qty 2</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>Machining batch Qty 3</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>Grinding Resource code</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>Grinding Cycle time (min)</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>Grinding batch Qty</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>Painting Resource code 1</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>Painting Resource code 2</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>Painting Resource code 3</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>Painting Cycle time 1 (min)</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>Painting Cycle time 2 (min)</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>Painting Cycle time 3 (min)</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>Painting Dry time 1 (hrs)</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>Painting Dry time 2 (hrs)</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>Painting Dry time 3 (hrs)</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>Painting batch Qty 1</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AB1" t="inlineStr">
         <is>
           <t>Painting batch Qty 2</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AC1" t="inlineStr">
         <is>
           <t>Painting batch Qty 3</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AD1" t="inlineStr">
         <is>
           <t>Core resource code</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AE1" t="inlineStr">
         <is>
           <t>Core Cycle time (min)</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AF1" t="inlineStr">
         <is>
           <t>Core Batch Qty</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AG1" t="inlineStr">
         <is>
           <t>Moulding Line</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AH1" t="inlineStr">
         <is>
           <t>Box Size</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AI1" t="inlineStr">
         <is>
           <t>Shakeout Time (hrs)</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AJ1" t="inlineStr">
         <is>
           <t>Cooling Time (hrs)</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AK1" t="inlineStr">
         <is>
           <t>Vacuum Time (hrs)</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AL1" t="inlineStr">
         <is>
           <t>Standard unit wt.</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AM1" t="inlineStr">
         <is>
           <t>Bunch Wt.</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AN1" t="inlineStr">
         <is>
           <t>Box Quantity</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AO1" t="inlineStr">
         <is>
           <t>Special Coat</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AP1" t="inlineStr">
         <is>
           <t>Top Coat</t>
         </is>
@@ -685,6 +685,9 @@
           <t>KVCAD30MC001</t>
         </is>
       </c>
+      <c r="H2" t="n">
+        <v/>
+      </c>
       <c r="I2" t="n">
         <v>240</v>
       </c>
@@ -729,6 +732,15 @@
           <t>KVCALFPSP001</t>
         </is>
       </c>
+      <c r="U2" t="n">
+        <v/>
+      </c>
+      <c r="V2" t="n">
+        <v/>
+      </c>
+      <c r="W2" t="n">
+        <v/>
+      </c>
       <c r="X2" t="n">
         <v>2</v>
       </c>
@@ -820,6 +832,12 @@
           <t>KVCAD30MC001</t>
         </is>
       </c>
+      <c r="G3" t="n">
+        <v/>
+      </c>
+      <c r="H3" t="n">
+        <v/>
+      </c>
       <c r="I3" t="n">
         <v>240</v>
       </c>
@@ -928,7 +946,7 @@
         <v>6805.8</v>
       </c>
       <c r="AN3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO3" t="n">
         <v>0</v>
@@ -1082,7 +1100,7 @@
         <v>1709.28</v>
       </c>
       <c r="AN4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO4" t="n">
         <v>0</v>
@@ -1123,6 +1141,9 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
+      <c r="H5" t="n">
+        <v/>
+      </c>
       <c r="I5" t="n">
         <v>60</v>
       </c>
@@ -1231,7 +1252,7 @@
         <v>2052.072</v>
       </c>
       <c r="AN5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO5" t="n">
         <v>0</v>
@@ -1272,6 +1293,9 @@
           <t>KVCAD30MC001</t>
         </is>
       </c>
+      <c r="H6" t="n">
+        <v/>
+      </c>
       <c r="I6" t="n">
         <v>240</v>
       </c>
@@ -1316,6 +1340,15 @@
           <t>KVCALFPSP001</t>
         </is>
       </c>
+      <c r="U6" t="n">
+        <v/>
+      </c>
+      <c r="V6" t="n">
+        <v/>
+      </c>
+      <c r="W6" t="n">
+        <v/>
+      </c>
       <c r="X6" t="n">
         <v>2</v>
       </c>
@@ -1412,6 +1445,9 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
+      <c r="H7" t="n">
+        <v/>
+      </c>
       <c r="I7" t="n">
         <v>40</v>
       </c>
@@ -1561,6 +1597,9 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
+      <c r="H8" t="n">
+        <v/>
+      </c>
       <c r="I8" t="n">
         <v>40</v>
       </c>
@@ -1710,6 +1749,9 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
+      <c r="H9" t="n">
+        <v/>
+      </c>
       <c r="I9" t="n">
         <v>40</v>
       </c>
@@ -1854,6 +1896,12 @@
           <t>MC1CKT-001</t>
         </is>
       </c>
+      <c r="G10" t="n">
+        <v/>
+      </c>
+      <c r="H10" t="n">
+        <v/>
+      </c>
       <c r="I10" t="n">
         <v>10</v>
       </c>
@@ -1888,6 +1936,21 @@
           <t>SP1CKT-001</t>
         </is>
       </c>
+      <c r="S10" t="n">
+        <v/>
+      </c>
+      <c r="T10" t="n">
+        <v/>
+      </c>
+      <c r="U10" t="n">
+        <v/>
+      </c>
+      <c r="V10" t="n">
+        <v/>
+      </c>
+      <c r="W10" t="n">
+        <v/>
+      </c>
       <c r="X10" t="n">
         <v>2</v>
       </c>
@@ -2095,7 +2158,7 @@
         <v>950.4</v>
       </c>
       <c r="AN11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO11" t="n">
         <v>0</v>
@@ -2249,7 +2312,7 @@
         <v>4219.2</v>
       </c>
       <c r="AN12" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AO12" t="n">
         <v>0</v>
@@ -2334,6 +2397,18 @@
           <t>KVCALPPSP002</t>
         </is>
       </c>
+      <c r="T13" t="n">
+        <v/>
+      </c>
+      <c r="U13" t="n">
+        <v/>
+      </c>
+      <c r="V13" t="n">
+        <v/>
+      </c>
+      <c r="W13" t="n">
+        <v/>
+      </c>
       <c r="X13" t="n">
         <v>2</v>
       </c>
@@ -2351,6 +2426,9 @@
       </c>
       <c r="AC13" t="n">
         <v>0</v>
+      </c>
+      <c r="AD13" t="n">
+        <v/>
       </c>
       <c r="AE13" t="n">
         <v>0</v>
@@ -2384,7 +2462,7 @@
         <v>5673.599999999999</v>
       </c>
       <c r="AN13" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AO13" t="n">
         <v>0</v>
@@ -2420,6 +2498,12 @@
           <t>MC1-DGC-004</t>
         </is>
       </c>
+      <c r="G14" t="n">
+        <v/>
+      </c>
+      <c r="H14" t="n">
+        <v/>
+      </c>
       <c r="I14" t="n">
         <v>90</v>
       </c>
@@ -2459,6 +2543,18 @@
           <t>KVCALPPSP002</t>
         </is>
       </c>
+      <c r="T14" t="n">
+        <v/>
+      </c>
+      <c r="U14" t="n">
+        <v/>
+      </c>
+      <c r="V14" t="n">
+        <v/>
+      </c>
+      <c r="W14" t="n">
+        <v/>
+      </c>
       <c r="X14" t="n">
         <v>2</v>
       </c>
@@ -2476,6 +2572,9 @@
       </c>
       <c r="AC14" t="n">
         <v>0</v>
+      </c>
+      <c r="AD14" t="n">
+        <v/>
       </c>
       <c r="AE14" t="n">
         <v>0</v>
@@ -2509,7 +2608,7 @@
         <v>4728</v>
       </c>
       <c r="AN14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AO14" t="n">
         <v>0</v>
@@ -2545,6 +2644,12 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
+      <c r="G15" t="n">
+        <v/>
+      </c>
+      <c r="H15" t="n">
+        <v/>
+      </c>
       <c r="I15" t="n">
         <v>130</v>
       </c>
@@ -2584,6 +2689,9 @@
           <t>KVCALPPSP002</t>
         </is>
       </c>
+      <c r="T15" t="n">
+        <v/>
+      </c>
       <c r="U15" t="n">
         <v>7</v>
       </c>
@@ -2648,7 +2756,7 @@
         <v>5899.2</v>
       </c>
       <c r="AN15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AO15" t="n">
         <v>0</v>
@@ -2802,7 +2910,7 @@
         <v>3554.4</v>
       </c>
       <c r="AN16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AO16" t="n">
         <v>0</v>
@@ -2836,6 +2944,12 @@
       <c r="F17" t="n">
         <v>0</v>
       </c>
+      <c r="G17" t="n">
+        <v/>
+      </c>
+      <c r="H17" t="n">
+        <v/>
+      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
@@ -2875,6 +2989,18 @@
           <t>KVCALPPSP002</t>
         </is>
       </c>
+      <c r="T17" t="n">
+        <v/>
+      </c>
+      <c r="U17" t="n">
+        <v/>
+      </c>
+      <c r="V17" t="n">
+        <v/>
+      </c>
+      <c r="W17" t="n">
+        <v/>
+      </c>
       <c r="X17" t="n">
         <v>2</v>
       </c>
@@ -2930,7 +3056,7 @@
         <v>960</v>
       </c>
       <c r="AN17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO17" t="n">
         <v>0</v>
@@ -3082,7 +3208,7 @@
         <v>2880</v>
       </c>
       <c r="AN18" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AO18" t="n">
         <v>0</v>
@@ -3118,6 +3244,12 @@
           <t>MC1-DGC-009</t>
         </is>
       </c>
+      <c r="G19" t="n">
+        <v/>
+      </c>
+      <c r="H19" t="n">
+        <v/>
+      </c>
       <c r="I19" t="n">
         <v>25</v>
       </c>
@@ -3157,6 +3289,18 @@
           <t>KVCALPPSP002</t>
         </is>
       </c>
+      <c r="T19" t="n">
+        <v/>
+      </c>
+      <c r="U19" t="n">
+        <v/>
+      </c>
+      <c r="V19" t="n">
+        <v/>
+      </c>
+      <c r="W19" t="n">
+        <v/>
+      </c>
       <c r="X19" t="n">
         <v>2</v>
       </c>
@@ -3174,6 +3318,9 @@
       </c>
       <c r="AC19" t="n">
         <v>0</v>
+      </c>
+      <c r="AD19" t="n">
+        <v/>
       </c>
       <c r="AE19" t="n">
         <v>0</v>
@@ -3207,7 +3354,7 @@
         <v>2400</v>
       </c>
       <c r="AN19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO19" t="n">
         <v>0</v>
@@ -3513,7 +3660,7 @@
         <v>1200</v>
       </c>
       <c r="AN21" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AO21" t="n">
         <v>0</v>
@@ -3667,7 +3814,7 @@
         <v>6120</v>
       </c>
       <c r="AN22" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AO22" t="n">
         <v>0</v>
@@ -3708,6 +3855,9 @@
           <t>KVCAD40MC001</t>
         </is>
       </c>
+      <c r="H23" t="n">
+        <v/>
+      </c>
       <c r="I23" t="n">
         <v>150</v>
       </c>
@@ -3752,6 +3902,15 @@
           <t>KVCALFPSP001</t>
         </is>
       </c>
+      <c r="U23" t="n">
+        <v/>
+      </c>
+      <c r="V23" t="n">
+        <v/>
+      </c>
+      <c r="W23" t="n">
+        <v/>
+      </c>
       <c r="X23" t="n">
         <v>2</v>
       </c>
@@ -3807,7 +3966,7 @@
         <v>1406.4</v>
       </c>
       <c r="AN23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO23" t="n">
         <v>0</v>
@@ -3848,6 +4007,9 @@
           <t>KVCAD40MC001</t>
         </is>
       </c>
+      <c r="H24" t="n">
+        <v/>
+      </c>
       <c r="I24" t="n">
         <v>50</v>
       </c>
@@ -3892,6 +4054,15 @@
           <t>KVCALFPSP001</t>
         </is>
       </c>
+      <c r="U24" t="n">
+        <v/>
+      </c>
+      <c r="V24" t="n">
+        <v/>
+      </c>
+      <c r="W24" t="n">
+        <v/>
+      </c>
       <c r="X24" t="n">
         <v>2</v>
       </c>
@@ -3909,6 +4080,9 @@
       </c>
       <c r="AC24" t="n">
         <v>1</v>
+      </c>
+      <c r="AD24" t="n">
+        <v/>
       </c>
       <c r="AE24" t="n">
         <v>0</v>
@@ -3942,7 +4116,7 @@
         <v>1891.2</v>
       </c>
       <c r="AN24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO24" t="n">
         <v>0</v>
@@ -3983,6 +4157,9 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
+      <c r="H25" t="n">
+        <v/>
+      </c>
       <c r="I25" t="n">
         <v>90</v>
       </c>
@@ -4027,6 +4204,15 @@
           <t>KVCALFPSP001</t>
         </is>
       </c>
+      <c r="U25" t="n">
+        <v/>
+      </c>
+      <c r="V25" t="n">
+        <v/>
+      </c>
+      <c r="W25" t="n">
+        <v/>
+      </c>
       <c r="X25" t="n">
         <v>2</v>
       </c>
@@ -4044,6 +4230,9 @@
       </c>
       <c r="AC25" t="n">
         <v>1</v>
+      </c>
+      <c r="AD25" t="n">
+        <v/>
       </c>
       <c r="AE25" t="n">
         <v>0</v>
@@ -4077,7 +4266,7 @@
         <v>2364</v>
       </c>
       <c r="AN25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO25" t="n">
         <v>0</v>
@@ -4118,6 +4307,9 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
+      <c r="H26" t="n">
+        <v/>
+      </c>
       <c r="I26" t="n">
         <v>150</v>
       </c>
@@ -4162,6 +4354,15 @@
           <t>KVCALFPSP001</t>
         </is>
       </c>
+      <c r="U26" t="n">
+        <v/>
+      </c>
+      <c r="V26" t="n">
+        <v/>
+      </c>
+      <c r="W26" t="n">
+        <v/>
+      </c>
       <c r="X26" t="n">
         <v>2</v>
       </c>
@@ -4217,7 +4418,7 @@
         <v>3528</v>
       </c>
       <c r="AN26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO26" t="n">
         <v>0</v>
@@ -4258,6 +4459,9 @@
           <t>BVCAD30MC001</t>
         </is>
       </c>
+      <c r="H27" t="n">
+        <v/>
+      </c>
       <c r="I27" t="n">
         <v>150</v>
       </c>
@@ -4302,6 +4506,15 @@
           <t>BVCALFPSP001</t>
         </is>
       </c>
+      <c r="U27" t="n">
+        <v/>
+      </c>
+      <c r="V27" t="n">
+        <v/>
+      </c>
+      <c r="W27" t="n">
+        <v/>
+      </c>
       <c r="X27" t="n">
         <v>2</v>
       </c>
@@ -4319,6 +4532,9 @@
       </c>
       <c r="AC27" t="n">
         <v>1</v>
+      </c>
+      <c r="AD27" t="n">
+        <v/>
       </c>
       <c r="AE27" t="n">
         <v>0</v>
@@ -4352,7 +4568,7 @@
         <v>7108.8</v>
       </c>
       <c r="AN27" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AO27" t="n">
         <v>0</v>
@@ -4393,6 +4609,9 @@
           <t>KVCAD30MC001</t>
         </is>
       </c>
+      <c r="H28" t="n">
+        <v/>
+      </c>
       <c r="I28" t="n">
         <v>50</v>
       </c>
@@ -4432,6 +4651,18 @@
           <t>KVCALPPSP002</t>
         </is>
       </c>
+      <c r="T28" t="n">
+        <v/>
+      </c>
+      <c r="U28" t="n">
+        <v/>
+      </c>
+      <c r="V28" t="n">
+        <v/>
+      </c>
+      <c r="W28" t="n">
+        <v/>
+      </c>
       <c r="X28" t="n">
         <v>2</v>
       </c>
@@ -4641,7 +4872,7 @@
         <v>4028.4</v>
       </c>
       <c r="AN29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AO29" t="n">
         <v>0</v>
@@ -4795,7 +5026,7 @@
         <v>3304.8</v>
       </c>
       <c r="AN30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AO30" t="n">
         <v>0</v>
@@ -4836,6 +5067,9 @@
           <t>BVCABM1MC001</t>
         </is>
       </c>
+      <c r="H31" t="n">
+        <v/>
+      </c>
       <c r="I31" t="n">
         <v>90</v>
       </c>
@@ -4880,6 +5114,15 @@
           <t>KVCALFPSP001</t>
         </is>
       </c>
+      <c r="U31" t="n">
+        <v/>
+      </c>
+      <c r="V31" t="n">
+        <v/>
+      </c>
+      <c r="W31" t="n">
+        <v/>
+      </c>
       <c r="X31" t="n">
         <v>2</v>
       </c>
@@ -4935,7 +5178,7 @@
         <v>3792.6</v>
       </c>
       <c r="AN31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AO31" t="n">
         <v>0</v>
@@ -5025,6 +5268,15 @@
           <t>KVCALFPSP001</t>
         </is>
       </c>
+      <c r="U32" t="n">
+        <v/>
+      </c>
+      <c r="V32" t="n">
+        <v/>
+      </c>
+      <c r="W32" t="n">
+        <v/>
+      </c>
       <c r="X32" t="n">
         <v>2</v>
       </c>
@@ -5080,7 +5332,7 @@
         <v>4465.8</v>
       </c>
       <c r="AN32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO32" t="n">
         <v>0</v>
@@ -5170,6 +5422,15 @@
           <t>KVCALFPSP001</t>
         </is>
       </c>
+      <c r="U33" t="n">
+        <v/>
+      </c>
+      <c r="V33" t="n">
+        <v/>
+      </c>
+      <c r="W33" t="n">
+        <v/>
+      </c>
       <c r="X33" t="n">
         <v>2</v>
       </c>
@@ -5225,7 +5486,7 @@
         <v>4776</v>
       </c>
       <c r="AN33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO33" t="n">
         <v>0</v>
@@ -5315,6 +5576,15 @@
           <t>KVCALFPSP001</t>
         </is>
       </c>
+      <c r="U34" t="n">
+        <v/>
+      </c>
+      <c r="V34" t="n">
+        <v/>
+      </c>
+      <c r="W34" t="n">
+        <v/>
+      </c>
       <c r="X34" t="n">
         <v>2</v>
       </c>
@@ -5370,7 +5640,7 @@
         <v>5330.4</v>
       </c>
       <c r="AN34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO34" t="n">
         <v>0</v>
@@ -5460,6 +5730,15 @@
           <t>KVCALFPSP001</t>
         </is>
       </c>
+      <c r="U35" t="n">
+        <v/>
+      </c>
+      <c r="V35" t="n">
+        <v/>
+      </c>
+      <c r="W35" t="n">
+        <v/>
+      </c>
       <c r="X35" t="n">
         <v>2</v>
       </c>
@@ -5515,7 +5794,7 @@
         <v>5544</v>
       </c>
       <c r="AN35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO35" t="n">
         <v>0</v>
@@ -5556,6 +5835,9 @@
           <t>KVCABM2MC001</t>
         </is>
       </c>
+      <c r="H36" t="n">
+        <v/>
+      </c>
       <c r="I36" t="n">
         <v>45</v>
       </c>
@@ -5600,6 +5882,15 @@
           <t>KVCALFPSP001</t>
         </is>
       </c>
+      <c r="U36" t="n">
+        <v/>
+      </c>
+      <c r="V36" t="n">
+        <v/>
+      </c>
+      <c r="W36" t="n">
+        <v/>
+      </c>
       <c r="X36" t="n">
         <v>2</v>
       </c>
@@ -5655,7 +5946,7 @@
         <v>2448</v>
       </c>
       <c r="AN36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO36" t="n">
         <v>0</v>
@@ -5696,6 +5987,9 @@
           <t>KVCAD40MC001</t>
         </is>
       </c>
+      <c r="H37" t="n">
+        <v/>
+      </c>
       <c r="I37" t="n">
         <v>45</v>
       </c>
@@ -5740,6 +6034,15 @@
           <t>KVCALFPSP001</t>
         </is>
       </c>
+      <c r="U37" t="n">
+        <v/>
+      </c>
+      <c r="V37" t="n">
+        <v/>
+      </c>
+      <c r="W37" t="n">
+        <v/>
+      </c>
       <c r="X37" t="n">
         <v>2</v>
       </c>
@@ -5795,7 +6098,7 @@
         <v>2956.8</v>
       </c>
       <c r="AN37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO37" t="n">
         <v>0</v>
@@ -5836,6 +6139,9 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
+      <c r="H38" t="n">
+        <v/>
+      </c>
       <c r="I38" t="n">
         <v>45</v>
       </c>
@@ -5880,6 +6186,15 @@
           <t>KVCALFPSP001</t>
         </is>
       </c>
+      <c r="U38" t="n">
+        <v/>
+      </c>
+      <c r="V38" t="n">
+        <v/>
+      </c>
+      <c r="W38" t="n">
+        <v/>
+      </c>
       <c r="X38" t="n">
         <v>2</v>
       </c>
@@ -5935,7 +6250,7 @@
         <v>3463.2</v>
       </c>
       <c r="AN38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO38" t="n">
         <v>0</v>
@@ -5976,6 +6291,9 @@
           <t>KVCAD40MC001</t>
         </is>
       </c>
+      <c r="H39" t="n">
+        <v/>
+      </c>
       <c r="I39" t="n">
         <v>90</v>
       </c>
@@ -6084,7 +6402,7 @@
         <v>1982.4</v>
       </c>
       <c r="AN39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO39" t="n">
         <v>0</v>
@@ -6238,7 +6556,7 @@
         <v>4264.8</v>
       </c>
       <c r="AN40" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AO40" t="n">
         <v>0</v>
@@ -6274,6 +6592,12 @@
           <t>BVCAD30MC001</t>
         </is>
       </c>
+      <c r="G41" t="n">
+        <v/>
+      </c>
+      <c r="H41" t="n">
+        <v/>
+      </c>
       <c r="I41" t="n">
         <v>40</v>
       </c>
@@ -6313,6 +6637,9 @@
           <t>BVCALPPSP002</t>
         </is>
       </c>
+      <c r="T41" t="n">
+        <v/>
+      </c>
       <c r="U41" t="n">
         <v>7</v>
       </c>
@@ -6377,7 +6704,7 @@
         <v>11563.2</v>
       </c>
       <c r="AN41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO41" t="n">
         <v>0</v>
@@ -6413,6 +6740,12 @@
           <t>BVCAD30MC001</t>
         </is>
       </c>
+      <c r="G42" t="n">
+        <v/>
+      </c>
+      <c r="H42" t="n">
+        <v/>
+      </c>
       <c r="I42" t="n">
         <v>40</v>
       </c>
@@ -6452,6 +6785,9 @@
           <t>BVCALPPSP002</t>
         </is>
       </c>
+      <c r="T42" t="n">
+        <v/>
+      </c>
       <c r="U42" t="n">
         <v>7</v>
       </c>
@@ -6557,6 +6893,9 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
+      <c r="H43" t="n">
+        <v/>
+      </c>
       <c r="I43" t="n">
         <v>30</v>
       </c>
@@ -6665,7 +7004,7 @@
         <v>958.3679999999999</v>
       </c>
       <c r="AN43" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AO43" t="n">
         <v>0</v>
@@ -6706,6 +7045,9 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
+      <c r="H44" t="n">
+        <v/>
+      </c>
       <c r="I44" t="n">
         <v>30</v>
       </c>
@@ -6814,7 +7156,7 @@
         <v>929.28</v>
       </c>
       <c r="AN44" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AO44" t="n">
         <v>0</v>
@@ -6855,6 +7197,9 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
+      <c r="H45" t="n">
+        <v/>
+      </c>
       <c r="I45" t="n">
         <v>20</v>
       </c>
@@ -7004,6 +7349,9 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
+      <c r="H46" t="n">
+        <v/>
+      </c>
       <c r="I46" t="n">
         <v>30</v>
       </c>
@@ -7153,6 +7501,9 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
+      <c r="H47" t="n">
+        <v/>
+      </c>
       <c r="I47" t="n">
         <v>25</v>
       </c>
@@ -7261,7 +7612,7 @@
         <v>1200</v>
       </c>
       <c r="AN47" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AO47" t="n">
         <v>0</v>
@@ -7302,6 +7653,9 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
+      <c r="H48" t="n">
+        <v/>
+      </c>
       <c r="I48" t="n">
         <v>25</v>
       </c>
@@ -7410,7 +7764,7 @@
         <v>1200</v>
       </c>
       <c r="AN48" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AO48" t="n">
         <v>0</v>
@@ -7451,6 +7805,9 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
+      <c r="H49" t="n">
+        <v/>
+      </c>
       <c r="I49" t="n">
         <v>25</v>
       </c>
@@ -7490,6 +7847,18 @@
           <t>KVCALPPSP002</t>
         </is>
       </c>
+      <c r="T49" t="n">
+        <v/>
+      </c>
+      <c r="U49" t="n">
+        <v/>
+      </c>
+      <c r="V49" t="n">
+        <v/>
+      </c>
+      <c r="W49" t="n">
+        <v/>
+      </c>
       <c r="X49" t="n">
         <v>2</v>
       </c>
@@ -7586,6 +7955,9 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
+      <c r="H50" t="n">
+        <v/>
+      </c>
       <c r="I50" t="n">
         <v>30</v>
       </c>
@@ -7625,6 +7997,18 @@
           <t>KVCALPPSP002</t>
         </is>
       </c>
+      <c r="T50" t="n">
+        <v/>
+      </c>
+      <c r="U50" t="n">
+        <v/>
+      </c>
+      <c r="V50" t="n">
+        <v/>
+      </c>
+      <c r="W50" t="n">
+        <v/>
+      </c>
       <c r="X50" t="n">
         <v>2</v>
       </c>
@@ -7642,6 +8026,9 @@
       </c>
       <c r="AC50" t="n">
         <v>1</v>
+      </c>
+      <c r="AD50" t="n">
+        <v/>
       </c>
       <c r="AE50" t="n">
         <v>0</v>
@@ -7675,7 +8062,7 @@
         <v>1283.088</v>
       </c>
       <c r="AN50" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AO50" t="n">
         <v>0</v>
@@ -7716,6 +8103,9 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
+      <c r="H51" t="n">
+        <v/>
+      </c>
       <c r="I51" t="n">
         <v>30</v>
       </c>
@@ -7755,6 +8145,18 @@
           <t>KVCALPPSP002</t>
         </is>
       </c>
+      <c r="T51" t="n">
+        <v/>
+      </c>
+      <c r="U51" t="n">
+        <v/>
+      </c>
+      <c r="V51" t="n">
+        <v/>
+      </c>
+      <c r="W51" t="n">
+        <v/>
+      </c>
       <c r="X51" t="n">
         <v>2</v>
       </c>
@@ -7772,6 +8174,9 @@
       </c>
       <c r="AC51" t="n">
         <v>1</v>
+      </c>
+      <c r="AD51" t="n">
+        <v/>
       </c>
       <c r="AE51" t="n">
         <v>0</v>
@@ -7805,7 +8210,7 @@
         <v>1290.768</v>
       </c>
       <c r="AN51" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AO51" t="n">
         <v>0</v>
@@ -7846,6 +8251,9 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
+      <c r="H52" t="n">
+        <v/>
+      </c>
       <c r="I52" t="n">
         <v>20</v>
       </c>
@@ -7995,6 +8403,9 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
+      <c r="H53" t="n">
+        <v/>
+      </c>
       <c r="I53" t="n">
         <v>35</v>
       </c>
@@ -8103,7 +8514,7 @@
         <v>1035.504</v>
       </c>
       <c r="AN53" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AO53" t="n">
         <v>0</v>
@@ -8144,6 +8555,9 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
+      <c r="H54" t="n">
+        <v/>
+      </c>
       <c r="I54" t="n">
         <v>35</v>
       </c>
@@ -8252,7 +8666,7 @@
         <v>1000.272</v>
       </c>
       <c r="AN54" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AO54" t="n">
         <v>0</v>
@@ -8288,6 +8702,12 @@
           <t>KVCALHTMC001</t>
         </is>
       </c>
+      <c r="G55" t="n">
+        <v/>
+      </c>
+      <c r="H55" t="n">
+        <v/>
+      </c>
       <c r="I55" t="n">
         <v>25</v>
       </c>
@@ -8437,6 +8857,9 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
+      <c r="H56" t="n">
+        <v/>
+      </c>
       <c r="I56" t="n">
         <v>40</v>
       </c>
@@ -8545,7 +8968,7 @@
         <v>1042.56</v>
       </c>
       <c r="AN56" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AO56" t="n">
         <v>0</v>
@@ -8586,6 +9009,9 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
+      <c r="H57" t="n">
+        <v/>
+      </c>
       <c r="I57" t="n">
         <v>30</v>
       </c>
@@ -8694,7 +9120,7 @@
         <v>1147.296</v>
       </c>
       <c r="AN57" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AO57" t="n">
         <v>0</v>
@@ -8730,6 +9156,12 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
+      <c r="G58" t="n">
+        <v/>
+      </c>
+      <c r="H58" t="n">
+        <v/>
+      </c>
       <c r="I58" t="n">
         <v>90</v>
       </c>
@@ -8838,7 +9270,7 @@
         <v>1063.728</v>
       </c>
       <c r="AN58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO58" t="n">
         <v>0</v>
@@ -8874,6 +9306,12 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
+      <c r="G59" t="n">
+        <v/>
+      </c>
+      <c r="H59" t="n">
+        <v/>
+      </c>
       <c r="I59" t="n">
         <v>40</v>
       </c>
@@ -9018,6 +9456,12 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
+      <c r="G60" t="n">
+        <v/>
+      </c>
+      <c r="H60" t="n">
+        <v/>
+      </c>
       <c r="I60" t="n">
         <v>150</v>
       </c>
@@ -9162,6 +9606,12 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
+      <c r="G61" t="n">
+        <v/>
+      </c>
+      <c r="H61" t="n">
+        <v/>
+      </c>
       <c r="I61" t="n">
         <v>40</v>
       </c>
@@ -9311,6 +9761,9 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
+      <c r="H62" t="n">
+        <v/>
+      </c>
       <c r="I62" t="n">
         <v>30</v>
       </c>
@@ -9419,7 +9872,7 @@
         <v>1573.2</v>
       </c>
       <c r="AN62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO62" t="n">
         <v>0</v>
@@ -9571,7 +10024,7 @@
         <v>126</v>
       </c>
       <c r="AN63" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AO63" t="n">
         <v>0</v>
@@ -9723,7 +10176,7 @@
         <v>238.8</v>
       </c>
       <c r="AN64" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AO64" t="n">
         <v>0</v>
@@ -9918,6 +10371,9 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
+      <c r="H66" t="n">
+        <v/>
+      </c>
       <c r="I66" t="n">
         <v>40</v>
       </c>
@@ -10026,7 +10482,7 @@
         <v>3066.672</v>
       </c>
       <c r="AN66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO66" t="n">
         <v>0</v>
@@ -10067,6 +10523,9 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
+      <c r="H67" t="n">
+        <v/>
+      </c>
       <c r="I67" t="n">
         <v>40</v>
       </c>
@@ -10175,7 +10634,7 @@
         <v>3821.76</v>
       </c>
       <c r="AN67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO67" t="n">
         <v>0</v>
@@ -10216,6 +10675,9 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
+      <c r="H68" t="n">
+        <v/>
+      </c>
       <c r="I68" t="n">
         <v>40</v>
       </c>
@@ -10324,7 +10786,7 @@
         <v>5203.2</v>
       </c>
       <c r="AN68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO68" t="n">
         <v>0</v>
@@ -10365,6 +10827,9 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
+      <c r="H69" t="n">
+        <v/>
+      </c>
       <c r="I69" t="n">
         <v>40</v>
       </c>
@@ -10514,6 +10979,9 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
+      <c r="H70" t="n">
+        <v/>
+      </c>
       <c r="I70" t="n">
         <v>40</v>
       </c>
@@ -10658,6 +11126,12 @@
           <t>MC1-MGB-001</t>
         </is>
       </c>
+      <c r="G71" t="n">
+        <v/>
+      </c>
+      <c r="H71" t="n">
+        <v/>
+      </c>
       <c r="I71" t="n">
         <v>30</v>
       </c>
@@ -10697,6 +11171,18 @@
           <t>KVCALPPSP002</t>
         </is>
       </c>
+      <c r="T71" t="n">
+        <v/>
+      </c>
+      <c r="U71" t="n">
+        <v/>
+      </c>
+      <c r="V71" t="n">
+        <v/>
+      </c>
+      <c r="W71" t="n">
+        <v/>
+      </c>
       <c r="X71" t="n">
         <v>2</v>
       </c>
@@ -10752,7 +11238,7 @@
         <v>964.8</v>
       </c>
       <c r="AN71" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AO71" t="n">
         <v>0</v>
@@ -10793,6 +11279,9 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
+      <c r="H72" t="n">
+        <v/>
+      </c>
       <c r="I72" t="n">
         <v>60</v>
       </c>
@@ -11053,7 +11542,7 @@
         <v>1180.8</v>
       </c>
       <c r="AN73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO73" t="n">
         <v>0</v>
@@ -11241,6 +11730,12 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
+      <c r="G75" t="n">
+        <v/>
+      </c>
+      <c r="H75" t="n">
+        <v/>
+      </c>
       <c r="I75" t="n">
         <v>40</v>
       </c>
@@ -11349,7 +11844,7 @@
         <v>1519.2</v>
       </c>
       <c r="AN75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO75" t="n">
         <v>0</v>
@@ -11390,6 +11885,9 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
+      <c r="H76" t="n">
+        <v/>
+      </c>
       <c r="I76" t="n">
         <v>60</v>
       </c>
@@ -11429,6 +11927,18 @@
           <t>KVCALPPSP002</t>
         </is>
       </c>
+      <c r="T76" t="n">
+        <v/>
+      </c>
+      <c r="U76" t="n">
+        <v/>
+      </c>
+      <c r="V76" t="n">
+        <v/>
+      </c>
+      <c r="W76" t="n">
+        <v/>
+      </c>
       <c r="X76" t="n">
         <v>2</v>
       </c>
@@ -11518,6 +12028,12 @@
       <c r="F77" t="n">
         <v>0</v>
       </c>
+      <c r="G77" t="n">
+        <v/>
+      </c>
+      <c r="H77" t="n">
+        <v/>
+      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
@@ -11557,6 +12073,18 @@
           <t>KVCALPPSP002</t>
         </is>
       </c>
+      <c r="T77" t="n">
+        <v/>
+      </c>
+      <c r="U77" t="n">
+        <v/>
+      </c>
+      <c r="V77" t="n">
+        <v/>
+      </c>
+      <c r="W77" t="n">
+        <v/>
+      </c>
       <c r="X77" t="n">
         <v>2</v>
       </c>
@@ -11574,6 +12102,9 @@
       </c>
       <c r="AC77" t="n">
         <v>1</v>
+      </c>
+      <c r="AD77" t="n">
+        <v/>
       </c>
       <c r="AE77" t="n">
         <v>0</v>
@@ -11607,7 +12138,7 @@
         <v>1605.6</v>
       </c>
       <c r="AN77" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AO77" t="n">
         <v>0</v>
@@ -11648,6 +12179,9 @@
           <t>KVCAD10MC001</t>
         </is>
       </c>
+      <c r="H78" t="n">
+        <v/>
+      </c>
       <c r="I78" t="n">
         <v>40</v>
       </c>
@@ -11687,6 +12221,18 @@
           <t>KVCALPPSP002</t>
         </is>
       </c>
+      <c r="T78" t="n">
+        <v/>
+      </c>
+      <c r="U78" t="n">
+        <v/>
+      </c>
+      <c r="V78" t="n">
+        <v/>
+      </c>
+      <c r="W78" t="n">
+        <v/>
+      </c>
       <c r="X78" t="n">
         <v>2</v>
       </c>
@@ -11783,6 +12329,9 @@
           <t>KVCAD10MC001</t>
         </is>
       </c>
+      <c r="H79" t="n">
+        <v/>
+      </c>
       <c r="I79" t="n">
         <v>40</v>
       </c>
@@ -11822,6 +12371,18 @@
           <t>KVCALPPSP002</t>
         </is>
       </c>
+      <c r="T79" t="n">
+        <v/>
+      </c>
+      <c r="U79" t="n">
+        <v/>
+      </c>
+      <c r="V79" t="n">
+        <v/>
+      </c>
+      <c r="W79" t="n">
+        <v/>
+      </c>
       <c r="X79" t="n">
         <v>2</v>
       </c>
@@ -12031,7 +12592,7 @@
         <v>1630.92</v>
       </c>
       <c r="AN80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO80" t="n">
         <v>0</v>
@@ -12072,6 +12633,9 @@
           <t>KVCAD40MC001</t>
         </is>
       </c>
+      <c r="H81" t="n">
+        <v/>
+      </c>
       <c r="I81" t="n">
         <v>90</v>
       </c>
@@ -12116,6 +12680,15 @@
           <t>KVCALFPSP001</t>
         </is>
       </c>
+      <c r="U81" t="n">
+        <v/>
+      </c>
+      <c r="V81" t="n">
+        <v/>
+      </c>
+      <c r="W81" t="n">
+        <v/>
+      </c>
       <c r="X81" t="n">
         <v>2</v>
       </c>
@@ -12212,6 +12785,9 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
+      <c r="H82" t="n">
+        <v/>
+      </c>
       <c r="I82" t="n">
         <v>20</v>
       </c>
@@ -12472,7 +13048,7 @@
         <v>1800</v>
       </c>
       <c r="AN83" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AO83" t="n">
         <v>0</v>
@@ -12624,7 +13200,7 @@
         <v>1909.08</v>
       </c>
       <c r="AN84" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AO84" t="n">
         <v>0</v>
@@ -12776,7 +13352,7 @@
         <v>2110.896</v>
       </c>
       <c r="AN85" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AO85" t="n">
         <v>0</v>
@@ -12812,6 +13388,12 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
+      <c r="G86" t="n">
+        <v/>
+      </c>
+      <c r="H86" t="n">
+        <v/>
+      </c>
       <c r="I86" t="n">
         <v>40</v>
       </c>
@@ -12956,6 +13538,12 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
+      <c r="G87" t="n">
+        <v/>
+      </c>
+      <c r="H87" t="n">
+        <v/>
+      </c>
       <c r="I87" t="n">
         <v>20</v>
       </c>
@@ -13064,7 +13652,7 @@
         <v>872.736</v>
       </c>
       <c r="AN87" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AO87" t="n">
         <v>0</v>
@@ -13105,6 +13693,9 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
+      <c r="H88" t="n">
+        <v/>
+      </c>
       <c r="I88" t="n">
         <v>60</v>
       </c>
@@ -13254,6 +13845,9 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
+      <c r="H89" t="n">
+        <v/>
+      </c>
       <c r="I89" t="n">
         <v>60</v>
       </c>
@@ -13298,6 +13892,15 @@
           <t>KVCALFPSP001</t>
         </is>
       </c>
+      <c r="U89" t="n">
+        <v/>
+      </c>
+      <c r="V89" t="n">
+        <v/>
+      </c>
+      <c r="W89" t="n">
+        <v/>
+      </c>
       <c r="X89" t="n">
         <v>2</v>
       </c>
@@ -13394,6 +13997,9 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
+      <c r="H90" t="n">
+        <v/>
+      </c>
       <c r="I90" t="n">
         <v>60</v>
       </c>
@@ -13543,6 +14149,9 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
+      <c r="H91" t="n">
+        <v/>
+      </c>
       <c r="I91" t="n">
         <v>60</v>
       </c>
@@ -13692,6 +14301,9 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
+      <c r="H92" t="n">
+        <v/>
+      </c>
       <c r="I92" t="n">
         <v>40</v>
       </c>
@@ -13836,6 +14448,12 @@
           <t>MC1-TAS-GN-015</t>
         </is>
       </c>
+      <c r="G93" t="n">
+        <v/>
+      </c>
+      <c r="H93" t="n">
+        <v/>
+      </c>
       <c r="I93" t="n">
         <v>30</v>
       </c>
@@ -13880,6 +14498,15 @@
           <t>KVCALFPSP001</t>
         </is>
       </c>
+      <c r="U93" t="n">
+        <v/>
+      </c>
+      <c r="V93" t="n">
+        <v/>
+      </c>
+      <c r="W93" t="n">
+        <v/>
+      </c>
       <c r="X93" t="n">
         <v>2</v>
       </c>
@@ -13897,6 +14524,9 @@
       </c>
       <c r="AC93" t="n">
         <v>1</v>
+      </c>
+      <c r="AD93" t="n">
+        <v/>
       </c>
       <c r="AE93" t="n">
         <v>0</v>
@@ -13930,7 +14560,7 @@
         <v>902.808</v>
       </c>
       <c r="AN93" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AO93" t="n">
         <v>0</v>
@@ -14120,6 +14750,12 @@
           <t>MC1-TAS-GN-017</t>
         </is>
       </c>
+      <c r="G95" t="n">
+        <v/>
+      </c>
+      <c r="H95" t="n">
+        <v/>
+      </c>
       <c r="I95" t="n">
         <v>30</v>
       </c>
@@ -14164,6 +14800,15 @@
           <t>KVCALFPSP001</t>
         </is>
       </c>
+      <c r="U95" t="n">
+        <v/>
+      </c>
+      <c r="V95" t="n">
+        <v/>
+      </c>
+      <c r="W95" t="n">
+        <v/>
+      </c>
       <c r="X95" t="n">
         <v>2</v>
       </c>
@@ -14181,6 +14826,9 @@
       </c>
       <c r="AC95" t="n">
         <v>1</v>
+      </c>
+      <c r="AD95" t="n">
+        <v/>
       </c>
       <c r="AE95" t="n">
         <v>0</v>
@@ -14214,7 +14862,7 @@
         <v>1118.184</v>
       </c>
       <c r="AN95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO95" t="n">
         <v>0</v>
@@ -14248,6 +14896,12 @@
       <c r="F96" t="n">
         <v>0</v>
       </c>
+      <c r="G96" t="n">
+        <v/>
+      </c>
+      <c r="H96" t="n">
+        <v/>
+      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
@@ -14292,6 +14946,15 @@
           <t>KVCALFPSP001</t>
         </is>
       </c>
+      <c r="U96" t="n">
+        <v/>
+      </c>
+      <c r="V96" t="n">
+        <v/>
+      </c>
+      <c r="W96" t="n">
+        <v/>
+      </c>
       <c r="X96" t="n">
         <v>2</v>
       </c>
@@ -14347,7 +15010,7 @@
         <v>978.9839999999999</v>
       </c>
       <c r="AN96" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AO96" t="n">
         <v>0</v>
@@ -14381,6 +15044,12 @@
       <c r="F97" t="n">
         <v>0</v>
       </c>
+      <c r="G97" t="n">
+        <v/>
+      </c>
+      <c r="H97" t="n">
+        <v/>
+      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
@@ -14425,6 +15094,15 @@
           <t>KVCALFPSP001</t>
         </is>
       </c>
+      <c r="U97" t="n">
+        <v/>
+      </c>
+      <c r="V97" t="n">
+        <v/>
+      </c>
+      <c r="W97" t="n">
+        <v/>
+      </c>
       <c r="X97" t="n">
         <v>2</v>
       </c>
@@ -14442,6 +15120,9 @@
       </c>
       <c r="AC97" t="n">
         <v>1</v>
+      </c>
+      <c r="AD97" t="n">
+        <v/>
       </c>
       <c r="AE97" t="n">
         <v>0</v>
@@ -14475,7 +15156,7 @@
         <v>872.736</v>
       </c>
       <c r="AN97" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AO97" t="n">
         <v>0</v>
@@ -14511,6 +15192,12 @@
           <t>MC1-TAS-GN-020</t>
         </is>
       </c>
+      <c r="G98" t="n">
+        <v/>
+      </c>
+      <c r="H98" t="n">
+        <v/>
+      </c>
       <c r="I98" t="n">
         <v>30</v>
       </c>
@@ -14555,6 +15242,15 @@
           <t>KVCALFPSP001</t>
         </is>
       </c>
+      <c r="U98" t="n">
+        <v/>
+      </c>
+      <c r="V98" t="n">
+        <v/>
+      </c>
+      <c r="W98" t="n">
+        <v/>
+      </c>
       <c r="X98" t="n">
         <v>2</v>
       </c>
@@ -14610,7 +15306,7 @@
         <v>1118.184</v>
       </c>
       <c r="AN98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO98" t="n">
         <v>0</v>
@@ -14762,7 +15458,7 @@
         <v>1680</v>
       </c>
       <c r="AN99" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AO99" t="n">
         <v>0</v>
@@ -14798,6 +15494,12 @@
           <t>MC1-TAS-GN-022</t>
         </is>
       </c>
+      <c r="G100" t="n">
+        <v/>
+      </c>
+      <c r="H100" t="n">
+        <v/>
+      </c>
       <c r="I100" t="n">
         <v>40</v>
       </c>
@@ -14842,6 +15544,15 @@
           <t>KVCALFPSP001</t>
         </is>
       </c>
+      <c r="U100" t="n">
+        <v/>
+      </c>
+      <c r="V100" t="n">
+        <v/>
+      </c>
+      <c r="W100" t="n">
+        <v/>
+      </c>
       <c r="X100" t="n">
         <v>2</v>
       </c>
@@ -14933,6 +15644,12 @@
           <t>MC1-TAS-GN-028</t>
         </is>
       </c>
+      <c r="G101" t="n">
+        <v/>
+      </c>
+      <c r="H101" t="n">
+        <v/>
+      </c>
       <c r="I101" t="n">
         <v>150</v>
       </c>
@@ -14977,6 +15694,15 @@
           <t>KVCALFPSP001</t>
         </is>
       </c>
+      <c r="U101" t="n">
+        <v/>
+      </c>
+      <c r="V101" t="n">
+        <v/>
+      </c>
+      <c r="W101" t="n">
+        <v/>
+      </c>
       <c r="X101" t="n">
         <v>2</v>
       </c>
@@ -14994,6 +15720,9 @@
       </c>
       <c r="AC101" t="n">
         <v>1</v>
+      </c>
+      <c r="AD101" t="n">
+        <v/>
       </c>
       <c r="AE101" t="n">
         <v>0</v>
@@ -15179,7 +15908,7 @@
         <v>3054.528</v>
       </c>
       <c r="AN102" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AO102" t="n">
         <v>0</v>
@@ -15220,6 +15949,9 @@
           <t>KVCACNCMC001</t>
         </is>
       </c>
+      <c r="H103" t="n">
+        <v/>
+      </c>
       <c r="I103" t="n">
         <v>180</v>
       </c>
@@ -15259,6 +15991,18 @@
           <t>KVCALPPSP002</t>
         </is>
       </c>
+      <c r="T103" t="n">
+        <v/>
+      </c>
+      <c r="U103" t="n">
+        <v/>
+      </c>
+      <c r="V103" t="n">
+        <v/>
+      </c>
+      <c r="W103" t="n">
+        <v/>
+      </c>
       <c r="X103" t="n">
         <v>2</v>
       </c>
@@ -15350,6 +16094,12 @@
           <t>MC1-UBC-012</t>
         </is>
       </c>
+      <c r="G104" t="n">
+        <v/>
+      </c>
+      <c r="H104" t="n">
+        <v/>
+      </c>
       <c r="I104" t="n">
         <v>30</v>
       </c>
@@ -15389,6 +16139,18 @@
           <t>KVCALPPSP002</t>
         </is>
       </c>
+      <c r="T104" t="n">
+        <v/>
+      </c>
+      <c r="U104" t="n">
+        <v/>
+      </c>
+      <c r="V104" t="n">
+        <v/>
+      </c>
+      <c r="W104" t="n">
+        <v/>
+      </c>
       <c r="X104" t="n">
         <v>2</v>
       </c>
@@ -15406,6 +16168,9 @@
       </c>
       <c r="AC104" t="n">
         <v>0</v>
+      </c>
+      <c r="AD104" t="n">
+        <v/>
       </c>
       <c r="AE104" t="n">
         <v>0</v>
@@ -15439,7 +16204,7 @@
         <v>835.1999999999999</v>
       </c>
       <c r="AN104" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AO104" t="n">
         <v>1</v>
@@ -15475,6 +16240,12 @@
           <t>MC1-UBC-013</t>
         </is>
       </c>
+      <c r="G105" t="n">
+        <v/>
+      </c>
+      <c r="H105" t="n">
+        <v/>
+      </c>
       <c r="I105" t="n">
         <v>30</v>
       </c>
@@ -15514,6 +16285,18 @@
           <t>KVCALPPSP002</t>
         </is>
       </c>
+      <c r="T105" t="n">
+        <v/>
+      </c>
+      <c r="U105" t="n">
+        <v/>
+      </c>
+      <c r="V105" t="n">
+        <v/>
+      </c>
+      <c r="W105" t="n">
+        <v/>
+      </c>
       <c r="X105" t="n">
         <v>2</v>
       </c>
@@ -15531,6 +16314,9 @@
       </c>
       <c r="AC105" t="n">
         <v>0</v>
+      </c>
+      <c r="AD105" t="n">
+        <v/>
       </c>
       <c r="AE105" t="n">
         <v>0</v>
@@ -15564,7 +16350,7 @@
         <v>864</v>
       </c>
       <c r="AN105" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AO105" t="n">
         <v>1</v>
@@ -15718,7 +16504,7 @@
         <v>1656</v>
       </c>
       <c r="AN106" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AO106" t="n">
         <v>0</v>
@@ -15754,6 +16540,12 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
+      <c r="G107" t="n">
+        <v/>
+      </c>
+      <c r="H107" t="n">
+        <v/>
+      </c>
       <c r="I107" t="n">
         <v>20</v>
       </c>
@@ -15862,7 +16654,7 @@
         <v>1742.4</v>
       </c>
       <c r="AN107" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AO107" t="n">
         <v>1</v>
@@ -15898,6 +16690,12 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
+      <c r="G108" t="n">
+        <v/>
+      </c>
+      <c r="H108" t="n">
+        <v/>
+      </c>
       <c r="I108" t="n">
         <v>20</v>
       </c>
@@ -16006,7 +16804,7 @@
         <v>918</v>
       </c>
       <c r="AN108" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AO108" t="n">
         <v>0</v>
@@ -16199,6 +16997,9 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
+      <c r="H110" t="n">
+        <v/>
+      </c>
       <c r="I110" t="n">
         <v>80</v>
       </c>
@@ -16348,6 +17149,9 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
+      <c r="H111" t="n">
+        <v/>
+      </c>
       <c r="I111" t="n">
         <v>60</v>
       </c>
@@ -16387,6 +17191,18 @@
           <t>KVCALPPSP002</t>
         </is>
       </c>
+      <c r="T111" t="n">
+        <v/>
+      </c>
+      <c r="U111" t="n">
+        <v/>
+      </c>
+      <c r="V111" t="n">
+        <v/>
+      </c>
+      <c r="W111" t="n">
+        <v/>
+      </c>
       <c r="X111" t="n">
         <v>2</v>
       </c>
@@ -16404,6 +17220,9 @@
       </c>
       <c r="AC111" t="n">
         <v>1</v>
+      </c>
+      <c r="AD111" t="n">
+        <v/>
       </c>
       <c r="AE111" t="n">
         <v>0</v>
@@ -16478,6 +17297,9 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
+      <c r="H112" t="n">
+        <v/>
+      </c>
       <c r="I112" t="n">
         <v>60</v>
       </c>
@@ -16517,6 +17339,18 @@
           <t>KVCALPPSP002</t>
         </is>
       </c>
+      <c r="T112" t="n">
+        <v/>
+      </c>
+      <c r="U112" t="n">
+        <v/>
+      </c>
+      <c r="V112" t="n">
+        <v/>
+      </c>
+      <c r="W112" t="n">
+        <v/>
+      </c>
       <c r="X112" t="n">
         <v>2</v>
       </c>
@@ -16613,6 +17447,9 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
+      <c r="H113" t="n">
+        <v/>
+      </c>
       <c r="I113" t="n">
         <v>180</v>
       </c>
@@ -16652,6 +17489,18 @@
           <t>KVCALPPSP002</t>
         </is>
       </c>
+      <c r="T113" t="n">
+        <v/>
+      </c>
+      <c r="U113" t="n">
+        <v/>
+      </c>
+      <c r="V113" t="n">
+        <v/>
+      </c>
+      <c r="W113" t="n">
+        <v/>
+      </c>
       <c r="X113" t="n">
         <v>2</v>
       </c>
@@ -16748,6 +17597,9 @@
           <t>KVCAD30MC001</t>
         </is>
       </c>
+      <c r="H114" t="n">
+        <v/>
+      </c>
       <c r="I114" t="n">
         <v>90</v>
       </c>
@@ -16787,6 +17639,18 @@
           <t>KVCALPPSP002</t>
         </is>
       </c>
+      <c r="T114" t="n">
+        <v/>
+      </c>
+      <c r="U114" t="n">
+        <v/>
+      </c>
+      <c r="V114" t="n">
+        <v/>
+      </c>
+      <c r="W114" t="n">
+        <v/>
+      </c>
       <c r="X114" t="n">
         <v>2</v>
       </c>
@@ -16842,7 +17706,7 @@
         <v>1972.8</v>
       </c>
       <c r="AN114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO114" t="n">
         <v>0</v>
@@ -16883,6 +17747,9 @@
           <t>BVCAD40MC001</t>
         </is>
       </c>
+      <c r="H115" t="n">
+        <v/>
+      </c>
       <c r="I115" t="n">
         <v>90</v>
       </c>
@@ -16991,7 +17858,7 @@
         <v>566.4</v>
       </c>
       <c r="AN115" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO115" t="n">
         <v>1</v>
@@ -17032,6 +17899,9 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
+      <c r="H116" t="n">
+        <v/>
+      </c>
       <c r="I116" t="n">
         <v>90</v>
       </c>
@@ -17071,6 +17941,18 @@
           <t>KVCALPPSP002</t>
         </is>
       </c>
+      <c r="T116" t="n">
+        <v/>
+      </c>
+      <c r="U116" t="n">
+        <v/>
+      </c>
+      <c r="V116" t="n">
+        <v/>
+      </c>
+      <c r="W116" t="n">
+        <v/>
+      </c>
       <c r="X116" t="n">
         <v>2</v>
       </c>
@@ -17126,7 +18008,7 @@
         <v>2844</v>
       </c>
       <c r="AN116" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO116" t="n">
         <v>0</v>
@@ -17167,6 +18049,9 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
+      <c r="H117" t="n">
+        <v/>
+      </c>
       <c r="I117" t="n">
         <v>90</v>
       </c>
@@ -17206,6 +18091,18 @@
           <t>KVCALPPSP002</t>
         </is>
       </c>
+      <c r="T117" t="n">
+        <v/>
+      </c>
+      <c r="U117" t="n">
+        <v/>
+      </c>
+      <c r="V117" t="n">
+        <v/>
+      </c>
+      <c r="W117" t="n">
+        <v/>
+      </c>
       <c r="X117" t="n">
         <v>2</v>
       </c>
@@ -17261,7 +18158,7 @@
         <v>1440</v>
       </c>
       <c r="AN117" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AO117" t="n">
         <v>0</v>
@@ -17302,6 +18199,9 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
+      <c r="H118" t="n">
+        <v/>
+      </c>
       <c r="I118" t="n">
         <v>90</v>
       </c>
@@ -17341,6 +18241,18 @@
           <t>KVCALPPSP002</t>
         </is>
       </c>
+      <c r="T118" t="n">
+        <v/>
+      </c>
+      <c r="U118" t="n">
+        <v/>
+      </c>
+      <c r="V118" t="n">
+        <v/>
+      </c>
+      <c r="W118" t="n">
+        <v/>
+      </c>
       <c r="X118" t="n">
         <v>2</v>
       </c>
@@ -17396,7 +18308,7 @@
         <v>2466</v>
       </c>
       <c r="AN118" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AO118" t="n">
         <v>0</v>
@@ -17437,6 +18349,9 @@
           <t>KVCAD30MC001</t>
         </is>
       </c>
+      <c r="H119" t="n">
+        <v/>
+      </c>
       <c r="I119" t="n">
         <v>90</v>
       </c>
@@ -17476,6 +18391,18 @@
           <t>KVCALPPSP002</t>
         </is>
       </c>
+      <c r="T119" t="n">
+        <v/>
+      </c>
+      <c r="U119" t="n">
+        <v/>
+      </c>
+      <c r="V119" t="n">
+        <v/>
+      </c>
+      <c r="W119" t="n">
+        <v/>
+      </c>
       <c r="X119" t="n">
         <v>2</v>
       </c>
@@ -17531,7 +18458,7 @@
         <v>2148</v>
       </c>
       <c r="AN119" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO119" t="n">
         <v>0</v>
@@ -17572,6 +18499,9 @@
           <t>KVCAD30MC001</t>
         </is>
       </c>
+      <c r="H120" t="n">
+        <v/>
+      </c>
       <c r="I120" t="n">
         <v>90</v>
       </c>
@@ -17611,6 +18541,18 @@
           <t>KVCALPPSP002</t>
         </is>
       </c>
+      <c r="T120" t="n">
+        <v/>
+      </c>
+      <c r="U120" t="n">
+        <v/>
+      </c>
+      <c r="V120" t="n">
+        <v/>
+      </c>
+      <c r="W120" t="n">
+        <v/>
+      </c>
       <c r="X120" t="n">
         <v>2</v>
       </c>
@@ -17666,7 +18608,7 @@
         <v>4651.2</v>
       </c>
       <c r="AN120" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO120" t="n">
         <v>0</v>
@@ -17707,6 +18649,9 @@
           <t>KVCAD30MC001</t>
         </is>
       </c>
+      <c r="H121" t="n">
+        <v/>
+      </c>
       <c r="I121" t="n">
         <v>90</v>
       </c>
@@ -17746,6 +18691,18 @@
           <t>KVCALPPSP002</t>
         </is>
       </c>
+      <c r="T121" t="n">
+        <v/>
+      </c>
+      <c r="U121" t="n">
+        <v/>
+      </c>
+      <c r="V121" t="n">
+        <v/>
+      </c>
+      <c r="W121" t="n">
+        <v/>
+      </c>
       <c r="X121" t="n">
         <v>2</v>
       </c>
@@ -17801,7 +18758,7 @@
         <v>3489.6</v>
       </c>
       <c r="AN121" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO121" t="n">
         <v>0</v>
@@ -17842,6 +18799,9 @@
           <t>KVCAD30MC001</t>
         </is>
       </c>
+      <c r="H122" t="n">
+        <v/>
+      </c>
       <c r="I122" t="n">
         <v>90</v>
       </c>
@@ -17881,6 +18841,18 @@
           <t>KVCALPPSP002</t>
         </is>
       </c>
+      <c r="T122" t="n">
+        <v/>
+      </c>
+      <c r="U122" t="n">
+        <v/>
+      </c>
+      <c r="V122" t="n">
+        <v/>
+      </c>
+      <c r="W122" t="n">
+        <v/>
+      </c>
       <c r="X122" t="n">
         <v>2</v>
       </c>
@@ -17936,7 +18908,7 @@
         <v>5659.2</v>
       </c>
       <c r="AN122" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO122" t="n">
         <v>0</v>
@@ -17977,6 +18949,9 @@
           <t>KVCAD30MC001</t>
         </is>
       </c>
+      <c r="H123" t="n">
+        <v/>
+      </c>
       <c r="I123" t="n">
         <v>90</v>
       </c>
@@ -18016,6 +18991,18 @@
           <t>KVCALPPSP002</t>
         </is>
       </c>
+      <c r="T123" t="n">
+        <v/>
+      </c>
+      <c r="U123" t="n">
+        <v/>
+      </c>
+      <c r="V123" t="n">
+        <v/>
+      </c>
+      <c r="W123" t="n">
+        <v/>
+      </c>
       <c r="X123" t="n">
         <v>2</v>
       </c>
@@ -18071,7 +19058,7 @@
         <v>1200</v>
       </c>
       <c r="AN123" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AO123" t="n">
         <v>0</v>
@@ -18112,6 +19099,9 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
+      <c r="H124" t="n">
+        <v/>
+      </c>
       <c r="I124" t="n">
         <v>90</v>
       </c>
@@ -18151,6 +19141,18 @@
           <t>BVCALPPSP002</t>
         </is>
       </c>
+      <c r="T124" t="n">
+        <v/>
+      </c>
+      <c r="U124" t="n">
+        <v/>
+      </c>
+      <c r="V124" t="n">
+        <v/>
+      </c>
+      <c r="W124" t="n">
+        <v/>
+      </c>
       <c r="X124" t="n">
         <v>2</v>
       </c>
@@ -18206,7 +19208,7 @@
         <v>2304</v>
       </c>
       <c r="AN124" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AO124" t="n">
         <v>0</v>
@@ -18240,6 +19242,12 @@
       <c r="F125" t="n">
         <v>0</v>
       </c>
+      <c r="G125" t="n">
+        <v/>
+      </c>
+      <c r="H125" t="n">
+        <v/>
+      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
@@ -18279,6 +19287,18 @@
           <t>KVCALPPSP002</t>
         </is>
       </c>
+      <c r="T125" t="n">
+        <v/>
+      </c>
+      <c r="U125" t="n">
+        <v/>
+      </c>
+      <c r="V125" t="n">
+        <v/>
+      </c>
+      <c r="W125" t="n">
+        <v/>
+      </c>
       <c r="X125" t="n">
         <v>2</v>
       </c>
@@ -18334,7 +19354,7 @@
         <v>2337.6</v>
       </c>
       <c r="AN125" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AO125" t="n">
         <v>1</v>
@@ -18368,6 +19388,12 @@
       <c r="F126" t="n">
         <v>0</v>
       </c>
+      <c r="G126" t="n">
+        <v/>
+      </c>
+      <c r="H126" t="n">
+        <v/>
+      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
@@ -18407,6 +19433,18 @@
           <t>KVCALPPSP002</t>
         </is>
       </c>
+      <c r="T126" t="n">
+        <v/>
+      </c>
+      <c r="U126" t="n">
+        <v/>
+      </c>
+      <c r="V126" t="n">
+        <v/>
+      </c>
+      <c r="W126" t="n">
+        <v/>
+      </c>
       <c r="X126" t="n">
         <v>2</v>
       </c>
@@ -18462,7 +19500,7 @@
         <v>1200</v>
       </c>
       <c r="AN126" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AO126" t="n">
         <v>1</v>
@@ -18614,7 +19652,7 @@
         <v>1328.4</v>
       </c>
       <c r="AN127" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AO127" t="n">
         <v>0</v>
@@ -18766,7 +19804,7 @@
         <v>1328.4</v>
       </c>
       <c r="AN128" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AO128" t="n">
         <v>0</v>
@@ -18807,6 +19845,9 @@
           <t>KVCAD30MC001</t>
         </is>
       </c>
+      <c r="H129" t="n">
+        <v/>
+      </c>
       <c r="I129" t="n">
         <v>90</v>
       </c>
@@ -18846,6 +19887,18 @@
           <t>KVCALPPSP002</t>
         </is>
       </c>
+      <c r="T129" t="n">
+        <v/>
+      </c>
+      <c r="U129" t="n">
+        <v/>
+      </c>
+      <c r="V129" t="n">
+        <v/>
+      </c>
+      <c r="W129" t="n">
+        <v/>
+      </c>
       <c r="X129" t="n">
         <v>2</v>
       </c>
@@ -18863,6 +19916,9 @@
       </c>
       <c r="AC129" t="n">
         <v>1</v>
+      </c>
+      <c r="AD129" t="n">
+        <v/>
       </c>
       <c r="AE129" t="n">
         <v>0</v>
@@ -18896,7 +19952,7 @@
         <v>3258</v>
       </c>
       <c r="AN129" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO129" t="n">
         <v>0</v>
@@ -18937,6 +19993,9 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
+      <c r="H130" t="n">
+        <v/>
+      </c>
       <c r="I130" t="n">
         <v>90</v>
       </c>
@@ -18981,6 +20040,15 @@
           <t>KVCALFPSP001</t>
         </is>
       </c>
+      <c r="U130" t="n">
+        <v/>
+      </c>
+      <c r="V130" t="n">
+        <v/>
+      </c>
+      <c r="W130" t="n">
+        <v/>
+      </c>
       <c r="X130" t="n">
         <v>2</v>
       </c>
@@ -19036,7 +20104,7 @@
         <v>2236.8</v>
       </c>
       <c r="AN130" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO130" t="n">
         <v>0</v>
@@ -19077,6 +20145,9 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
+      <c r="H131" t="n">
+        <v/>
+      </c>
       <c r="I131" t="n">
         <v>90</v>
       </c>
@@ -19185,7 +20256,7 @@
         <v>1905.6144</v>
       </c>
       <c r="AN131" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO131" t="n">
         <v>0</v>
@@ -19226,6 +20297,9 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
+      <c r="H132" t="n">
+        <v/>
+      </c>
       <c r="I132" t="n">
         <v>90</v>
       </c>
@@ -19334,7 +20408,7 @@
         <v>3300</v>
       </c>
       <c r="AN132" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO132" t="n">
         <v>1</v>
@@ -19375,6 +20449,9 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
+      <c r="H133" t="n">
+        <v/>
+      </c>
       <c r="I133" t="n">
         <v>90</v>
       </c>
@@ -19483,7 +20560,7 @@
         <v>4560</v>
       </c>
       <c r="AN133" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO133" t="n">
         <v>1</v>
@@ -19524,6 +20601,9 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
+      <c r="H134" t="n">
+        <v/>
+      </c>
       <c r="I134" t="n">
         <v>90</v>
       </c>
@@ -19632,7 +20712,7 @@
         <v>1560</v>
       </c>
       <c r="AN134" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AO134" t="n">
         <v>1</v>
@@ -19673,6 +20753,9 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
+      <c r="H135" t="n">
+        <v/>
+      </c>
       <c r="I135" t="n">
         <v>90</v>
       </c>
@@ -19717,6 +20800,15 @@
           <t>KVCALFPSP001</t>
         </is>
       </c>
+      <c r="U135" t="n">
+        <v/>
+      </c>
+      <c r="V135" t="n">
+        <v/>
+      </c>
+      <c r="W135" t="n">
+        <v/>
+      </c>
       <c r="X135" t="n">
         <v>2</v>
       </c>
@@ -19772,7 +20864,7 @@
         <v>384</v>
       </c>
       <c r="AN135" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AO135" t="n">
         <v>0</v>
@@ -19813,6 +20905,9 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
+      <c r="H136" t="n">
+        <v/>
+      </c>
       <c r="I136" t="n">
         <v>90</v>
       </c>
@@ -19857,6 +20952,15 @@
           <t>KVCALFPSP001</t>
         </is>
       </c>
+      <c r="U136" t="n">
+        <v/>
+      </c>
+      <c r="V136" t="n">
+        <v/>
+      </c>
+      <c r="W136" t="n">
+        <v/>
+      </c>
       <c r="X136" t="n">
         <v>2</v>
       </c>
@@ -19912,7 +21016,7 @@
         <v>384</v>
       </c>
       <c r="AN136" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AO136" t="n">
         <v>0</v>
@@ -19953,6 +21057,9 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
+      <c r="H137" t="n">
+        <v/>
+      </c>
       <c r="I137" t="n">
         <v>90</v>
       </c>
@@ -19997,6 +21104,15 @@
           <t>KVCALFPSP001</t>
         </is>
       </c>
+      <c r="U137" t="n">
+        <v/>
+      </c>
+      <c r="V137" t="n">
+        <v/>
+      </c>
+      <c r="W137" t="n">
+        <v/>
+      </c>
       <c r="X137" t="n">
         <v>2</v>
       </c>
@@ -20014,6 +21130,9 @@
       </c>
       <c r="AC137" t="n">
         <v>1</v>
+      </c>
+      <c r="AD137" t="n">
+        <v/>
       </c>
       <c r="AE137" t="n">
         <v>0</v>
@@ -20047,7 +21166,7 @@
         <v>1044</v>
       </c>
       <c r="AN137" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AO137" t="n">
         <v>0</v>
@@ -20088,6 +21207,9 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
+      <c r="H138" t="n">
+        <v/>
+      </c>
       <c r="I138" t="n">
         <v>90</v>
       </c>
@@ -20196,7 +21318,7 @@
         <v>1044</v>
       </c>
       <c r="AN138" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AO138" t="n">
         <v>0</v>
@@ -20237,6 +21359,9 @@
           <t>MC2DNA-014</t>
         </is>
       </c>
+      <c r="H139" t="n">
+        <v/>
+      </c>
       <c r="I139" t="n">
         <v>150</v>
       </c>
@@ -20281,6 +21406,15 @@
           <t>KVCALFPSP001</t>
         </is>
       </c>
+      <c r="U139" t="n">
+        <v/>
+      </c>
+      <c r="V139" t="n">
+        <v/>
+      </c>
+      <c r="W139" t="n">
+        <v/>
+      </c>
       <c r="X139" t="n">
         <v>2</v>
       </c>
@@ -20336,7 +21470,7 @@
         <v>2860.8</v>
       </c>
       <c r="AN139" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO139" t="n">
         <v>0</v>
@@ -20377,6 +21511,9 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
+      <c r="H140" t="n">
+        <v/>
+      </c>
       <c r="I140" t="n">
         <v>90</v>
       </c>
@@ -20526,6 +21663,9 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
+      <c r="H141" t="n">
+        <v/>
+      </c>
       <c r="I141" t="n">
         <v>20</v>
       </c>
@@ -20675,6 +21815,9 @@
           <t>MC2MCB-009</t>
         </is>
       </c>
+      <c r="H142" t="n">
+        <v/>
+      </c>
       <c r="I142" t="n">
         <v>100</v>
       </c>
@@ -20783,7 +21926,7 @@
         <v>3600</v>
       </c>
       <c r="AN142" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO142" t="n">
         <v>0</v>
@@ -20824,6 +21967,9 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
+      <c r="H143" t="n">
+        <v/>
+      </c>
       <c r="I143" t="n">
         <v>60</v>
       </c>
@@ -21127,6 +22273,9 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
+      <c r="H145" t="n">
+        <v/>
+      </c>
       <c r="I145" t="n">
         <v>45</v>
       </c>
@@ -21271,6 +22420,12 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
+      <c r="G146" t="n">
+        <v/>
+      </c>
+      <c r="H146" t="n">
+        <v/>
+      </c>
       <c r="I146" t="n">
         <v>45</v>
       </c>
@@ -21415,6 +22570,12 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
+      <c r="G147" t="n">
+        <v/>
+      </c>
+      <c r="H147" t="n">
+        <v/>
+      </c>
       <c r="I147" t="n">
         <v>55</v>
       </c>
@@ -21559,6 +22720,12 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
+      <c r="G148" t="n">
+        <v/>
+      </c>
+      <c r="H148" t="n">
+        <v/>
+      </c>
       <c r="I148" t="n">
         <v>55</v>
       </c>
@@ -21667,7 +22834,7 @@
         <v>3530.4</v>
       </c>
       <c r="AN148" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AO148" t="n">
         <v>0</v>
@@ -21708,6 +22875,9 @@
           <t>MC2MCB-HYG-024</t>
         </is>
       </c>
+      <c r="H149" t="n">
+        <v/>
+      </c>
       <c r="I149" t="n">
         <v>60</v>
       </c>
@@ -21816,7 +22986,7 @@
         <v>3218.4</v>
       </c>
       <c r="AN149" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO149" t="n">
         <v>0</v>
@@ -21857,6 +23027,9 @@
           <t>MC2MCB-HYG-025</t>
         </is>
       </c>
+      <c r="H150" t="n">
+        <v/>
+      </c>
       <c r="I150" t="n">
         <v>60</v>
       </c>
@@ -21965,7 +23138,7 @@
         <v>4536</v>
       </c>
       <c r="AN150" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO150" t="n">
         <v>0</v>
@@ -22001,6 +23174,12 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
+      <c r="G151" t="n">
+        <v/>
+      </c>
+      <c r="H151" t="n">
+        <v/>
+      </c>
       <c r="I151" t="n">
         <v>40</v>
       </c>
@@ -22150,6 +23329,9 @@
           <t>MC2MCB-JLG-018</t>
         </is>
       </c>
+      <c r="H152" t="n">
+        <v/>
+      </c>
       <c r="I152" t="n">
         <v>65</v>
       </c>
@@ -22299,6 +23481,9 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
+      <c r="H153" t="n">
+        <v/>
+      </c>
       <c r="I153" t="n">
         <v>40</v>
       </c>
@@ -22407,7 +23592,7 @@
         <v>3068.592</v>
       </c>
       <c r="AN153" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO153" t="n">
         <v>0</v>
@@ -22448,6 +23633,9 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
+      <c r="H154" t="n">
+        <v/>
+      </c>
       <c r="I154" t="n">
         <v>65</v>
       </c>
@@ -22597,6 +23785,9 @@
           <t>MC2MCB-JLG-021</t>
         </is>
       </c>
+      <c r="H155" t="n">
+        <v/>
+      </c>
       <c r="I155" t="n">
         <v>40</v>
       </c>
@@ -22636,6 +23827,18 @@
           <t>SP2MCB-JLG-021</t>
         </is>
       </c>
+      <c r="T155" t="n">
+        <v/>
+      </c>
+      <c r="U155" t="n">
+        <v/>
+      </c>
+      <c r="V155" t="n">
+        <v/>
+      </c>
+      <c r="W155" t="n">
+        <v/>
+      </c>
       <c r="X155" t="n">
         <v>2</v>
       </c>
@@ -22653,6 +23856,9 @@
       </c>
       <c r="AC155" t="n">
         <v>0</v>
+      </c>
+      <c r="AD155" t="n">
+        <v/>
       </c>
       <c r="AE155" t="n">
         <v>0</v>
@@ -22686,7 +23892,7 @@
         <v>2049.816</v>
       </c>
       <c r="AN155" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO155" t="n">
         <v>0</v>
@@ -22727,6 +23933,9 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
+      <c r="H156" t="n">
+        <v/>
+      </c>
       <c r="I156" t="n">
         <v>40</v>
       </c>
@@ -22869,6 +24078,9 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
+      <c r="G157" t="n">
+        <v/>
+      </c>
       <c r="H157" t="inlineStr">
         <is>
           <t>MC3-ASA-001</t>
@@ -22982,7 +24194,7 @@
         <v>2032.8</v>
       </c>
       <c r="AN157" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO157" t="n">
         <v>0</v>
@@ -23018,6 +24230,9 @@
           <t>MC3AW-015-V</t>
         </is>
       </c>
+      <c r="G158" t="n">
+        <v/>
+      </c>
       <c r="H158" t="inlineStr">
         <is>
           <t>MC3AW-015-V</t>
@@ -23066,6 +24281,15 @@
         <is>
           <t>SP3AW-015-V</t>
         </is>
+      </c>
+      <c r="U158" t="n">
+        <v/>
+      </c>
+      <c r="V158" t="n">
+        <v/>
+      </c>
+      <c r="W158" t="n">
+        <v/>
       </c>
       <c r="X158" t="n">
         <v>2</v>
@@ -23430,7 +24654,7 @@
         <v>1730.16</v>
       </c>
       <c r="AN160" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO160" t="n">
         <v>0</v>
@@ -23563,6 +24787,9 @@
           <t>Kulgachia - Small Line</t>
         </is>
       </c>
+      <c r="AH161" t="n">
+        <v/>
+      </c>
       <c r="AI161" t="n">
         <v>10</v>
       </c>
@@ -23712,6 +24939,9 @@
           <t>Kulgachia - Small Line</t>
         </is>
       </c>
+      <c r="AH162" t="n">
+        <v/>
+      </c>
       <c r="AI162" t="n">
         <v>12</v>
       </c>
@@ -23818,6 +25048,15 @@
           <t>SP3MGB-009-2T-NEO</t>
         </is>
       </c>
+      <c r="U163" t="n">
+        <v/>
+      </c>
+      <c r="V163" t="n">
+        <v/>
+      </c>
+      <c r="W163" t="n">
+        <v/>
+      </c>
       <c r="X163" t="n">
         <v>2</v>
       </c>
@@ -23852,6 +25091,9 @@
           <t>Kulgachia - Small Line</t>
         </is>
       </c>
+      <c r="AH163" t="n">
+        <v/>
+      </c>
       <c r="AI163" t="n">
         <v>12</v>
       </c>
@@ -23909,6 +25151,9 @@
           <t>KVCAD30MC001</t>
         </is>
       </c>
+      <c r="H164" t="n">
+        <v/>
+      </c>
       <c r="I164" t="n">
         <v>90</v>
       </c>
@@ -23948,6 +25193,18 @@
           <t>KVCALPPSP002</t>
         </is>
       </c>
+      <c r="T164" t="n">
+        <v/>
+      </c>
+      <c r="U164" t="n">
+        <v/>
+      </c>
+      <c r="V164" t="n">
+        <v/>
+      </c>
+      <c r="W164" t="n">
+        <v/>
+      </c>
       <c r="X164" t="n">
         <v>2</v>
       </c>
@@ -24003,7 +25260,7 @@
         <v>6000</v>
       </c>
       <c r="AN164" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO164" t="n">
         <v>0</v>
@@ -24044,6 +25301,9 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
+      <c r="H165" t="n">
+        <v/>
+      </c>
       <c r="I165" t="n">
         <v>40</v>
       </c>
@@ -24152,7 +25412,7 @@
         <v>5724</v>
       </c>
       <c r="AN165" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AO165" t="n">
         <v>0</v>
@@ -24193,6 +25453,9 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
+      <c r="H166" t="n">
+        <v/>
+      </c>
       <c r="I166" t="n">
         <v>40</v>
       </c>
@@ -24301,7 +25564,7 @@
         <v>4608</v>
       </c>
       <c r="AN166" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AO166" t="n">
         <v>0</v>
@@ -24455,7 +25718,7 @@
         <v>4010.4</v>
       </c>
       <c r="AN167" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AO167" t="n">
         <v>0</v>
@@ -24609,7 +25872,7 @@
         <v>3150</v>
       </c>
       <c r="AN168" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AO168" t="n">
         <v>0</v>
@@ -24763,7 +26026,7 @@
         <v>3885.48</v>
       </c>
       <c r="AN169" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AO169" t="n">
         <v>0</v>
@@ -24917,7 +26180,7 @@
         <v>3589.2</v>
       </c>
       <c r="AN170" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AO170" t="n">
         <v>0</v>
@@ -24953,6 +26216,12 @@
           <t>MC-LKK-024</t>
         </is>
       </c>
+      <c r="G171" t="n">
+        <v/>
+      </c>
+      <c r="H171" t="n">
+        <v/>
+      </c>
       <c r="I171" t="n">
         <v>170</v>
       </c>
@@ -24992,6 +26261,18 @@
           <t>KVCALPPSP002</t>
         </is>
       </c>
+      <c r="T171" t="n">
+        <v/>
+      </c>
+      <c r="U171" t="n">
+        <v/>
+      </c>
+      <c r="V171" t="n">
+        <v/>
+      </c>
+      <c r="W171" t="n">
+        <v/>
+      </c>
       <c r="X171" t="n">
         <v>2</v>
       </c>
@@ -25009,6 +26290,9 @@
       </c>
       <c r="AC171" t="n">
         <v>1</v>
+      </c>
+      <c r="AD171" t="n">
+        <v/>
       </c>
       <c r="AE171" t="n">
         <v>0</v>
@@ -25042,7 +26326,7 @@
         <v>262.8</v>
       </c>
       <c r="AN171" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AO171" t="n">
         <v>0</v>
@@ -25078,6 +26362,12 @@
           <t>MC-LKK-025</t>
         </is>
       </c>
+      <c r="G172" t="n">
+        <v/>
+      </c>
+      <c r="H172" t="n">
+        <v/>
+      </c>
       <c r="I172" t="n">
         <v>170</v>
       </c>
@@ -25117,6 +26407,18 @@
           <t>KVCALPPSP002</t>
         </is>
       </c>
+      <c r="T172" t="n">
+        <v/>
+      </c>
+      <c r="U172" t="n">
+        <v/>
+      </c>
+      <c r="V172" t="n">
+        <v/>
+      </c>
+      <c r="W172" t="n">
+        <v/>
+      </c>
       <c r="X172" t="n">
         <v>2</v>
       </c>
@@ -25134,6 +26436,9 @@
       </c>
       <c r="AC172" t="n">
         <v>1</v>
+      </c>
+      <c r="AD172" t="n">
+        <v/>
       </c>
       <c r="AE172" t="n">
         <v>0</v>
@@ -25167,7 +26472,7 @@
         <v>254.4</v>
       </c>
       <c r="AN172" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AO172" t="n">
         <v>0</v>
@@ -25203,6 +26508,12 @@
           <t>MC-LKK-026</t>
         </is>
       </c>
+      <c r="G173" t="n">
+        <v/>
+      </c>
+      <c r="H173" t="n">
+        <v/>
+      </c>
       <c r="I173" t="n">
         <v>170</v>
       </c>
@@ -25242,6 +26553,18 @@
           <t>KVCALPPSP002</t>
         </is>
       </c>
+      <c r="T173" t="n">
+        <v/>
+      </c>
+      <c r="U173" t="n">
+        <v/>
+      </c>
+      <c r="V173" t="n">
+        <v/>
+      </c>
+      <c r="W173" t="n">
+        <v/>
+      </c>
       <c r="X173" t="n">
         <v>2</v>
       </c>
@@ -25333,6 +26656,12 @@
           <t>MC-LKK-027</t>
         </is>
       </c>
+      <c r="G174" t="n">
+        <v/>
+      </c>
+      <c r="H174" t="n">
+        <v/>
+      </c>
       <c r="I174" t="n">
         <v>170</v>
       </c>
@@ -25372,6 +26701,18 @@
           <t>KVCALPPSP002</t>
         </is>
       </c>
+      <c r="T174" t="n">
+        <v/>
+      </c>
+      <c r="U174" t="n">
+        <v/>
+      </c>
+      <c r="V174" t="n">
+        <v/>
+      </c>
+      <c r="W174" t="n">
+        <v/>
+      </c>
       <c r="X174" t="n">
         <v>2</v>
       </c>
@@ -25463,6 +26804,12 @@
           <t>MC-LKK-028</t>
         </is>
       </c>
+      <c r="G175" t="n">
+        <v/>
+      </c>
+      <c r="H175" t="n">
+        <v/>
+      </c>
       <c r="I175" t="n">
         <v>170</v>
       </c>
@@ -25502,6 +26849,18 @@
           <t>KVCALPPSP002</t>
         </is>
       </c>
+      <c r="T175" t="n">
+        <v/>
+      </c>
+      <c r="U175" t="n">
+        <v/>
+      </c>
+      <c r="V175" t="n">
+        <v/>
+      </c>
+      <c r="W175" t="n">
+        <v/>
+      </c>
       <c r="X175" t="n">
         <v>2</v>
       </c>
@@ -25557,7 +26916,7 @@
         <v>176.4</v>
       </c>
       <c r="AN175" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AO175" t="n">
         <v>0</v>
@@ -25593,6 +26952,12 @@
           <t>MC-LKK-029</t>
         </is>
       </c>
+      <c r="G176" t="n">
+        <v/>
+      </c>
+      <c r="H176" t="n">
+        <v/>
+      </c>
       <c r="I176" t="n">
         <v>170</v>
       </c>
@@ -25632,6 +26997,18 @@
           <t>KVCALPPSP002</t>
         </is>
       </c>
+      <c r="T176" t="n">
+        <v/>
+      </c>
+      <c r="U176" t="n">
+        <v/>
+      </c>
+      <c r="V176" t="n">
+        <v/>
+      </c>
+      <c r="W176" t="n">
+        <v/>
+      </c>
       <c r="X176" t="n">
         <v>2</v>
       </c>
@@ -25687,7 +27064,7 @@
         <v>220.8</v>
       </c>
       <c r="AN176" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AO176" t="n">
         <v>0</v>
@@ -26036,6 +27413,9 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
+      <c r="H179" t="n">
+        <v/>
+      </c>
       <c r="I179" t="n">
         <v>40</v>
       </c>
@@ -26144,7 +27524,7 @@
         <v>3252</v>
       </c>
       <c r="AN179" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO179" t="n">
         <v>0</v>
@@ -26185,6 +27565,9 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
+      <c r="H180" t="n">
+        <v/>
+      </c>
       <c r="I180" t="n">
         <v>40</v>
       </c>
@@ -26293,7 +27676,7 @@
         <v>4168.8</v>
       </c>
       <c r="AN180" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO180" t="n">
         <v>0</v>
@@ -26334,6 +27717,9 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
+      <c r="H181" t="n">
+        <v/>
+      </c>
       <c r="I181" t="n">
         <v>40</v>
       </c>
@@ -26442,7 +27828,7 @@
         <v>4636.8</v>
       </c>
       <c r="AN181" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO181" t="n">
         <v>0</v>
@@ -26483,6 +27869,9 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
+      <c r="H182" t="n">
+        <v/>
+      </c>
       <c r="I182" t="n">
         <v>40</v>
       </c>
@@ -26591,7 +27980,7 @@
         <v>3751.2</v>
       </c>
       <c r="AN182" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO182" t="n">
         <v>0</v>
@@ -26632,6 +28021,9 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
+      <c r="H183" t="n">
+        <v/>
+      </c>
       <c r="I183" t="n">
         <v>40</v>
       </c>
@@ -26781,6 +28173,9 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
+      <c r="H184" t="n">
+        <v/>
+      </c>
       <c r="I184" t="n">
         <v>40</v>
       </c>
@@ -26820,6 +28215,18 @@
           <t>KVCALPPSP002</t>
         </is>
       </c>
+      <c r="T184" t="n">
+        <v/>
+      </c>
+      <c r="U184" t="n">
+        <v/>
+      </c>
+      <c r="V184" t="n">
+        <v/>
+      </c>
+      <c r="W184" t="n">
+        <v/>
+      </c>
       <c r="X184" t="n">
         <v>2</v>
       </c>
@@ -26837,6 +28244,9 @@
       </c>
       <c r="AC184" t="n">
         <v>1</v>
+      </c>
+      <c r="AD184" t="n">
+        <v/>
       </c>
       <c r="AE184" t="n">
         <v>0</v>
@@ -26911,6 +28321,9 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
+      <c r="H185" t="n">
+        <v/>
+      </c>
       <c r="I185" t="n">
         <v>80</v>
       </c>
@@ -26950,6 +28363,18 @@
           <t>KVCALPPSP002</t>
         </is>
       </c>
+      <c r="T185" t="n">
+        <v/>
+      </c>
+      <c r="U185" t="n">
+        <v/>
+      </c>
+      <c r="V185" t="n">
+        <v/>
+      </c>
+      <c r="W185" t="n">
+        <v/>
+      </c>
       <c r="X185" t="n">
         <v>2</v>
       </c>
@@ -27005,7 +28430,7 @@
         <v>792</v>
       </c>
       <c r="AN185" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AO185" t="n">
         <v>0</v>
@@ -27046,6 +28471,9 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
+      <c r="H186" t="n">
+        <v/>
+      </c>
       <c r="I186" t="n">
         <v>80</v>
       </c>
@@ -27085,6 +28513,18 @@
           <t>KVCALPPSP002</t>
         </is>
       </c>
+      <c r="T186" t="n">
+        <v/>
+      </c>
+      <c r="U186" t="n">
+        <v/>
+      </c>
+      <c r="V186" t="n">
+        <v/>
+      </c>
+      <c r="W186" t="n">
+        <v/>
+      </c>
       <c r="X186" t="n">
         <v>2</v>
       </c>
@@ -27102,6 +28542,9 @@
       </c>
       <c r="AC186" t="n">
         <v>1</v>
+      </c>
+      <c r="AD186" t="n">
+        <v/>
       </c>
       <c r="AE186" t="n">
         <v>0</v>
@@ -27176,6 +28619,9 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
+      <c r="H187" t="n">
+        <v/>
+      </c>
       <c r="I187" t="n">
         <v>80</v>
       </c>
@@ -27215,6 +28661,18 @@
           <t>KVCALPPSP002</t>
         </is>
       </c>
+      <c r="T187" t="n">
+        <v/>
+      </c>
+      <c r="U187" t="n">
+        <v/>
+      </c>
+      <c r="V187" t="n">
+        <v/>
+      </c>
+      <c r="W187" t="n">
+        <v/>
+      </c>
       <c r="X187" t="n">
         <v>2</v>
       </c>
@@ -27270,7 +28728,7 @@
         <v>3816</v>
       </c>
       <c r="AN187" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO187" t="n">
         <v>0</v>
@@ -27311,6 +28769,9 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
+      <c r="H188" t="n">
+        <v/>
+      </c>
       <c r="I188" t="n">
         <v>40</v>
       </c>
@@ -27419,7 +28880,7 @@
         <v>4488</v>
       </c>
       <c r="AN188" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO188" t="n">
         <v>0</v>
@@ -27460,6 +28921,9 @@
           <t>KVCAD30MC001</t>
         </is>
       </c>
+      <c r="H189" t="n">
+        <v/>
+      </c>
       <c r="I189" t="n">
         <v>40</v>
       </c>
@@ -27499,6 +28963,18 @@
           <t>KVCALPPSP002</t>
         </is>
       </c>
+      <c r="T189" t="n">
+        <v/>
+      </c>
+      <c r="U189" t="n">
+        <v/>
+      </c>
+      <c r="V189" t="n">
+        <v/>
+      </c>
+      <c r="W189" t="n">
+        <v/>
+      </c>
       <c r="X189" t="n">
         <v>2</v>
       </c>
@@ -27554,7 +29030,7 @@
         <v>3640.8</v>
       </c>
       <c r="AN189" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO189" t="n">
         <v>0</v>
@@ -27595,6 +29071,9 @@
           <t>KVCAD30MC001</t>
         </is>
       </c>
+      <c r="H190" t="n">
+        <v/>
+      </c>
       <c r="I190" t="n">
         <v>40</v>
       </c>
@@ -27634,6 +29113,18 @@
           <t>KVCALPPSP002</t>
         </is>
       </c>
+      <c r="T190" t="n">
+        <v/>
+      </c>
+      <c r="U190" t="n">
+        <v/>
+      </c>
+      <c r="V190" t="n">
+        <v/>
+      </c>
+      <c r="W190" t="n">
+        <v/>
+      </c>
       <c r="X190" t="n">
         <v>2</v>
       </c>
@@ -27689,7 +29180,7 @@
         <v>3523.2</v>
       </c>
       <c r="AN190" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO190" t="n">
         <v>0</v>
@@ -27730,6 +29221,9 @@
           <t>KVCAD30MC001</t>
         </is>
       </c>
+      <c r="H191" t="n">
+        <v/>
+      </c>
       <c r="I191" t="n">
         <v>40</v>
       </c>
@@ -27769,6 +29263,18 @@
           <t>KVCALPPSP002</t>
         </is>
       </c>
+      <c r="T191" t="n">
+        <v/>
+      </c>
+      <c r="U191" t="n">
+        <v/>
+      </c>
+      <c r="V191" t="n">
+        <v/>
+      </c>
+      <c r="W191" t="n">
+        <v/>
+      </c>
       <c r="X191" t="n">
         <v>2</v>
       </c>
@@ -27824,7 +29330,7 @@
         <v>2692.8</v>
       </c>
       <c r="AN191" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO191" t="n">
         <v>0</v>
@@ -27865,6 +29371,9 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
+      <c r="H192" t="n">
+        <v/>
+      </c>
       <c r="I192" t="n">
         <v>40</v>
       </c>
@@ -27909,6 +29418,15 @@
           <t>KVCALFPSP001</t>
         </is>
       </c>
+      <c r="U192" t="n">
+        <v/>
+      </c>
+      <c r="V192" t="n">
+        <v/>
+      </c>
+      <c r="W192" t="n">
+        <v/>
+      </c>
       <c r="X192" t="n">
         <v>2</v>
       </c>
@@ -28005,6 +29523,9 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
+      <c r="H193" t="n">
+        <v/>
+      </c>
       <c r="I193" t="n">
         <v>40</v>
       </c>
@@ -28049,6 +29570,15 @@
           <t>KVCALFPSP001</t>
         </is>
       </c>
+      <c r="U193" t="n">
+        <v/>
+      </c>
+      <c r="V193" t="n">
+        <v/>
+      </c>
+      <c r="W193" t="n">
+        <v/>
+      </c>
       <c r="X193" t="n">
         <v>2</v>
       </c>
@@ -28145,6 +29675,9 @@
           <t>BVCAD50MC001</t>
         </is>
       </c>
+      <c r="H194" t="n">
+        <v/>
+      </c>
       <c r="I194" t="n">
         <v>40</v>
       </c>
@@ -28184,6 +29717,18 @@
           <t>BVCALPPSP002</t>
         </is>
       </c>
+      <c r="T194" t="n">
+        <v/>
+      </c>
+      <c r="U194" t="n">
+        <v/>
+      </c>
+      <c r="V194" t="n">
+        <v/>
+      </c>
+      <c r="W194" t="n">
+        <v/>
+      </c>
       <c r="X194" t="n">
         <v>2</v>
       </c>
@@ -28239,7 +29784,7 @@
         <v>2378.4</v>
       </c>
       <c r="AN194" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO194" t="n">
         <v>0</v>
@@ -28280,6 +29825,9 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
+      <c r="H195" t="n">
+        <v/>
+      </c>
       <c r="I195" t="n">
         <v>40</v>
       </c>
@@ -28319,6 +29867,18 @@
           <t>KVCALPPSP002</t>
         </is>
       </c>
+      <c r="T195" t="n">
+        <v/>
+      </c>
+      <c r="U195" t="n">
+        <v/>
+      </c>
+      <c r="V195" t="n">
+        <v/>
+      </c>
+      <c r="W195" t="n">
+        <v/>
+      </c>
       <c r="X195" t="n">
         <v>2</v>
       </c>
@@ -28374,7 +29934,7 @@
         <v>1212</v>
       </c>
       <c r="AN195" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO195" t="n">
         <v>0</v>
@@ -28410,6 +29970,12 @@
           <t>MC-UBC-053</t>
         </is>
       </c>
+      <c r="G196" t="n">
+        <v/>
+      </c>
+      <c r="H196" t="n">
+        <v/>
+      </c>
       <c r="I196" t="n">
         <v>50</v>
       </c>
@@ -28454,6 +30020,15 @@
           <t>KVCALFPSP001</t>
         </is>
       </c>
+      <c r="U196" t="n">
+        <v/>
+      </c>
+      <c r="V196" t="n">
+        <v/>
+      </c>
+      <c r="W196" t="n">
+        <v/>
+      </c>
       <c r="X196" t="n">
         <v>2</v>
       </c>
@@ -28509,7 +30084,7 @@
         <v>8280</v>
       </c>
       <c r="AN196" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO196" t="n">
         <v>0</v>
@@ -28550,6 +30125,9 @@
           <t>KVCAD30MC001</t>
         </is>
       </c>
+      <c r="H197" t="n">
+        <v/>
+      </c>
       <c r="I197" t="n">
         <v>90</v>
       </c>
@@ -28589,6 +30167,18 @@
           <t>BVCALPPSP002</t>
         </is>
       </c>
+      <c r="T197" t="n">
+        <v/>
+      </c>
+      <c r="U197" t="n">
+        <v/>
+      </c>
+      <c r="V197" t="n">
+        <v/>
+      </c>
+      <c r="W197" t="n">
+        <v/>
+      </c>
       <c r="X197" t="n">
         <v>2</v>
       </c>
@@ -28644,7 +30234,7 @@
         <v>5050.8</v>
       </c>
       <c r="AN197" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO197" t="n">
         <v>0</v>
@@ -28685,6 +30275,9 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
+      <c r="H198" t="n">
+        <v/>
+      </c>
       <c r="I198" t="n">
         <v>90</v>
       </c>
@@ -28729,6 +30322,15 @@
           <t>KVCALFPSP001</t>
         </is>
       </c>
+      <c r="U198" t="n">
+        <v/>
+      </c>
+      <c r="V198" t="n">
+        <v/>
+      </c>
+      <c r="W198" t="n">
+        <v/>
+      </c>
       <c r="X198" t="n">
         <v>2</v>
       </c>
@@ -28746,6 +30348,9 @@
       </c>
       <c r="AC198" t="n">
         <v>1</v>
+      </c>
+      <c r="AD198" t="n">
+        <v/>
       </c>
       <c r="AE198" t="n">
         <v>0</v>
@@ -28779,7 +30384,7 @@
         <v>777.6</v>
       </c>
       <c r="AN198" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AO198" t="n">
         <v>0</v>
@@ -28820,6 +30425,9 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
+      <c r="H199" t="n">
+        <v/>
+      </c>
       <c r="I199" t="n">
         <v>90</v>
       </c>
@@ -28864,6 +30472,15 @@
           <t>KVCALFPSP001</t>
         </is>
       </c>
+      <c r="U199" t="n">
+        <v/>
+      </c>
+      <c r="V199" t="n">
+        <v/>
+      </c>
+      <c r="W199" t="n">
+        <v/>
+      </c>
       <c r="X199" t="n">
         <v>2</v>
       </c>
@@ -28881,6 +30498,9 @@
       </c>
       <c r="AC199" t="n">
         <v>1</v>
+      </c>
+      <c r="AD199" t="n">
+        <v/>
       </c>
       <c r="AE199" t="n">
         <v>0</v>
@@ -28914,7 +30534,7 @@
         <v>777.6</v>
       </c>
       <c r="AN199" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AO199" t="n">
         <v>0</v>
@@ -28955,6 +30575,9 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
+      <c r="H200" t="n">
+        <v/>
+      </c>
       <c r="I200" t="n">
         <v>40</v>
       </c>
@@ -28999,6 +30622,15 @@
           <t>KVCALFPSP001</t>
         </is>
       </c>
+      <c r="U200" t="n">
+        <v/>
+      </c>
+      <c r="V200" t="n">
+        <v/>
+      </c>
+      <c r="W200" t="n">
+        <v/>
+      </c>
       <c r="X200" t="n">
         <v>2</v>
       </c>
@@ -29016,6 +30648,9 @@
       </c>
       <c r="AC200" t="n">
         <v>1</v>
+      </c>
+      <c r="AD200" t="n">
+        <v/>
       </c>
       <c r="AE200" t="n">
         <v>0</v>
@@ -29090,6 +30725,9 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
+      <c r="H201" t="n">
+        <v/>
+      </c>
       <c r="I201" t="n">
         <v>40</v>
       </c>
@@ -29134,6 +30772,15 @@
           <t>KVCALFPSP001</t>
         </is>
       </c>
+      <c r="U201" t="n">
+        <v/>
+      </c>
+      <c r="V201" t="n">
+        <v/>
+      </c>
+      <c r="W201" t="n">
+        <v/>
+      </c>
       <c r="X201" t="n">
         <v>2</v>
       </c>
@@ -29151,6 +30798,9 @@
       </c>
       <c r="AC201" t="n">
         <v>1</v>
+      </c>
+      <c r="AD201" t="n">
+        <v/>
       </c>
       <c r="AE201" t="n">
         <v>0</v>
@@ -29225,6 +30875,9 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
+      <c r="H202" t="n">
+        <v/>
+      </c>
       <c r="I202" t="n">
         <v>40</v>
       </c>
@@ -29269,6 +30922,15 @@
           <t>KVCALFPSP001</t>
         </is>
       </c>
+      <c r="U202" t="n">
+        <v/>
+      </c>
+      <c r="V202" t="n">
+        <v/>
+      </c>
+      <c r="W202" t="n">
+        <v/>
+      </c>
       <c r="X202" t="n">
         <v>2</v>
       </c>
@@ -29286,6 +30948,9 @@
       </c>
       <c r="AC202" t="n">
         <v>1</v>
+      </c>
+      <c r="AD202" t="n">
+        <v/>
       </c>
       <c r="AE202" t="n">
         <v>0</v>
@@ -29317,7 +30982,7 @@
         <v>0</v>
       </c>
       <c r="AN202" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO202" t="n">
         <v>0</v>
@@ -29358,6 +31023,9 @@
           <t>KVCAD50MC001</t>
         </is>
       </c>
+      <c r="H203" t="n">
+        <v/>
+      </c>
       <c r="I203" t="n">
         <v>40</v>
       </c>
@@ -29402,6 +31070,15 @@
           <t>KVCALFPSP001</t>
         </is>
       </c>
+      <c r="U203" t="n">
+        <v/>
+      </c>
+      <c r="V203" t="n">
+        <v/>
+      </c>
+      <c r="W203" t="n">
+        <v/>
+      </c>
       <c r="X203" t="n">
         <v>2</v>
       </c>
@@ -29419,6 +31096,9 @@
       </c>
       <c r="AC203" t="n">
         <v>1</v>
+      </c>
+      <c r="AD203" t="n">
+        <v/>
       </c>
       <c r="AE203" t="n">
         <v>0</v>
@@ -29450,7 +31130,7 @@
         <v>0</v>
       </c>
       <c r="AN203" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO203" t="n">
         <v>0</v>
@@ -29486,6 +31166,12 @@
           <t>MC1-KBS-014</t>
         </is>
       </c>
+      <c r="G204" t="n">
+        <v/>
+      </c>
+      <c r="H204" t="n">
+        <v/>
+      </c>
       <c r="I204" t="n">
         <v>20</v>
       </c>
@@ -29520,6 +31206,21 @@
           <t>SP1-KBS-014</t>
         </is>
       </c>
+      <c r="S204" t="n">
+        <v/>
+      </c>
+      <c r="T204" t="n">
+        <v/>
+      </c>
+      <c r="U204" t="n">
+        <v/>
+      </c>
+      <c r="V204" t="n">
+        <v/>
+      </c>
+      <c r="W204" t="n">
+        <v/>
+      </c>
       <c r="X204" t="n">
         <v>2</v>
       </c>
@@ -29537,6 +31238,9 @@
       </c>
       <c r="AC204" t="n">
         <v>0</v>
+      </c>
+      <c r="AD204" t="n">
+        <v/>
       </c>
       <c r="AE204" t="n">
         <v>0</v>
@@ -47062,9 +48766,6 @@
       <c r="B2" t="n">
         <v>3</v>
       </c>
-      <c r="C2" t="n">
-        <v/>
-      </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>Vacuum All</t>
